--- a/database/industries/urea/khorasan/product/monthly_seprated.xlsx
+++ b/database/industries/urea/khorasan/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\khorasan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C157F1A-CB9D-40BD-8029-19FC5E5D458B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F3319D-DFEE-4521-99C0-C141237C822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="98">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1528,98 +1528,98 @@
       <c r="W11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="X11" s="11">
+        <v>15691</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>32210</v>
       </c>
       <c r="Z11" s="11">
-        <v>15691</v>
+        <v>53078</v>
       </c>
       <c r="AA11" s="11">
-        <v>32210</v>
+        <v>53170</v>
       </c>
       <c r="AB11" s="11">
-        <v>53078</v>
+        <v>51384</v>
       </c>
       <c r="AC11" s="11">
-        <v>53170</v>
+        <v>51372</v>
       </c>
       <c r="AD11" s="11">
-        <v>51384</v>
+        <v>50473</v>
       </c>
       <c r="AE11" s="11">
-        <v>51372</v>
+        <v>27459</v>
       </c>
       <c r="AF11" s="11">
-        <v>50473</v>
+        <v>29484</v>
       </c>
       <c r="AG11" s="11">
-        <v>27459</v>
+        <v>51095</v>
       </c>
       <c r="AH11" s="11">
-        <v>29484</v>
+        <v>53131</v>
       </c>
       <c r="AI11" s="11">
-        <v>51095</v>
+        <v>53107</v>
       </c>
       <c r="AJ11" s="11">
-        <v>53131</v>
+        <v>53127</v>
       </c>
       <c r="AK11" s="11">
-        <v>53107</v>
+        <v>53044</v>
       </c>
       <c r="AL11" s="11">
-        <v>53127</v>
+        <v>53080</v>
       </c>
       <c r="AM11" s="11">
-        <v>53044</v>
+        <v>49666</v>
       </c>
       <c r="AN11" s="11">
-        <v>53080</v>
+        <v>51404</v>
       </c>
       <c r="AO11" s="11">
-        <v>49666</v>
+        <v>51366</v>
       </c>
       <c r="AP11" s="11">
-        <v>51404</v>
+        <v>51348</v>
       </c>
       <c r="AQ11" s="11">
-        <v>51366</v>
+        <v>45940</v>
       </c>
       <c r="AR11" s="11">
-        <v>51348</v>
+        <v>5880</v>
       </c>
       <c r="AS11" s="11">
-        <v>45940</v>
+        <v>47514</v>
       </c>
       <c r="AT11" s="11">
-        <v>5880</v>
+        <v>52878</v>
       </c>
       <c r="AU11" s="11">
-        <v>47514</v>
+        <v>52908</v>
       </c>
       <c r="AV11" s="11">
-        <v>52878</v>
+        <v>52744</v>
       </c>
       <c r="AW11" s="11">
-        <v>52908</v>
+        <v>52863</v>
       </c>
       <c r="AX11" s="11">
-        <v>52744</v>
+        <v>52876</v>
       </c>
       <c r="AY11" s="11">
-        <v>52863</v>
+        <v>52970</v>
       </c>
       <c r="AZ11" s="11">
-        <v>52876</v>
+        <v>49925</v>
       </c>
       <c r="BA11" s="11">
-        <v>52970</v>
+        <v>50864</v>
       </c>
       <c r="BB11" s="11">
-        <v>49925</v>
+        <v>43382</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1687,80 +1687,80 @@
       <c r="W12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="X12" s="13">
+        <v>8460</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>19051</v>
       </c>
       <c r="Z12" s="13">
-        <v>8460</v>
+        <v>31516</v>
       </c>
       <c r="AA12" s="13">
-        <v>19051</v>
+        <v>31366</v>
       </c>
       <c r="AB12" s="13">
-        <v>31516</v>
+        <v>29980</v>
       </c>
       <c r="AC12" s="13">
-        <v>31366</v>
+        <v>30070</v>
       </c>
       <c r="AD12" s="13">
-        <v>29980</v>
+        <v>29493</v>
       </c>
       <c r="AE12" s="13">
-        <v>30070</v>
+        <v>14118</v>
       </c>
       <c r="AF12" s="13">
-        <v>29493</v>
+        <v>12740</v>
       </c>
       <c r="AG12" s="13">
-        <v>14118</v>
+        <v>28960</v>
       </c>
       <c r="AH12" s="13">
-        <v>12740</v>
+        <v>31008</v>
       </c>
       <c r="AI12" s="13">
-        <v>28960</v>
+        <v>31043</v>
       </c>
       <c r="AJ12" s="13">
-        <v>31008</v>
+        <v>30170</v>
       </c>
       <c r="AK12" s="13">
-        <v>31043</v>
+        <v>31002</v>
       </c>
       <c r="AL12" s="13">
-        <v>30170</v>
+        <v>30993</v>
       </c>
       <c r="AM12" s="13">
-        <v>31002</v>
+        <v>30938</v>
       </c>
       <c r="AN12" s="13">
-        <v>30993</v>
+        <v>30000</v>
       </c>
       <c r="AO12" s="13">
-        <v>30938</v>
+        <v>30000</v>
       </c>
       <c r="AP12" s="13">
         <v>30000</v>
       </c>
       <c r="AQ12" s="13">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="AR12" s="13">
-        <v>30000</v>
+        <v>2807</v>
       </c>
       <c r="AS12" s="13">
-        <v>27000</v>
+        <v>27684</v>
       </c>
       <c r="AT12" s="13">
-        <v>2807</v>
+        <v>31005</v>
       </c>
       <c r="AU12" s="13">
-        <v>27684</v>
+        <v>31000</v>
       </c>
       <c r="AV12" s="13">
-        <v>31005</v>
+        <v>31000</v>
       </c>
       <c r="AW12" s="13">
         <v>31000</v>
@@ -1769,16 +1769,16 @@
         <v>31000</v>
       </c>
       <c r="AY12" s="13">
-        <v>31000</v>
+        <v>31040</v>
       </c>
       <c r="AZ12" s="13">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="BA12" s="13">
-        <v>31040</v>
+        <v>30000</v>
       </c>
       <c r="BB12" s="13">
-        <v>30000</v>
+        <v>26796</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1846,11 +1846,11 @@
       <c r="W13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="X13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>0</v>
       </c>
       <c r="Z13" s="11">
         <v>0</v>
@@ -1879,11 +1879,11 @@
       <c r="AH13" s="11">
         <v>0</v>
       </c>
-      <c r="AI13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>0</v>
+      <c r="AI13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK13" s="11" t="s">
         <v>58</v>
@@ -1912,17 +1912,17 @@
       <c r="AS13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW13" s="11" t="s">
-        <v>58</v>
+      <c r="AT13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>0</v>
       </c>
       <c r="AX13" s="11">
         <v>0</v>
@@ -2005,98 +2005,98 @@
       <c r="W14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="X14" s="13">
+        <v>589</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>1026</v>
       </c>
       <c r="Z14" s="13">
-        <v>589</v>
+        <v>1858</v>
       </c>
       <c r="AA14" s="13">
-        <v>1026</v>
+        <v>1879</v>
       </c>
       <c r="AB14" s="13">
-        <v>1858</v>
+        <v>1818</v>
       </c>
       <c r="AC14" s="13">
+        <v>1818</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>1808</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>951</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>981</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>1804</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>1881</v>
+      </c>
+      <c r="AI14" s="13">
         <v>1879</v>
       </c>
-      <c r="AD14" s="13">
-        <v>1818</v>
-      </c>
-      <c r="AE14" s="13">
-        <v>1818</v>
-      </c>
-      <c r="AF14" s="13">
-        <v>1808</v>
-      </c>
-      <c r="AG14" s="13">
-        <v>951</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>981</v>
-      </c>
-      <c r="AI14" s="13">
-        <v>1804</v>
-      </c>
       <c r="AJ14" s="13">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="AK14" s="13">
         <v>1879</v>
       </c>
       <c r="AL14" s="13">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="AM14" s="13">
-        <v>1879</v>
+        <v>1803</v>
       </c>
       <c r="AN14" s="13">
-        <v>1879</v>
+        <v>1818</v>
       </c>
       <c r="AO14" s="13">
-        <v>1803</v>
+        <v>1818</v>
       </c>
       <c r="AP14" s="13">
         <v>1818</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1818</v>
+        <v>1576</v>
       </c>
       <c r="AR14" s="13">
-        <v>1818</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="13">
-        <v>1576</v>
+        <v>1434</v>
       </c>
       <c r="AT14" s="13">
-        <v>0</v>
+        <v>1879</v>
       </c>
       <c r="AU14" s="13">
-        <v>1434</v>
+        <v>1879</v>
       </c>
       <c r="AV14" s="13">
-        <v>1879</v>
+        <v>1697</v>
       </c>
       <c r="AW14" s="13">
         <v>1879</v>
       </c>
       <c r="AX14" s="13">
-        <v>1697</v>
+        <v>1879</v>
       </c>
       <c r="AY14" s="13">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="AZ14" s="13">
-        <v>1879</v>
+        <v>787</v>
       </c>
       <c r="BA14" s="13">
-        <v>1880</v>
+        <v>1818</v>
       </c>
       <c r="BB14" s="13">
-        <v>787</v>
+        <v>888</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2164,11 +2164,11 @@
       <c r="W15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
+      <c r="X15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>0</v>
       </c>
       <c r="Z15" s="11">
         <v>0</v>
@@ -2194,11 +2194,11 @@
       <c r="AG15" s="11">
         <v>0</v>
       </c>
-      <c r="AH15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="11">
-        <v>0</v>
+      <c r="AH15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ15" s="11" t="s">
         <v>58</v>
@@ -2389,17 +2389,17 @@
       <c r="AS16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW16" s="13" t="s">
-        <v>58</v>
+      <c r="AT16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>0</v>
       </c>
       <c r="AX16" s="13">
         <v>0</v>
@@ -2482,98 +2482,98 @@
       <c r="W17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
+      <c r="X17" s="11">
+        <v>7920</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>16402</v>
       </c>
       <c r="Z17" s="11">
-        <v>7920</v>
+        <v>27179</v>
       </c>
       <c r="AA17" s="11">
-        <v>16402</v>
+        <v>27207</v>
       </c>
       <c r="AB17" s="11">
-        <v>27179</v>
+        <v>26204</v>
       </c>
       <c r="AC17" s="11">
-        <v>27207</v>
+        <v>26181</v>
       </c>
       <c r="AD17" s="11">
-        <v>26204</v>
+        <v>25679</v>
       </c>
       <c r="AE17" s="11">
-        <v>26181</v>
+        <v>13270</v>
       </c>
       <c r="AF17" s="11">
-        <v>25679</v>
+        <v>14863</v>
       </c>
       <c r="AG17" s="11">
-        <v>13270</v>
+        <v>25947</v>
       </c>
       <c r="AH17" s="11">
-        <v>14863</v>
+        <v>27097</v>
       </c>
       <c r="AI17" s="11">
-        <v>25947</v>
+        <v>27075</v>
       </c>
       <c r="AJ17" s="11">
-        <v>27097</v>
+        <v>27096</v>
       </c>
       <c r="AK17" s="11">
-        <v>27075</v>
+        <v>27199</v>
       </c>
       <c r="AL17" s="11">
-        <v>27096</v>
+        <v>27242</v>
       </c>
       <c r="AM17" s="11">
-        <v>27199</v>
+        <v>25376</v>
       </c>
       <c r="AN17" s="11">
-        <v>27242</v>
+        <v>26327</v>
       </c>
       <c r="AO17" s="11">
-        <v>25376</v>
+        <v>26286</v>
       </c>
       <c r="AP17" s="11">
-        <v>26327</v>
+        <v>26277</v>
       </c>
       <c r="AQ17" s="11">
-        <v>26286</v>
+        <v>23636</v>
       </c>
       <c r="AR17" s="11">
-        <v>26277</v>
+        <v>3365</v>
       </c>
       <c r="AS17" s="11">
-        <v>23636</v>
+        <v>24208</v>
       </c>
       <c r="AT17" s="11">
-        <v>3365</v>
+        <v>27054</v>
       </c>
       <c r="AU17" s="11">
-        <v>24208</v>
+        <v>27039</v>
       </c>
       <c r="AV17" s="11">
-        <v>27054</v>
+        <v>27040</v>
       </c>
       <c r="AW17" s="11">
-        <v>27039</v>
+        <v>26985</v>
       </c>
       <c r="AX17" s="11">
-        <v>27040</v>
+        <v>27032</v>
       </c>
       <c r="AY17" s="11">
-        <v>26985</v>
+        <v>27152</v>
       </c>
       <c r="AZ17" s="11">
-        <v>27032</v>
+        <v>27000</v>
       </c>
       <c r="BA17" s="11">
-        <v>27152</v>
+        <v>26330</v>
       </c>
       <c r="BB17" s="11">
-        <v>27000</v>
+        <v>23462</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2641,98 +2641,98 @@
       <c r="W18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
+      <c r="X18" s="13">
+        <v>1800</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>3377</v>
       </c>
       <c r="Z18" s="13">
-        <v>1800</v>
+        <v>5983</v>
       </c>
       <c r="AA18" s="13">
-        <v>3377</v>
+        <v>6033</v>
       </c>
       <c r="AB18" s="13">
-        <v>5983</v>
+        <v>5844</v>
       </c>
       <c r="AC18" s="13">
+        <v>5844</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>5739</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>2958</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>3220</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>5740</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>6076</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>6078</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>6087</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>5985</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>5980</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>5745</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>5820</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>5814</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>5822</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>5051</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>4566</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>6049</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>6043</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>5427</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>6002</v>
+      </c>
+      <c r="AX18" s="13">
         <v>6033</v>
       </c>
-      <c r="AD18" s="13">
-        <v>5844</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>5844</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>5739</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>2958</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>3220</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>5740</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>6076</v>
-      </c>
-      <c r="AK18" s="13">
-        <v>6078</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>6087</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>5985</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>5980</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>5745</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>5820</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>5814</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>5822</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>5051</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>4566</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>6049</v>
-      </c>
-      <c r="AW18" s="13">
-        <v>6043</v>
-      </c>
-      <c r="AX18" s="13">
-        <v>5427</v>
-      </c>
       <c r="AY18" s="13">
-        <v>6002</v>
+        <v>6066</v>
       </c>
       <c r="AZ18" s="13">
-        <v>6033</v>
+        <v>2698</v>
       </c>
       <c r="BA18" s="13">
-        <v>6066</v>
+        <v>5862</v>
       </c>
       <c r="BB18" s="13">
-        <v>2698</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2800,98 +2800,98 @@
       <c r="W19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
+      <c r="X19" s="11">
+        <v>512</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>857</v>
       </c>
       <c r="Z19" s="11">
-        <v>512</v>
+        <v>1360</v>
       </c>
       <c r="AA19" s="11">
-        <v>857</v>
+        <v>1395</v>
       </c>
       <c r="AB19" s="11">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="AC19" s="11">
-        <v>1395</v>
+        <v>1367</v>
       </c>
       <c r="AD19" s="11">
-        <v>1356</v>
+        <v>1403</v>
       </c>
       <c r="AE19" s="11">
-        <v>1367</v>
+        <v>977</v>
       </c>
       <c r="AF19" s="11">
-        <v>1403</v>
+        <v>806</v>
       </c>
       <c r="AG19" s="11">
-        <v>977</v>
+        <v>1334</v>
       </c>
       <c r="AH19" s="11">
-        <v>806</v>
+        <v>1397</v>
       </c>
       <c r="AI19" s="11">
-        <v>1334</v>
+        <v>1412</v>
       </c>
       <c r="AJ19" s="11">
-        <v>1397</v>
+        <v>1420</v>
       </c>
       <c r="AK19" s="11">
-        <v>1412</v>
+        <v>1346</v>
       </c>
       <c r="AL19" s="11">
-        <v>1420</v>
+        <v>1332</v>
       </c>
       <c r="AM19" s="11">
-        <v>1346</v>
+        <v>1316</v>
       </c>
       <c r="AN19" s="11">
-        <v>1332</v>
+        <v>1289</v>
       </c>
       <c r="AO19" s="11">
-        <v>1316</v>
+        <v>1345</v>
       </c>
       <c r="AP19" s="11">
-        <v>1289</v>
+        <v>1355</v>
       </c>
       <c r="AQ19" s="11">
-        <v>1345</v>
+        <v>1272</v>
       </c>
       <c r="AR19" s="11">
-        <v>1355</v>
+        <v>0</v>
       </c>
       <c r="AS19" s="11">
-        <v>1272</v>
+        <v>1205</v>
       </c>
       <c r="AT19" s="11">
-        <v>0</v>
+        <v>1341</v>
       </c>
       <c r="AU19" s="11">
-        <v>1205</v>
+        <v>1350</v>
       </c>
       <c r="AV19" s="11">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="AW19" s="11">
+        <v>1366</v>
+      </c>
+      <c r="AX19" s="11">
+        <v>1380</v>
+      </c>
+      <c r="AY19" s="11">
         <v>1350</v>
       </c>
-      <c r="AX19" s="11">
-        <v>1331</v>
-      </c>
-      <c r="AY19" s="11">
-        <v>1366</v>
-      </c>
       <c r="AZ19" s="11">
-        <v>1380</v>
+        <v>762</v>
       </c>
       <c r="BA19" s="11">
-        <v>1350</v>
+        <v>1260</v>
       </c>
       <c r="BB19" s="11">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2959,11 +2959,11 @@
       <c r="W20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y20" s="13" t="s">
-        <v>58</v>
+      <c r="X20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>0</v>
       </c>
       <c r="Z20" s="13">
         <v>0</v>
@@ -2992,11 +2992,11 @@
       <c r="AH20" s="13">
         <v>0</v>
       </c>
-      <c r="AI20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="13">
-        <v>0</v>
+      <c r="AI20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK20" s="13" t="s">
         <v>58</v>
@@ -3118,11 +3118,11 @@
       <c r="W21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y21" s="11" t="s">
-        <v>58</v>
+      <c r="X21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>0</v>
       </c>
       <c r="Z21" s="11">
         <v>0</v>
@@ -3151,11 +3151,11 @@
       <c r="AH21" s="11">
         <v>0</v>
       </c>
-      <c r="AI21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="11">
-        <v>0</v>
+      <c r="AI21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK21" s="11" t="s">
         <v>58</v>
@@ -3184,17 +3184,17 @@
       <c r="AS21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW21" s="11" t="s">
-        <v>58</v>
+      <c r="AT21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="11">
+        <v>0</v>
       </c>
       <c r="AX21" s="11">
         <v>0</v>
@@ -3277,11 +3277,11 @@
       <c r="W22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y22" s="13" t="s">
-        <v>58</v>
+      <c r="X22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>0</v>
       </c>
       <c r="Z22" s="13">
         <v>0</v>
@@ -3310,11 +3310,11 @@
       <c r="AH22" s="13">
         <v>0</v>
       </c>
-      <c r="AI22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="13">
-        <v>0</v>
+      <c r="AI22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK22" s="13" t="s">
         <v>58</v>
@@ -3435,97 +3435,97 @@
         <v>0</v>
       </c>
       <c r="X23" s="15">
-        <v>0</v>
+        <v>34972</v>
       </c>
       <c r="Y23" s="15">
-        <v>0</v>
+        <v>72923</v>
       </c>
       <c r="Z23" s="15">
-        <v>34972</v>
+        <v>120974</v>
       </c>
       <c r="AA23" s="15">
-        <v>72923</v>
+        <v>121050</v>
       </c>
       <c r="AB23" s="15">
-        <v>120974</v>
+        <v>116586</v>
       </c>
       <c r="AC23" s="15">
-        <v>121050</v>
+        <v>116652</v>
       </c>
       <c r="AD23" s="15">
-        <v>116586</v>
+        <v>114595</v>
       </c>
       <c r="AE23" s="15">
-        <v>116652</v>
+        <v>59733</v>
       </c>
       <c r="AF23" s="15">
-        <v>114595</v>
+        <v>62094</v>
       </c>
       <c r="AG23" s="15">
-        <v>59733</v>
+        <v>114880</v>
       </c>
       <c r="AH23" s="15">
-        <v>62094</v>
+        <v>120590</v>
       </c>
       <c r="AI23" s="15">
-        <v>114880</v>
+        <v>120594</v>
       </c>
       <c r="AJ23" s="15">
-        <v>120590</v>
+        <v>119778</v>
       </c>
       <c r="AK23" s="15">
-        <v>120594</v>
+        <v>120455</v>
       </c>
       <c r="AL23" s="15">
-        <v>119778</v>
+        <v>120506</v>
       </c>
       <c r="AM23" s="15">
-        <v>120455</v>
+        <v>114844</v>
       </c>
       <c r="AN23" s="15">
-        <v>120506</v>
+        <v>116658</v>
       </c>
       <c r="AO23" s="15">
-        <v>114844</v>
+        <v>116629</v>
       </c>
       <c r="AP23" s="15">
-        <v>116658</v>
+        <v>116620</v>
       </c>
       <c r="AQ23" s="15">
-        <v>116629</v>
+        <v>104475</v>
       </c>
       <c r="AR23" s="15">
-        <v>116620</v>
+        <v>12052</v>
       </c>
       <c r="AS23" s="15">
-        <v>104475</v>
+        <v>106611</v>
       </c>
       <c r="AT23" s="15">
-        <v>12052</v>
+        <v>120206</v>
       </c>
       <c r="AU23" s="15">
-        <v>106611</v>
+        <v>120219</v>
       </c>
       <c r="AV23" s="15">
-        <v>120206</v>
+        <v>119239</v>
       </c>
       <c r="AW23" s="15">
-        <v>120219</v>
+        <v>120095</v>
       </c>
       <c r="AX23" s="15">
-        <v>119239</v>
+        <v>120200</v>
       </c>
       <c r="AY23" s="15">
-        <v>120095</v>
+        <v>120458</v>
       </c>
       <c r="AZ23" s="15">
-        <v>120200</v>
+        <v>111172</v>
       </c>
       <c r="BA23" s="15">
-        <v>120458</v>
+        <v>116134</v>
       </c>
       <c r="BB23" s="15">
-        <v>111172</v>
+        <v>98182</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3680,14 +3680,14 @@
       <c r="AG25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="11" t="s">
-        <v>58</v>
+      <c r="AH25" s="11">
+        <v>0</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ25" s="11">
-        <v>0</v>
+      <c r="AJ25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK25" s="11" t="s">
         <v>58</v>
@@ -3716,17 +3716,17 @@
       <c r="AS25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW25" s="11" t="s">
-        <v>58</v>
+      <c r="AT25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="11">
+        <v>0</v>
       </c>
       <c r="AX25" s="11">
         <v>0</v>
@@ -3839,14 +3839,14 @@
       <c r="AG26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH26" s="13" t="s">
-        <v>58</v>
+      <c r="AH26" s="13">
+        <v>0</v>
       </c>
       <c r="AI26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ26" s="13">
-        <v>0</v>
+      <c r="AJ26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK26" s="13" t="s">
         <v>58</v>
@@ -3875,17 +3875,17 @@
       <c r="AS26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW26" s="13" t="s">
-        <v>58</v>
+      <c r="AT26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="13">
+        <v>0</v>
       </c>
       <c r="AX26" s="13">
         <v>0</v>
@@ -3968,11 +3968,11 @@
       <c r="W27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y27" s="11" t="s">
-        <v>58</v>
+      <c r="X27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>0</v>
       </c>
       <c r="Z27" s="11">
         <v>0</v>
@@ -3998,11 +3998,11 @@
       <c r="AG27" s="11">
         <v>0</v>
       </c>
-      <c r="AH27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="11">
-        <v>0</v>
+      <c r="AH27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ27" s="11" t="s">
         <v>58</v>
@@ -4157,14 +4157,14 @@
       <c r="AG28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH28" s="13" t="s">
-        <v>58</v>
+      <c r="AH28" s="13">
+        <v>0</v>
       </c>
       <c r="AI28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ28" s="13">
-        <v>0</v>
+      <c r="AJ28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK28" s="13" t="s">
         <v>58</v>
@@ -4193,17 +4193,17 @@
       <c r="AS28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW28" s="13" t="s">
-        <v>58</v>
+      <c r="AT28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="13">
+        <v>0</v>
       </c>
       <c r="AX28" s="13">
         <v>0</v>
@@ -4286,11 +4286,11 @@
       <c r="W29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y29" s="11" t="s">
-        <v>58</v>
+      <c r="X29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="11">
+        <v>0</v>
       </c>
       <c r="Z29" s="11">
         <v>0</v>
@@ -4316,11 +4316,11 @@
       <c r="AG29" s="11">
         <v>0</v>
       </c>
-      <c r="AH29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="11">
-        <v>0</v>
+      <c r="AH29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ29" s="11" t="s">
         <v>58</v>
@@ -4445,11 +4445,11 @@
       <c r="W30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y30" s="13" t="s">
-        <v>58</v>
+      <c r="X30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="13">
+        <v>0</v>
       </c>
       <c r="Z30" s="13">
         <v>0</v>
@@ -4475,11 +4475,11 @@
       <c r="AG30" s="13">
         <v>0</v>
       </c>
-      <c r="AH30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="13">
-        <v>0</v>
+      <c r="AH30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ30" s="13" t="s">
         <v>58</v>
@@ -4816,11 +4816,11 @@
       <c r="W33" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="X33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y33" s="15" t="s">
-        <v>58</v>
+      <c r="X33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="15">
+        <v>0</v>
       </c>
       <c r="Z33" s="15">
         <v>0</v>
@@ -4974,97 +4974,97 @@
         <v>0</v>
       </c>
       <c r="X34" s="19">
-        <v>0</v>
+        <v>34972</v>
       </c>
       <c r="Y34" s="19">
-        <v>0</v>
+        <v>72923</v>
       </c>
       <c r="Z34" s="19">
-        <v>34972</v>
+        <v>120974</v>
       </c>
       <c r="AA34" s="19">
-        <v>72923</v>
+        <v>121050</v>
       </c>
       <c r="AB34" s="19">
-        <v>120974</v>
+        <v>116586</v>
       </c>
       <c r="AC34" s="19">
-        <v>121050</v>
+        <v>116652</v>
       </c>
       <c r="AD34" s="19">
-        <v>116586</v>
+        <v>114595</v>
       </c>
       <c r="AE34" s="19">
-        <v>116652</v>
+        <v>59733</v>
       </c>
       <c r="AF34" s="19">
-        <v>114595</v>
+        <v>62094</v>
       </c>
       <c r="AG34" s="19">
-        <v>59733</v>
+        <v>114880</v>
       </c>
       <c r="AH34" s="19">
-        <v>62094</v>
+        <v>120590</v>
       </c>
       <c r="AI34" s="19">
-        <v>114880</v>
+        <v>120594</v>
       </c>
       <c r="AJ34" s="19">
-        <v>120590</v>
+        <v>119778</v>
       </c>
       <c r="AK34" s="19">
-        <v>120594</v>
+        <v>120455</v>
       </c>
       <c r="AL34" s="19">
-        <v>119778</v>
+        <v>120506</v>
       </c>
       <c r="AM34" s="19">
-        <v>120455</v>
+        <v>114844</v>
       </c>
       <c r="AN34" s="19">
-        <v>120506</v>
+        <v>116658</v>
       </c>
       <c r="AO34" s="19">
-        <v>114844</v>
+        <v>116629</v>
       </c>
       <c r="AP34" s="19">
-        <v>116658</v>
+        <v>116620</v>
       </c>
       <c r="AQ34" s="19">
-        <v>116629</v>
+        <v>104475</v>
       </c>
       <c r="AR34" s="19">
-        <v>116620</v>
+        <v>12052</v>
       </c>
       <c r="AS34" s="19">
-        <v>104475</v>
+        <v>106611</v>
       </c>
       <c r="AT34" s="19">
-        <v>12052</v>
+        <v>120206</v>
       </c>
       <c r="AU34" s="19">
-        <v>106611</v>
+        <v>120219</v>
       </c>
       <c r="AV34" s="19">
-        <v>120206</v>
+        <v>119239</v>
       </c>
       <c r="AW34" s="19">
-        <v>120219</v>
+        <v>120095</v>
       </c>
       <c r="AX34" s="19">
-        <v>119239</v>
+        <v>120200</v>
       </c>
       <c r="AY34" s="19">
-        <v>120095</v>
+        <v>120458</v>
       </c>
       <c r="AZ34" s="19">
-        <v>120200</v>
+        <v>111172</v>
       </c>
       <c r="BA34" s="19">
-        <v>120458</v>
+        <v>116134</v>
       </c>
       <c r="BB34" s="19">
-        <v>111172</v>
+        <v>98182</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -5566,11 +5566,11 @@
       <c r="W41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y41" s="11" t="s">
-        <v>58</v>
+      <c r="X41" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>0</v>
       </c>
       <c r="Z41" s="11">
         <v>0</v>
@@ -5599,11 +5599,11 @@
       <c r="AH41" s="11">
         <v>0</v>
       </c>
-      <c r="AI41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="11">
-        <v>0</v>
+      <c r="AI41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK41" s="11" t="s">
         <v>58</v>
@@ -5632,17 +5632,17 @@
       <c r="AS41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW41" s="11" t="s">
-        <v>58</v>
+      <c r="AT41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="11">
+        <v>0</v>
       </c>
       <c r="AX41" s="11">
         <v>0</v>
@@ -5725,11 +5725,11 @@
       <c r="W42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y42" s="13" t="s">
-        <v>58</v>
+      <c r="X42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>0</v>
       </c>
       <c r="Z42" s="13">
         <v>0</v>
@@ -5758,11 +5758,11 @@
       <c r="AH42" s="13">
         <v>0</v>
       </c>
-      <c r="AI42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="13">
-        <v>0</v>
+      <c r="AI42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK42" s="13" t="s">
         <v>58</v>
@@ -5791,32 +5791,32 @@
       <c r="AS42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV42" s="13" t="s">
-        <v>58</v>
+      <c r="AT42" s="13">
+        <v>1330</v>
+      </c>
+      <c r="AU42" s="13">
+        <v>999</v>
+      </c>
+      <c r="AV42" s="13">
+        <v>913</v>
       </c>
       <c r="AW42" s="13">
-        <v>999</v>
+        <v>712</v>
       </c>
       <c r="AX42" s="13">
-        <v>913</v>
+        <v>766</v>
       </c>
       <c r="AY42" s="13">
-        <v>712</v>
+        <v>940</v>
       </c>
       <c r="AZ42" s="13">
-        <v>766</v>
+        <v>1359</v>
       </c>
       <c r="BA42" s="13">
-        <v>940</v>
+        <v>1631</v>
       </c>
       <c r="BB42" s="13">
-        <v>1359</v>
+        <v>942</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5884,98 +5884,98 @@
       <c r="W43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y43" s="11" t="s">
-        <v>58</v>
+      <c r="X43" s="11">
+        <v>827</v>
+      </c>
+      <c r="Y43" s="11">
+        <v>1291</v>
       </c>
       <c r="Z43" s="11">
-        <v>827</v>
+        <v>4250</v>
       </c>
       <c r="AA43" s="11">
-        <v>1291</v>
+        <v>3394</v>
       </c>
       <c r="AB43" s="11">
-        <v>4250</v>
+        <v>1609</v>
       </c>
       <c r="AC43" s="11">
-        <v>3394</v>
+        <v>3248</v>
       </c>
       <c r="AD43" s="11">
-        <v>1609</v>
+        <v>2191</v>
       </c>
       <c r="AE43" s="11">
-        <v>3248</v>
+        <v>1030</v>
       </c>
       <c r="AF43" s="11">
-        <v>2191</v>
+        <v>591</v>
       </c>
       <c r="AG43" s="11">
-        <v>1030</v>
+        <v>2746</v>
       </c>
       <c r="AH43" s="11">
-        <v>591</v>
+        <v>2603</v>
       </c>
       <c r="AI43" s="11">
-        <v>2746</v>
+        <v>1579</v>
       </c>
       <c r="AJ43" s="11">
-        <v>2603</v>
+        <v>913</v>
       </c>
       <c r="AK43" s="11">
-        <v>1579</v>
+        <v>230</v>
       </c>
       <c r="AL43" s="11">
-        <v>913</v>
+        <v>1589</v>
       </c>
       <c r="AM43" s="11">
-        <v>230</v>
+        <v>1755</v>
       </c>
       <c r="AN43" s="11">
-        <v>1589</v>
+        <v>385</v>
       </c>
       <c r="AO43" s="11">
-        <v>1755</v>
+        <v>1940</v>
       </c>
       <c r="AP43" s="11">
-        <v>385</v>
+        <v>955</v>
       </c>
       <c r="AQ43" s="11">
-        <v>1940</v>
+        <v>430</v>
       </c>
       <c r="AR43" s="11">
-        <v>955</v>
+        <v>265</v>
       </c>
       <c r="AS43" s="11">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="AT43" s="11">
-        <v>265</v>
+        <v>910</v>
       </c>
       <c r="AU43" s="11">
-        <v>474</v>
+        <v>553</v>
       </c>
       <c r="AV43" s="11">
-        <v>910</v>
+        <v>296</v>
       </c>
       <c r="AW43" s="11">
-        <v>553</v>
+        <v>2975</v>
       </c>
       <c r="AX43" s="11">
-        <v>296</v>
+        <v>920</v>
       </c>
       <c r="AY43" s="11">
-        <v>2975</v>
+        <v>110</v>
       </c>
       <c r="AZ43" s="11">
-        <v>920</v>
+        <v>1066</v>
       </c>
       <c r="BA43" s="11">
-        <v>110</v>
+        <v>594</v>
       </c>
       <c r="BB43" s="11">
-        <v>1066</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -6043,11 +6043,11 @@
       <c r="W44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y44" s="13" t="s">
-        <v>58</v>
+      <c r="X44" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="13">
+        <v>0</v>
       </c>
       <c r="Z44" s="13">
         <v>0</v>
@@ -6076,11 +6076,11 @@
       <c r="AH44" s="13">
         <v>0</v>
       </c>
-      <c r="AI44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="13">
-        <v>0</v>
+      <c r="AI44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK44" s="13" t="s">
         <v>58</v>
@@ -6109,17 +6109,17 @@
       <c r="AS44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW44" s="13" t="s">
-        <v>58</v>
+      <c r="AT44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="13">
+        <v>0</v>
       </c>
       <c r="AX44" s="13">
         <v>0</v>
@@ -6202,11 +6202,11 @@
       <c r="W45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
+      <c r="X45" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="11">
+        <v>0</v>
       </c>
       <c r="Z45" s="11">
         <v>0</v>
@@ -6232,11 +6232,11 @@
       <c r="AG45" s="11">
         <v>0</v>
       </c>
-      <c r="AH45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="11">
-        <v>0</v>
+      <c r="AH45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ45" s="11" t="s">
         <v>58</v>
@@ -6427,32 +6427,32 @@
       <c r="AS46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV46" s="13" t="s">
-        <v>58</v>
+      <c r="AT46" s="13">
+        <v>703</v>
+      </c>
+      <c r="AU46" s="13">
+        <v>1355</v>
+      </c>
+      <c r="AV46" s="13">
+        <v>1574</v>
       </c>
       <c r="AW46" s="13">
-        <v>1355</v>
+        <v>1507</v>
       </c>
       <c r="AX46" s="13">
-        <v>1574</v>
+        <v>1682</v>
       </c>
       <c r="AY46" s="13">
-        <v>1507</v>
+        <v>1252</v>
       </c>
       <c r="AZ46" s="13">
-        <v>1682</v>
+        <v>1157</v>
       </c>
       <c r="BA46" s="13">
-        <v>1252</v>
+        <v>1499</v>
       </c>
       <c r="BB46" s="13">
-        <v>1157</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6520,11 +6520,11 @@
       <c r="W47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y47" s="11" t="s">
-        <v>58</v>
+      <c r="X47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="11">
+        <v>0</v>
       </c>
       <c r="Z47" s="11">
         <v>0</v>
@@ -6553,11 +6553,11 @@
       <c r="AH47" s="11">
         <v>0</v>
       </c>
-      <c r="AI47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="11">
-        <v>0</v>
+      <c r="AI47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK47" s="11" t="s">
         <v>58</v>
@@ -6586,17 +6586,17 @@
       <c r="AS47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW47" s="11" t="s">
-        <v>58</v>
+      <c r="AT47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="11">
+        <v>0</v>
       </c>
       <c r="AX47" s="11">
         <v>0</v>
@@ -6679,11 +6679,11 @@
       <c r="W48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y48" s="13" t="s">
-        <v>58</v>
+      <c r="X48" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="13">
+        <v>0</v>
       </c>
       <c r="Z48" s="13">
         <v>0</v>
@@ -6712,11 +6712,11 @@
       <c r="AH48" s="13">
         <v>0</v>
       </c>
-      <c r="AI48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="13">
-        <v>0</v>
+      <c r="AI48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK48" s="13" t="s">
         <v>58</v>
@@ -6745,17 +6745,17 @@
       <c r="AS48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW48" s="13" t="s">
-        <v>58</v>
+      <c r="AT48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="13">
+        <v>0</v>
       </c>
       <c r="AX48" s="13">
         <v>0</v>
@@ -6838,11 +6838,11 @@
       <c r="W49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y49" s="11" t="s">
-        <v>58</v>
+      <c r="X49" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="11">
+        <v>0</v>
       </c>
       <c r="Z49" s="11">
         <v>0</v>
@@ -6871,11 +6871,11 @@
       <c r="AH49" s="11">
         <v>0</v>
       </c>
-      <c r="AI49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="11">
-        <v>0</v>
+      <c r="AI49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK49" s="11" t="s">
         <v>58</v>
@@ -6904,17 +6904,17 @@
       <c r="AS49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW49" s="11" t="s">
-        <v>58</v>
+      <c r="AT49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="11">
+        <v>0</v>
       </c>
       <c r="AX49" s="11">
         <v>0</v>
@@ -6997,80 +6997,80 @@
       <c r="W50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y50" s="13" t="s">
-        <v>58</v>
+      <c r="X50" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="13">
+        <v>88</v>
       </c>
       <c r="Z50" s="13">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="AA50" s="13">
-        <v>88</v>
+        <v>1516</v>
       </c>
       <c r="AB50" s="13">
-        <v>571</v>
+        <v>1949</v>
       </c>
       <c r="AC50" s="13">
-        <v>1516</v>
+        <v>1826</v>
       </c>
       <c r="AD50" s="13">
-        <v>1949</v>
+        <v>1687</v>
       </c>
       <c r="AE50" s="13">
-        <v>1826</v>
+        <v>824</v>
       </c>
       <c r="AF50" s="13">
-        <v>1687</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="13">
-        <v>824</v>
+        <v>732</v>
       </c>
       <c r="AH50" s="13">
-        <v>0</v>
+        <v>1942</v>
       </c>
       <c r="AI50" s="13">
-        <v>732</v>
+        <v>1921</v>
       </c>
       <c r="AJ50" s="13">
-        <v>1942</v>
+        <v>1491</v>
       </c>
       <c r="AK50" s="13">
-        <v>1921</v>
+        <v>1444</v>
       </c>
       <c r="AL50" s="13">
-        <v>1491</v>
+        <v>1321</v>
       </c>
       <c r="AM50" s="13">
-        <v>1444</v>
+        <v>1181</v>
       </c>
       <c r="AN50" s="13">
-        <v>1321</v>
+        <v>1172</v>
       </c>
       <c r="AO50" s="13">
-        <v>1181</v>
+        <v>1918</v>
       </c>
       <c r="AP50" s="13">
-        <v>1172</v>
+        <v>2464</v>
       </c>
       <c r="AQ50" s="13">
-        <v>1918</v>
+        <v>2664</v>
       </c>
       <c r="AR50" s="13">
-        <v>2464</v>
+        <v>2048</v>
       </c>
       <c r="AS50" s="13">
-        <v>2664</v>
-      </c>
-      <c r="AT50" s="13">
-        <v>2048</v>
-      </c>
-      <c r="AU50" s="13">
         <v>1549</v>
       </c>
-      <c r="AV50" s="13">
-        <v>1330</v>
+      <c r="AT50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW50" s="13" t="s">
         <v>58</v>
@@ -7156,98 +7156,98 @@
       <c r="W51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y51" s="11" t="s">
-        <v>58</v>
+      <c r="X51" s="11">
+        <v>6713</v>
+      </c>
+      <c r="Y51" s="11">
+        <v>9897</v>
       </c>
       <c r="Z51" s="11">
-        <v>6713</v>
+        <v>16176</v>
       </c>
       <c r="AA51" s="11">
-        <v>9897</v>
+        <v>8603</v>
       </c>
       <c r="AB51" s="11">
-        <v>16176</v>
+        <v>16034</v>
       </c>
       <c r="AC51" s="11">
-        <v>8603</v>
+        <v>14940</v>
       </c>
       <c r="AD51" s="11">
-        <v>16034</v>
+        <v>16641</v>
       </c>
       <c r="AE51" s="11">
-        <v>14940</v>
+        <v>8217</v>
       </c>
       <c r="AF51" s="11">
-        <v>16641</v>
+        <v>7790</v>
       </c>
       <c r="AG51" s="11">
-        <v>8217</v>
+        <v>20719</v>
       </c>
       <c r="AH51" s="11">
-        <v>7790</v>
+        <v>26222</v>
       </c>
       <c r="AI51" s="11">
-        <v>20719</v>
+        <v>23595</v>
       </c>
       <c r="AJ51" s="11">
-        <v>26222</v>
+        <v>11048</v>
       </c>
       <c r="AK51" s="11">
-        <v>23595</v>
+        <v>16038</v>
       </c>
       <c r="AL51" s="11">
-        <v>11048</v>
+        <v>11798</v>
       </c>
       <c r="AM51" s="11">
-        <v>16038</v>
+        <v>11582</v>
       </c>
       <c r="AN51" s="11">
-        <v>11798</v>
+        <v>15692</v>
       </c>
       <c r="AO51" s="11">
-        <v>11582</v>
+        <v>16688</v>
       </c>
       <c r="AP51" s="11">
-        <v>15692</v>
+        <v>19395</v>
       </c>
       <c r="AQ51" s="11">
-        <v>16688</v>
+        <v>14541</v>
       </c>
       <c r="AR51" s="11">
-        <v>19395</v>
+        <v>10672</v>
       </c>
       <c r="AS51" s="11">
-        <v>14541</v>
+        <v>9504</v>
       </c>
       <c r="AT51" s="11">
-        <v>10672</v>
+        <v>15303</v>
       </c>
       <c r="AU51" s="11">
-        <v>9504</v>
+        <v>15558</v>
       </c>
       <c r="AV51" s="11">
-        <v>15303</v>
+        <v>17980</v>
       </c>
       <c r="AW51" s="11">
-        <v>15558</v>
+        <v>10974</v>
       </c>
       <c r="AX51" s="11">
-        <v>17980</v>
+        <v>1813</v>
       </c>
       <c r="AY51" s="11">
-        <v>10974</v>
+        <v>14934</v>
       </c>
       <c r="AZ51" s="11">
-        <v>1813</v>
+        <v>10860</v>
       </c>
       <c r="BA51" s="11">
-        <v>14934</v>
+        <v>14654</v>
       </c>
       <c r="BB51" s="11">
-        <v>10860</v>
+        <v>9411</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7315,80 +7315,80 @@
       <c r="W52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y52" s="13" t="s">
-        <v>58</v>
+      <c r="X52" s="13">
+        <v>1077</v>
+      </c>
+      <c r="Y52" s="13">
+        <v>1032</v>
       </c>
       <c r="Z52" s="13">
-        <v>1077</v>
+        <v>1405</v>
       </c>
       <c r="AA52" s="13">
-        <v>1032</v>
+        <v>1280</v>
       </c>
       <c r="AB52" s="13">
-        <v>1405</v>
+        <v>1189</v>
       </c>
       <c r="AC52" s="13">
-        <v>1280</v>
+        <v>1203</v>
       </c>
       <c r="AD52" s="13">
-        <v>1189</v>
+        <v>1061</v>
       </c>
       <c r="AE52" s="13">
-        <v>1203</v>
+        <v>760</v>
       </c>
       <c r="AF52" s="13">
-        <v>1061</v>
+        <v>543</v>
       </c>
       <c r="AG52" s="13">
-        <v>760</v>
+        <v>1552</v>
       </c>
       <c r="AH52" s="13">
-        <v>543</v>
+        <v>782</v>
       </c>
       <c r="AI52" s="13">
-        <v>1552</v>
+        <v>1245</v>
       </c>
       <c r="AJ52" s="13">
-        <v>782</v>
+        <v>1074</v>
       </c>
       <c r="AK52" s="13">
-        <v>1245</v>
+        <v>1133</v>
       </c>
       <c r="AL52" s="13">
-        <v>1074</v>
+        <v>687</v>
       </c>
       <c r="AM52" s="13">
-        <v>1133</v>
+        <v>1316</v>
       </c>
       <c r="AN52" s="13">
-        <v>687</v>
+        <v>1163</v>
       </c>
       <c r="AO52" s="13">
-        <v>1316</v>
+        <v>1194</v>
       </c>
       <c r="AP52" s="13">
-        <v>1163</v>
+        <v>1192</v>
       </c>
       <c r="AQ52" s="13">
-        <v>1194</v>
+        <v>1371</v>
       </c>
       <c r="AR52" s="13">
-        <v>1192</v>
+        <v>748</v>
       </c>
       <c r="AS52" s="13">
-        <v>1371</v>
-      </c>
-      <c r="AT52" s="13">
-        <v>748</v>
-      </c>
-      <c r="AU52" s="13">
         <v>788</v>
       </c>
-      <c r="AV52" s="13">
-        <v>703</v>
+      <c r="AT52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW52" s="13" t="s">
         <v>58</v>
@@ -7473,97 +7473,97 @@
         <v>0</v>
       </c>
       <c r="X53" s="15">
-        <v>0</v>
+        <v>8617</v>
       </c>
       <c r="Y53" s="15">
-        <v>0</v>
+        <v>12308</v>
       </c>
       <c r="Z53" s="15">
-        <v>8617</v>
+        <v>22402</v>
       </c>
       <c r="AA53" s="15">
-        <v>12308</v>
+        <v>14793</v>
       </c>
       <c r="AB53" s="15">
-        <v>22402</v>
+        <v>20781</v>
       </c>
       <c r="AC53" s="15">
-        <v>14793</v>
+        <v>21217</v>
       </c>
       <c r="AD53" s="15">
-        <v>20781</v>
+        <v>21580</v>
       </c>
       <c r="AE53" s="15">
-        <v>21217</v>
+        <v>10831</v>
       </c>
       <c r="AF53" s="15">
-        <v>21580</v>
+        <v>8924</v>
       </c>
       <c r="AG53" s="15">
-        <v>10831</v>
+        <v>25749</v>
       </c>
       <c r="AH53" s="15">
-        <v>8924</v>
+        <v>31549</v>
       </c>
       <c r="AI53" s="15">
-        <v>25749</v>
+        <v>28340</v>
       </c>
       <c r="AJ53" s="15">
-        <v>31549</v>
+        <v>14526</v>
       </c>
       <c r="AK53" s="15">
-        <v>28340</v>
+        <v>18845</v>
       </c>
       <c r="AL53" s="15">
-        <v>14526</v>
+        <v>15395</v>
       </c>
       <c r="AM53" s="15">
-        <v>18845</v>
+        <v>15834</v>
       </c>
       <c r="AN53" s="15">
-        <v>15395</v>
+        <v>18412</v>
       </c>
       <c r="AO53" s="15">
-        <v>15834</v>
+        <v>21740</v>
       </c>
       <c r="AP53" s="15">
-        <v>18412</v>
+        <v>24006</v>
       </c>
       <c r="AQ53" s="15">
-        <v>21740</v>
+        <v>19006</v>
       </c>
       <c r="AR53" s="15">
-        <v>24006</v>
+        <v>13733</v>
       </c>
       <c r="AS53" s="15">
-        <v>19006</v>
+        <v>12315</v>
       </c>
       <c r="AT53" s="15">
-        <v>13733</v>
+        <v>18246</v>
       </c>
       <c r="AU53" s="15">
-        <v>12315</v>
+        <v>18465</v>
       </c>
       <c r="AV53" s="15">
-        <v>18246</v>
+        <v>20763</v>
       </c>
       <c r="AW53" s="15">
-        <v>18465</v>
+        <v>16168</v>
       </c>
       <c r="AX53" s="15">
-        <v>20763</v>
+        <v>5181</v>
       </c>
       <c r="AY53" s="15">
-        <v>16168</v>
+        <v>17236</v>
       </c>
       <c r="AZ53" s="15">
-        <v>5181</v>
+        <v>14442</v>
       </c>
       <c r="BA53" s="15">
-        <v>17236</v>
+        <v>18378</v>
       </c>
       <c r="BB53" s="15">
-        <v>14442</v>
+        <v>16001</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7718,68 +7718,68 @@
       <c r="AG55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI55" s="11" t="s">
-        <v>58</v>
+      <c r="AH55" s="11">
+        <v>10772</v>
+      </c>
+      <c r="AI55" s="11">
+        <v>11744</v>
       </c>
       <c r="AJ55" s="11">
-        <v>10772</v>
+        <v>28965</v>
       </c>
       <c r="AK55" s="11">
-        <v>11744</v>
+        <v>31368</v>
       </c>
       <c r="AL55" s="11">
-        <v>28965</v>
+        <v>16854</v>
       </c>
       <c r="AM55" s="11">
-        <v>31368</v>
+        <v>43079</v>
       </c>
       <c r="AN55" s="11">
-        <v>16854</v>
+        <v>31384</v>
       </c>
       <c r="AO55" s="11">
-        <v>43079</v>
+        <v>13733</v>
       </c>
       <c r="AP55" s="11">
-        <v>31384</v>
+        <v>33445</v>
       </c>
       <c r="AQ55" s="11">
-        <v>13733</v>
+        <v>3346</v>
       </c>
       <c r="AR55" s="11">
-        <v>33445</v>
+        <v>6378</v>
       </c>
       <c r="AS55" s="11">
-        <v>3346</v>
+        <v>25855</v>
       </c>
       <c r="AT55" s="11">
-        <v>6378</v>
+        <v>11734</v>
       </c>
       <c r="AU55" s="11">
-        <v>25855</v>
+        <v>11847</v>
       </c>
       <c r="AV55" s="11">
-        <v>11734</v>
+        <v>40787</v>
       </c>
       <c r="AW55" s="11">
-        <v>11847</v>
+        <v>38770</v>
       </c>
       <c r="AX55" s="11">
-        <v>40787</v>
+        <v>77842</v>
       </c>
       <c r="AY55" s="11">
-        <v>38770</v>
+        <v>26739</v>
       </c>
       <c r="AZ55" s="11">
-        <v>77842</v>
+        <v>30565</v>
       </c>
       <c r="BA55" s="11">
-        <v>26739</v>
+        <v>22900</v>
       </c>
       <c r="BB55" s="11">
-        <v>30565</v>
+        <v>19039</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7877,68 +7877,68 @@
       <c r="AG56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI56" s="13" t="s">
-        <v>58</v>
+      <c r="AH56" s="13">
+        <v>263</v>
+      </c>
+      <c r="AI56" s="13">
+        <v>180</v>
       </c>
       <c r="AJ56" s="13">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="AK56" s="13">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="AL56" s="13">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="13">
+        <v>39</v>
+      </c>
+      <c r="AN56" s="13">
+        <v>197</v>
+      </c>
+      <c r="AO56" s="13">
+        <v>858</v>
+      </c>
+      <c r="AP56" s="13">
+        <v>1265</v>
+      </c>
+      <c r="AQ56" s="13">
+        <v>1315</v>
+      </c>
+      <c r="AR56" s="13">
+        <v>278</v>
+      </c>
+      <c r="AS56" s="13">
+        <v>80</v>
+      </c>
+      <c r="AT56" s="13">
         <v>119</v>
       </c>
-      <c r="AN56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO56" s="13">
-        <v>39</v>
-      </c>
-      <c r="AP56" s="13">
-        <v>197</v>
-      </c>
-      <c r="AQ56" s="13">
-        <v>858</v>
-      </c>
-      <c r="AR56" s="13">
-        <v>1265</v>
-      </c>
-      <c r="AS56" s="13">
-        <v>1315</v>
-      </c>
-      <c r="AT56" s="13">
-        <v>278</v>
-      </c>
       <c r="AU56" s="13">
-        <v>80</v>
+        <v>1215</v>
       </c>
       <c r="AV56" s="13">
-        <v>119</v>
+        <v>1656</v>
       </c>
       <c r="AW56" s="13">
-        <v>1215</v>
+        <v>1582</v>
       </c>
       <c r="AX56" s="13">
-        <v>1656</v>
+        <v>2331</v>
       </c>
       <c r="AY56" s="13">
-        <v>1582</v>
+        <v>2811</v>
       </c>
       <c r="AZ56" s="13">
-        <v>2331</v>
+        <v>2800</v>
       </c>
       <c r="BA56" s="13">
-        <v>2811</v>
+        <v>2127</v>
       </c>
       <c r="BB56" s="13">
-        <v>2800</v>
+        <v>955</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8006,41 +8006,41 @@
       <c r="W57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y57" s="11" t="s">
-        <v>58</v>
+      <c r="X57" s="11">
+        <v>7613</v>
+      </c>
+      <c r="Y57" s="11">
+        <v>7621</v>
       </c>
       <c r="Z57" s="11">
-        <v>7613</v>
+        <v>17148</v>
       </c>
       <c r="AA57" s="11">
-        <v>7621</v>
+        <v>23002</v>
       </c>
       <c r="AB57" s="11">
-        <v>17148</v>
+        <v>22386</v>
       </c>
       <c r="AC57" s="11">
-        <v>23002</v>
+        <v>26850</v>
       </c>
       <c r="AD57" s="11">
-        <v>22386</v>
+        <v>40056</v>
       </c>
       <c r="AE57" s="11">
-        <v>26850</v>
+        <v>35203</v>
       </c>
       <c r="AF57" s="11">
-        <v>40056</v>
+        <v>13981</v>
       </c>
       <c r="AG57" s="11">
-        <v>35203</v>
-      </c>
-      <c r="AH57" s="11">
-        <v>13981</v>
-      </c>
-      <c r="AI57" s="11">
         <v>21137</v>
+      </c>
+      <c r="AH57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ57" s="11" t="s">
         <v>58</v>
@@ -8195,68 +8195,68 @@
       <c r="AG58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI58" s="13" t="s">
-        <v>58</v>
+      <c r="AH58" s="13">
+        <v>100</v>
+      </c>
+      <c r="AI58" s="13">
+        <v>392</v>
       </c>
       <c r="AJ58" s="13">
-        <v>100</v>
+        <v>1214</v>
       </c>
       <c r="AK58" s="13">
-        <v>392</v>
+        <v>507</v>
       </c>
       <c r="AL58" s="13">
-        <v>1214</v>
+        <v>508</v>
       </c>
       <c r="AM58" s="13">
+        <v>1733</v>
+      </c>
+      <c r="AN58" s="13">
+        <v>534</v>
+      </c>
+      <c r="AO58" s="13">
+        <v>476</v>
+      </c>
+      <c r="AP58" s="13">
+        <v>407</v>
+      </c>
+      <c r="AQ58" s="13">
+        <v>200</v>
+      </c>
+      <c r="AR58" s="13">
+        <v>200</v>
+      </c>
+      <c r="AS58" s="13">
+        <v>300</v>
+      </c>
+      <c r="AT58" s="13">
         <v>507</v>
       </c>
-      <c r="AN58" s="13">
-        <v>508</v>
-      </c>
-      <c r="AO58" s="13">
-        <v>1733</v>
-      </c>
-      <c r="AP58" s="13">
-        <v>534</v>
-      </c>
-      <c r="AQ58" s="13">
-        <v>476</v>
-      </c>
-      <c r="AR58" s="13">
-        <v>407</v>
-      </c>
-      <c r="AS58" s="13">
-        <v>200</v>
-      </c>
-      <c r="AT58" s="13">
-        <v>200</v>
-      </c>
       <c r="AU58" s="13">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="AV58" s="13">
-        <v>507</v>
+        <v>345</v>
       </c>
       <c r="AW58" s="13">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="AX58" s="13">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="13">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="AZ58" s="13">
         <v>0</v>
       </c>
       <c r="BA58" s="13">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="BB58" s="13">
-        <v>0</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -8324,41 +8324,41 @@
       <c r="W59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y59" s="11" t="s">
-        <v>58</v>
+      <c r="X59" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="11">
+        <v>0</v>
       </c>
       <c r="Z59" s="11">
         <v>0</v>
       </c>
       <c r="AA59" s="11">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="AB59" s="11">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="AC59" s="11">
-        <v>139</v>
+        <v>523</v>
       </c>
       <c r="AD59" s="11">
-        <v>771</v>
+        <v>529</v>
       </c>
       <c r="AE59" s="11">
-        <v>523</v>
+        <v>365</v>
       </c>
       <c r="AF59" s="11">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="11">
-        <v>365</v>
-      </c>
-      <c r="AH59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="11">
         <v>142</v>
+      </c>
+      <c r="AH59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI59" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ59" s="11" t="s">
         <v>58</v>
@@ -8483,41 +8483,41 @@
       <c r="W60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y60" s="13" t="s">
-        <v>58</v>
+      <c r="X60" s="13">
+        <v>96</v>
+      </c>
+      <c r="Y60" s="13">
+        <v>72</v>
       </c>
       <c r="Z60" s="13">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="AA60" s="13">
-        <v>72</v>
+        <v>496</v>
       </c>
       <c r="AB60" s="13">
-        <v>204</v>
+        <v>636</v>
       </c>
       <c r="AC60" s="13">
+        <v>808</v>
+      </c>
+      <c r="AD60" s="13">
+        <v>836</v>
+      </c>
+      <c r="AE60" s="13">
         <v>496</v>
       </c>
-      <c r="AD60" s="13">
-        <v>636</v>
-      </c>
-      <c r="AE60" s="13">
-        <v>808</v>
-      </c>
       <c r="AF60" s="13">
-        <v>836</v>
+        <v>196</v>
       </c>
       <c r="AG60" s="13">
-        <v>496</v>
-      </c>
-      <c r="AH60" s="13">
-        <v>196</v>
-      </c>
-      <c r="AI60" s="13">
         <v>100</v>
+      </c>
+      <c r="AH60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI60" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ60" s="13" t="s">
         <v>58</v>
@@ -8641,97 +8641,97 @@
         <v>0</v>
       </c>
       <c r="X61" s="15">
-        <v>0</v>
+        <v>7709</v>
       </c>
       <c r="Y61" s="15">
-        <v>0</v>
+        <v>7693</v>
       </c>
       <c r="Z61" s="15">
-        <v>7709</v>
+        <v>17352</v>
       </c>
       <c r="AA61" s="15">
-        <v>7693</v>
+        <v>23637</v>
       </c>
       <c r="AB61" s="15">
-        <v>17352</v>
+        <v>23793</v>
       </c>
       <c r="AC61" s="15">
-        <v>23637</v>
+        <v>28181</v>
       </c>
       <c r="AD61" s="15">
-        <v>23793</v>
+        <v>41421</v>
       </c>
       <c r="AE61" s="15">
-        <v>28181</v>
+        <v>36064</v>
       </c>
       <c r="AF61" s="15">
-        <v>41421</v>
+        <v>14177</v>
       </c>
       <c r="AG61" s="15">
-        <v>36064</v>
+        <v>21379</v>
       </c>
       <c r="AH61" s="15">
-        <v>14177</v>
+        <v>11135</v>
       </c>
       <c r="AI61" s="15">
-        <v>21379</v>
+        <v>12316</v>
       </c>
       <c r="AJ61" s="15">
-        <v>11135</v>
+        <v>30397</v>
       </c>
       <c r="AK61" s="15">
-        <v>12316</v>
+        <v>31994</v>
       </c>
       <c r="AL61" s="15">
-        <v>30397</v>
+        <v>17362</v>
       </c>
       <c r="AM61" s="15">
-        <v>31994</v>
+        <v>44851</v>
       </c>
       <c r="AN61" s="15">
-        <v>17362</v>
+        <v>32115</v>
       </c>
       <c r="AO61" s="15">
-        <v>44851</v>
+        <v>15067</v>
       </c>
       <c r="AP61" s="15">
-        <v>32115</v>
+        <v>35117</v>
       </c>
       <c r="AQ61" s="15">
-        <v>15067</v>
+        <v>4861</v>
       </c>
       <c r="AR61" s="15">
-        <v>35117</v>
+        <v>6856</v>
       </c>
       <c r="AS61" s="15">
-        <v>4861</v>
+        <v>26235</v>
       </c>
       <c r="AT61" s="15">
-        <v>6856</v>
+        <v>12360</v>
       </c>
       <c r="AU61" s="15">
-        <v>26235</v>
+        <v>13522</v>
       </c>
       <c r="AV61" s="15">
-        <v>12360</v>
+        <v>42788</v>
       </c>
       <c r="AW61" s="15">
-        <v>13522</v>
+        <v>40352</v>
       </c>
       <c r="AX61" s="15">
-        <v>42788</v>
+        <v>80173</v>
       </c>
       <c r="AY61" s="15">
-        <v>40352</v>
+        <v>30147</v>
       </c>
       <c r="AZ61" s="15">
-        <v>80173</v>
+        <v>33365</v>
       </c>
       <c r="BA61" s="15">
-        <v>30147</v>
+        <v>25701</v>
       </c>
       <c r="BB61" s="15">
-        <v>33365</v>
+        <v>20404</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8854,11 +8854,11 @@
       <c r="W63" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="X63" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y63" s="15" t="s">
-        <v>58</v>
+      <c r="X63" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="15">
+        <v>0</v>
       </c>
       <c r="Z63" s="15">
         <v>0</v>
@@ -9068,11 +9068,11 @@
       <c r="W65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="X65" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y65" s="15" t="s">
-        <v>58</v>
+      <c r="X65" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="15">
+        <v>0</v>
       </c>
       <c r="Z65" s="15">
         <v>0</v>
@@ -9226,97 +9226,97 @@
         <v>0</v>
       </c>
       <c r="X66" s="19">
-        <v>0</v>
+        <v>16326</v>
       </c>
       <c r="Y66" s="19">
-        <v>0</v>
+        <v>20001</v>
       </c>
       <c r="Z66" s="19">
-        <v>16326</v>
+        <v>39754</v>
       </c>
       <c r="AA66" s="19">
-        <v>20001</v>
+        <v>38430</v>
       </c>
       <c r="AB66" s="19">
-        <v>39754</v>
+        <v>44574</v>
       </c>
       <c r="AC66" s="19">
-        <v>38430</v>
+        <v>49398</v>
       </c>
       <c r="AD66" s="19">
-        <v>44574</v>
+        <v>63001</v>
       </c>
       <c r="AE66" s="19">
-        <v>49398</v>
+        <v>46895</v>
       </c>
       <c r="AF66" s="19">
-        <v>63001</v>
+        <v>23101</v>
       </c>
       <c r="AG66" s="19">
-        <v>46895</v>
+        <v>47128</v>
       </c>
       <c r="AH66" s="19">
-        <v>23101</v>
+        <v>42684</v>
       </c>
       <c r="AI66" s="19">
-        <v>47128</v>
+        <v>40656</v>
       </c>
       <c r="AJ66" s="19">
-        <v>42684</v>
+        <v>44923</v>
       </c>
       <c r="AK66" s="19">
-        <v>40656</v>
+        <v>50839</v>
       </c>
       <c r="AL66" s="19">
-        <v>44923</v>
+        <v>32757</v>
       </c>
       <c r="AM66" s="19">
-        <v>50839</v>
+        <v>60685</v>
       </c>
       <c r="AN66" s="19">
-        <v>32757</v>
+        <v>50527</v>
       </c>
       <c r="AO66" s="19">
-        <v>60685</v>
+        <v>36807</v>
       </c>
       <c r="AP66" s="19">
-        <v>50527</v>
+        <v>59123</v>
       </c>
       <c r="AQ66" s="19">
-        <v>36807</v>
+        <v>23867</v>
       </c>
       <c r="AR66" s="19">
-        <v>59123</v>
+        <v>20589</v>
       </c>
       <c r="AS66" s="19">
-        <v>23867</v>
+        <v>38550</v>
       </c>
       <c r="AT66" s="19">
-        <v>20589</v>
+        <v>30606</v>
       </c>
       <c r="AU66" s="19">
-        <v>38550</v>
+        <v>31987</v>
       </c>
       <c r="AV66" s="19">
-        <v>30606</v>
+        <v>63551</v>
       </c>
       <c r="AW66" s="19">
-        <v>31987</v>
+        <v>56520</v>
       </c>
       <c r="AX66" s="19">
-        <v>63551</v>
+        <v>85354</v>
       </c>
       <c r="AY66" s="19">
-        <v>56520</v>
+        <v>47383</v>
       </c>
       <c r="AZ66" s="19">
-        <v>85354</v>
+        <v>47807</v>
       </c>
       <c r="BA66" s="19">
-        <v>47383</v>
+        <v>44079</v>
       </c>
       <c r="BB66" s="19">
-        <v>47807</v>
+        <v>36405</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -9818,11 +9818,11 @@
       <c r="W73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y73" s="11" t="s">
-        <v>58</v>
+      <c r="X73" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="11">
+        <v>0</v>
       </c>
       <c r="Z73" s="11">
         <v>0</v>
@@ -9977,11 +9977,11 @@
       <c r="W74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y74" s="13" t="s">
-        <v>58</v>
+      <c r="X74" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="13">
+        <v>0</v>
       </c>
       <c r="Z74" s="13">
         <v>0</v>
@@ -10044,31 +10044,31 @@
         <v>0</v>
       </c>
       <c r="AT74" s="13">
-        <v>0</v>
+        <v>177453</v>
       </c>
       <c r="AU74" s="13">
-        <v>0</v>
+        <v>158019</v>
       </c>
       <c r="AV74" s="13">
-        <v>0</v>
+        <v>175261</v>
       </c>
       <c r="AW74" s="13">
-        <v>158019</v>
+        <v>141590</v>
       </c>
       <c r="AX74" s="13">
-        <v>175261</v>
+        <v>150426</v>
       </c>
       <c r="AY74" s="13">
-        <v>141590</v>
+        <v>194964</v>
       </c>
       <c r="AZ74" s="13">
-        <v>150426</v>
+        <v>287183</v>
       </c>
       <c r="BA74" s="13">
-        <v>194964</v>
+        <v>340141</v>
       </c>
       <c r="BB74" s="13">
-        <v>287183</v>
+        <v>185365</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -10136,98 +10136,98 @@
       <c r="W75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y75" s="11" t="s">
-        <v>58</v>
+      <c r="X75" s="11">
+        <v>21855</v>
+      </c>
+      <c r="Y75" s="11">
+        <v>35174</v>
       </c>
       <c r="Z75" s="11">
-        <v>21855</v>
+        <v>139497</v>
       </c>
       <c r="AA75" s="11">
-        <v>35174</v>
+        <v>121118</v>
       </c>
       <c r="AB75" s="11">
-        <v>139497</v>
+        <v>70375</v>
       </c>
       <c r="AC75" s="11">
-        <v>121118</v>
+        <v>159820</v>
       </c>
       <c r="AD75" s="11">
-        <v>70375</v>
+        <v>108828</v>
       </c>
       <c r="AE75" s="11">
-        <v>159820</v>
+        <v>49481</v>
       </c>
       <c r="AF75" s="11">
-        <v>108828</v>
+        <v>29382</v>
       </c>
       <c r="AG75" s="11">
-        <v>49481</v>
+        <v>147671</v>
       </c>
       <c r="AH75" s="11">
-        <v>29382</v>
+        <v>127661</v>
       </c>
       <c r="AI75" s="11">
-        <v>147671</v>
+        <v>92683</v>
       </c>
       <c r="AJ75" s="11">
-        <v>127661</v>
+        <v>53417</v>
       </c>
       <c r="AK75" s="11">
-        <v>92683</v>
+        <v>17454</v>
       </c>
       <c r="AL75" s="11">
-        <v>53417</v>
+        <v>131018</v>
       </c>
       <c r="AM75" s="11">
-        <v>17454</v>
+        <v>152099</v>
       </c>
       <c r="AN75" s="11">
-        <v>131018</v>
+        <v>37169</v>
       </c>
       <c r="AO75" s="11">
-        <v>152099</v>
+        <v>289916</v>
       </c>
       <c r="AP75" s="11">
-        <v>37169</v>
+        <v>159180</v>
       </c>
       <c r="AQ75" s="11">
-        <v>289916</v>
+        <v>87158</v>
       </c>
       <c r="AR75" s="11">
-        <v>159180</v>
+        <v>41028</v>
       </c>
       <c r="AS75" s="11">
-        <v>87158</v>
+        <v>56138</v>
       </c>
       <c r="AT75" s="11">
-        <v>41028</v>
+        <v>117674</v>
       </c>
       <c r="AU75" s="11">
-        <v>56138</v>
+        <v>107031</v>
       </c>
       <c r="AV75" s="11">
-        <v>117674</v>
+        <v>41738</v>
       </c>
       <c r="AW75" s="11">
-        <v>107031</v>
+        <v>367207</v>
       </c>
       <c r="AX75" s="11">
-        <v>41738</v>
+        <v>110629</v>
       </c>
       <c r="AY75" s="11">
-        <v>367207</v>
+        <v>15100</v>
       </c>
       <c r="AZ75" s="11">
-        <v>110629</v>
+        <v>145601</v>
       </c>
       <c r="BA75" s="11">
-        <v>15100</v>
+        <v>74871</v>
       </c>
       <c r="BB75" s="11">
-        <v>145601</v>
+        <v>545754</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10295,11 +10295,11 @@
       <c r="W76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y76" s="13" t="s">
-        <v>58</v>
+      <c r="X76" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="13">
+        <v>0</v>
       </c>
       <c r="Z76" s="13">
         <v>0</v>
@@ -10454,11 +10454,11 @@
       <c r="W77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y77" s="11" t="s">
-        <v>58</v>
+      <c r="X77" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="11">
+        <v>0</v>
       </c>
       <c r="Z77" s="11">
         <v>0</v>
@@ -10484,11 +10484,11 @@
       <c r="AG77" s="11">
         <v>0</v>
       </c>
-      <c r="AH77" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI77" s="11">
-        <v>0</v>
+      <c r="AH77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ77" s="11" t="s">
         <v>58</v>
@@ -10679,32 +10679,32 @@
       <c r="AS78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV78" s="13" t="s">
-        <v>58</v>
+      <c r="AT78" s="13">
+        <v>414455</v>
+      </c>
+      <c r="AU78" s="13">
+        <v>758883</v>
+      </c>
+      <c r="AV78" s="13">
+        <v>888542</v>
       </c>
       <c r="AW78" s="13">
-        <v>758883</v>
+        <v>746878</v>
       </c>
       <c r="AX78" s="13">
-        <v>888542</v>
+        <v>759812</v>
       </c>
       <c r="AY78" s="13">
-        <v>746878</v>
+        <v>546846</v>
       </c>
       <c r="AZ78" s="13">
-        <v>759812</v>
+        <v>489317</v>
       </c>
       <c r="BA78" s="13">
-        <v>546846</v>
+        <v>611076</v>
       </c>
       <c r="BB78" s="13">
-        <v>489317</v>
+        <v>567439</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10772,11 +10772,11 @@
       <c r="W79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y79" s="11" t="s">
-        <v>58</v>
+      <c r="X79" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="11">
+        <v>0</v>
       </c>
       <c r="Z79" s="11">
         <v>0</v>
@@ -10931,11 +10931,11 @@
       <c r="W80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y80" s="13" t="s">
-        <v>58</v>
+      <c r="X80" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="13">
+        <v>0</v>
       </c>
       <c r="Z80" s="13">
         <v>0</v>
@@ -11090,11 +11090,11 @@
       <c r="W81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y81" s="11" t="s">
-        <v>58</v>
+      <c r="X81" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="11">
+        <v>0</v>
       </c>
       <c r="Z81" s="11">
         <v>0</v>
@@ -11249,80 +11249,80 @@
       <c r="W82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y82" s="13" t="s">
-        <v>58</v>
+      <c r="X82" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="13">
+        <v>1694</v>
       </c>
       <c r="Z82" s="13">
-        <v>0</v>
+        <v>13306</v>
       </c>
       <c r="AA82" s="13">
-        <v>1694</v>
+        <v>36306</v>
       </c>
       <c r="AB82" s="13">
-        <v>13306</v>
+        <v>53495</v>
       </c>
       <c r="AC82" s="13">
-        <v>36306</v>
+        <v>50134</v>
       </c>
       <c r="AD82" s="13">
-        <v>53495</v>
+        <v>48541</v>
       </c>
       <c r="AE82" s="13">
-        <v>50134</v>
+        <v>23780</v>
       </c>
       <c r="AF82" s="13">
-        <v>48541</v>
+        <v>0</v>
       </c>
       <c r="AG82" s="13">
-        <v>23780</v>
+        <v>24849</v>
       </c>
       <c r="AH82" s="13">
-        <v>0</v>
+        <v>72841</v>
       </c>
       <c r="AI82" s="13">
-        <v>24849</v>
+        <v>89374</v>
       </c>
       <c r="AJ82" s="13">
-        <v>72841</v>
+        <v>80898</v>
       </c>
       <c r="AK82" s="13">
-        <v>89374</v>
+        <v>94970</v>
       </c>
       <c r="AL82" s="13">
-        <v>80898</v>
+        <v>93552</v>
       </c>
       <c r="AM82" s="13">
-        <v>94970</v>
+        <v>92792</v>
       </c>
       <c r="AN82" s="13">
-        <v>93552</v>
+        <v>95731</v>
       </c>
       <c r="AO82" s="13">
-        <v>92792</v>
+        <v>180191</v>
       </c>
       <c r="AP82" s="13">
-        <v>95731</v>
+        <v>298146</v>
       </c>
       <c r="AQ82" s="13">
-        <v>180191</v>
+        <v>386754</v>
       </c>
       <c r="AR82" s="13">
-        <v>298146</v>
+        <v>304996</v>
       </c>
       <c r="AS82" s="13">
-        <v>386754</v>
-      </c>
-      <c r="AT82" s="13">
-        <v>304996</v>
-      </c>
-      <c r="AU82" s="13">
         <v>192037</v>
       </c>
-      <c r="AV82" s="13">
-        <v>177453</v>
+      <c r="AT82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW82" s="13" t="s">
         <v>58</v>
@@ -11408,98 +11408,98 @@
       <c r="W83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y83" s="11" t="s">
-        <v>58</v>
+      <c r="X83" s="11">
+        <v>149241</v>
+      </c>
+      <c r="Y83" s="11">
+        <v>220011</v>
       </c>
       <c r="Z83" s="11">
-        <v>149241</v>
+        <v>359581</v>
       </c>
       <c r="AA83" s="11">
-        <v>220011</v>
+        <v>191234</v>
       </c>
       <c r="AB83" s="11">
-        <v>359581</v>
+        <v>577183</v>
       </c>
       <c r="AC83" s="11">
-        <v>191234</v>
+        <v>537840</v>
       </c>
       <c r="AD83" s="11">
-        <v>577183</v>
+        <v>599058</v>
       </c>
       <c r="AE83" s="11">
-        <v>537840</v>
+        <v>295794</v>
       </c>
       <c r="AF83" s="11">
-        <v>599058</v>
+        <v>280422</v>
       </c>
       <c r="AG83" s="11">
-        <v>295794</v>
+        <v>795715</v>
       </c>
       <c r="AH83" s="11">
-        <v>280422</v>
+        <v>1143076</v>
       </c>
       <c r="AI83" s="11">
-        <v>795715</v>
+        <v>1076147</v>
       </c>
       <c r="AJ83" s="11">
-        <v>1143076</v>
+        <v>467487</v>
       </c>
       <c r="AK83" s="11">
-        <v>1076147</v>
+        <v>737725</v>
       </c>
       <c r="AL83" s="11">
-        <v>467487</v>
+        <v>542708</v>
       </c>
       <c r="AM83" s="11">
-        <v>737725</v>
+        <v>558439</v>
       </c>
       <c r="AN83" s="11">
-        <v>542708</v>
+        <v>1071763</v>
       </c>
       <c r="AO83" s="11">
-        <v>558439</v>
+        <v>1138590</v>
       </c>
       <c r="AP83" s="11">
-        <v>1071763</v>
+        <v>1750037</v>
       </c>
       <c r="AQ83" s="11">
-        <v>1138590</v>
+        <v>1312020</v>
       </c>
       <c r="AR83" s="11">
-        <v>1750037</v>
+        <v>962968</v>
       </c>
       <c r="AS83" s="11">
-        <v>1312020</v>
+        <v>857536</v>
       </c>
       <c r="AT83" s="11">
-        <v>962968</v>
+        <v>2220649</v>
       </c>
       <c r="AU83" s="11">
-        <v>857536</v>
+        <v>1379255</v>
       </c>
       <c r="AV83" s="11">
-        <v>2220649</v>
+        <v>2097349</v>
       </c>
       <c r="AW83" s="11">
-        <v>2257652</v>
+        <v>1280048</v>
       </c>
       <c r="AX83" s="11">
-        <v>2097349</v>
+        <v>-284370</v>
       </c>
       <c r="AY83" s="11">
-        <v>1280048</v>
+        <v>1621823</v>
       </c>
       <c r="AZ83" s="11">
-        <v>211485</v>
+        <v>1179429</v>
       </c>
       <c r="BA83" s="11">
-        <v>1621823</v>
+        <v>1591522</v>
       </c>
       <c r="BB83" s="11">
-        <v>1179429</v>
+        <v>1022009</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11567,80 +11567,80 @@
       <c r="W84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y84" s="13" t="s">
-        <v>58</v>
+      <c r="X84" s="13">
+        <v>195730</v>
+      </c>
+      <c r="Y84" s="13">
+        <v>187355</v>
       </c>
       <c r="Z84" s="13">
-        <v>195730</v>
+        <v>270995</v>
       </c>
       <c r="AA84" s="13">
-        <v>187355</v>
+        <v>218159</v>
       </c>
       <c r="AB84" s="13">
-        <v>270995</v>
+        <v>263785</v>
       </c>
       <c r="AC84" s="13">
-        <v>218159</v>
+        <v>293343</v>
       </c>
       <c r="AD84" s="13">
-        <v>263785</v>
+        <v>284632</v>
       </c>
       <c r="AE84" s="13">
-        <v>293343</v>
+        <v>218598</v>
       </c>
       <c r="AF84" s="13">
-        <v>284632</v>
+        <v>188558</v>
       </c>
       <c r="AG84" s="13">
-        <v>218598</v>
+        <v>505989</v>
       </c>
       <c r="AH84" s="13">
-        <v>188558</v>
+        <v>253843</v>
       </c>
       <c r="AI84" s="13">
-        <v>505989</v>
+        <v>454310</v>
       </c>
       <c r="AJ84" s="13">
-        <v>253843</v>
+        <v>400182</v>
       </c>
       <c r="AK84" s="13">
-        <v>454310</v>
+        <v>421902</v>
       </c>
       <c r="AL84" s="13">
-        <v>400182</v>
+        <v>310702</v>
       </c>
       <c r="AM84" s="13">
-        <v>421902</v>
+        <v>655112</v>
       </c>
       <c r="AN84" s="13">
-        <v>310702</v>
+        <v>723808</v>
       </c>
       <c r="AO84" s="13">
-        <v>655112</v>
+        <v>1053712</v>
       </c>
       <c r="AP84" s="13">
-        <v>723808</v>
+        <v>1111035</v>
       </c>
       <c r="AQ84" s="13">
-        <v>1053712</v>
+        <v>974868</v>
       </c>
       <c r="AR84" s="13">
-        <v>1111035</v>
+        <v>478426</v>
       </c>
       <c r="AS84" s="13">
-        <v>974868</v>
-      </c>
-      <c r="AT84" s="13">
-        <v>478426</v>
-      </c>
-      <c r="AU84" s="13">
         <v>524251</v>
       </c>
-      <c r="AV84" s="13">
-        <v>414455</v>
+      <c r="AT84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW84" s="13" t="s">
         <v>58</v>
@@ -11725,97 +11725,97 @@
         <v>0</v>
       </c>
       <c r="X85" s="15">
-        <v>0</v>
+        <v>366826</v>
       </c>
       <c r="Y85" s="15">
-        <v>0</v>
+        <v>444234</v>
       </c>
       <c r="Z85" s="15">
-        <v>366826</v>
+        <v>783379</v>
       </c>
       <c r="AA85" s="15">
-        <v>444234</v>
+        <v>566817</v>
       </c>
       <c r="AB85" s="15">
-        <v>783379</v>
+        <v>964838</v>
       </c>
       <c r="AC85" s="15">
-        <v>566817</v>
+        <v>1041137</v>
       </c>
       <c r="AD85" s="15">
-        <v>964838</v>
+        <v>1041059</v>
       </c>
       <c r="AE85" s="15">
-        <v>1041137</v>
+        <v>587653</v>
       </c>
       <c r="AF85" s="15">
-        <v>1041059</v>
+        <v>498362</v>
       </c>
       <c r="AG85" s="15">
-        <v>587653</v>
+        <v>1474224</v>
       </c>
       <c r="AH85" s="15">
-        <v>498362</v>
+        <v>1597421</v>
       </c>
       <c r="AI85" s="15">
-        <v>1474224</v>
+        <v>1712514</v>
       </c>
       <c r="AJ85" s="15">
-        <v>1597421</v>
+        <v>1001984</v>
       </c>
       <c r="AK85" s="15">
-        <v>1712514</v>
+        <v>1272051</v>
       </c>
       <c r="AL85" s="15">
-        <v>1001984</v>
+        <v>1077980</v>
       </c>
       <c r="AM85" s="15">
-        <v>1272051</v>
+        <v>1458442</v>
       </c>
       <c r="AN85" s="15">
-        <v>1077980</v>
+        <v>1928471</v>
       </c>
       <c r="AO85" s="15">
-        <v>1458442</v>
+        <v>2662409</v>
       </c>
       <c r="AP85" s="15">
-        <v>1928471</v>
+        <v>3318398</v>
       </c>
       <c r="AQ85" s="15">
-        <v>2662409</v>
+        <v>2760800</v>
       </c>
       <c r="AR85" s="15">
-        <v>3318398</v>
+        <v>1787418</v>
       </c>
       <c r="AS85" s="15">
-        <v>2760800</v>
+        <v>1629962</v>
       </c>
       <c r="AT85" s="15">
-        <v>1787418</v>
+        <v>2930231</v>
       </c>
       <c r="AU85" s="15">
-        <v>1629962</v>
+        <v>2403188</v>
       </c>
       <c r="AV85" s="15">
-        <v>2930231</v>
+        <v>3202890</v>
       </c>
       <c r="AW85" s="15">
-        <v>3281585</v>
+        <v>2535723</v>
       </c>
       <c r="AX85" s="15">
-        <v>3202890</v>
+        <v>736497</v>
       </c>
       <c r="AY85" s="15">
-        <v>2535723</v>
+        <v>2378733</v>
       </c>
       <c r="AZ85" s="15">
-        <v>1232352</v>
+        <v>2101530</v>
       </c>
       <c r="BA85" s="15">
-        <v>2378733</v>
+        <v>2617610</v>
       </c>
       <c r="BB85" s="15">
-        <v>2101530</v>
+        <v>2320567</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11970,68 +11970,68 @@
       <c r="AG87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI87" s="11" t="s">
-        <v>58</v>
+      <c r="AH87" s="11">
+        <v>710423</v>
+      </c>
+      <c r="AI87" s="11">
+        <v>838020</v>
       </c>
       <c r="AJ87" s="11">
-        <v>710423</v>
+        <v>1749803</v>
       </c>
       <c r="AK87" s="11">
-        <v>838020</v>
+        <v>1949841</v>
       </c>
       <c r="AL87" s="11">
-        <v>1749803</v>
+        <v>1286243</v>
       </c>
       <c r="AM87" s="11">
-        <v>1949841</v>
+        <v>3693907</v>
       </c>
       <c r="AN87" s="11">
-        <v>1286243</v>
+        <v>2971758</v>
       </c>
       <c r="AO87" s="11">
-        <v>3693907</v>
+        <v>1390588</v>
       </c>
       <c r="AP87" s="11">
-        <v>2971758</v>
+        <v>5771432</v>
       </c>
       <c r="AQ87" s="11">
-        <v>1390588</v>
+        <v>649202</v>
       </c>
       <c r="AR87" s="11">
-        <v>5771432</v>
+        <v>928419</v>
       </c>
       <c r="AS87" s="11">
-        <v>649202</v>
+        <v>3286459</v>
       </c>
       <c r="AT87" s="11">
-        <v>928419</v>
+        <v>1569222</v>
       </c>
       <c r="AU87" s="11">
-        <v>3286459</v>
+        <v>2058045</v>
       </c>
       <c r="AV87" s="11">
-        <v>1569222</v>
+        <v>6024641</v>
       </c>
       <c r="AW87" s="11">
-        <v>2058045</v>
+        <v>5393480</v>
       </c>
       <c r="AX87" s="11">
-        <v>6024641</v>
+        <v>10255317</v>
       </c>
       <c r="AY87" s="11">
-        <v>5393480</v>
+        <v>3831900</v>
       </c>
       <c r="AZ87" s="11">
-        <v>10255317</v>
+        <v>4814331</v>
       </c>
       <c r="BA87" s="11">
-        <v>3831900</v>
+        <v>3680527</v>
       </c>
       <c r="BB87" s="11">
-        <v>4814331</v>
+        <v>2692036</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -12129,68 +12129,68 @@
       <c r="AG88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI88" s="13" t="s">
-        <v>58</v>
+      <c r="AH88" s="13">
+        <v>7922</v>
+      </c>
+      <c r="AI88" s="13">
+        <v>10147</v>
       </c>
       <c r="AJ88" s="13">
-        <v>7922</v>
+        <v>11514</v>
       </c>
       <c r="AK88" s="13">
-        <v>10147</v>
+        <v>6199</v>
       </c>
       <c r="AL88" s="13">
-        <v>11514</v>
+        <v>0</v>
       </c>
       <c r="AM88" s="13">
-        <v>6199</v>
+        <v>2668</v>
       </c>
       <c r="AN88" s="13">
-        <v>0</v>
+        <v>13570</v>
       </c>
       <c r="AO88" s="13">
-        <v>2668</v>
+        <v>70217</v>
       </c>
       <c r="AP88" s="13">
-        <v>13570</v>
+        <v>132653</v>
       </c>
       <c r="AQ88" s="13">
-        <v>70217</v>
+        <v>190495</v>
       </c>
       <c r="AR88" s="13">
-        <v>132653</v>
+        <v>43340</v>
       </c>
       <c r="AS88" s="13">
-        <v>190495</v>
+        <v>12866</v>
       </c>
       <c r="AT88" s="13">
-        <v>43340</v>
+        <v>22210</v>
       </c>
       <c r="AU88" s="13">
-        <v>12866</v>
+        <v>215092</v>
       </c>
       <c r="AV88" s="13">
-        <v>22210</v>
+        <v>290969</v>
       </c>
       <c r="AW88" s="13">
-        <v>215092</v>
+        <v>290013</v>
       </c>
       <c r="AX88" s="13">
-        <v>290969</v>
+        <v>441309</v>
       </c>
       <c r="AY88" s="13">
-        <v>290013</v>
+        <v>536282</v>
       </c>
       <c r="AZ88" s="13">
-        <v>441309</v>
+        <v>560294</v>
       </c>
       <c r="BA88" s="13">
-        <v>536282</v>
+        <v>429635</v>
       </c>
       <c r="BB88" s="13">
-        <v>560294</v>
+        <v>192623</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -12258,41 +12258,41 @@
       <c r="W89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X89" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y89" s="11" t="s">
-        <v>58</v>
+      <c r="X89" s="11">
+        <v>214518</v>
+      </c>
+      <c r="Y89" s="11">
+        <v>225348</v>
       </c>
       <c r="Z89" s="11">
-        <v>214518</v>
+        <v>576343</v>
       </c>
       <c r="AA89" s="11">
-        <v>225348</v>
+        <v>923602</v>
       </c>
       <c r="AB89" s="11">
-        <v>576343</v>
+        <v>1030510</v>
       </c>
       <c r="AC89" s="11">
-        <v>923602</v>
+        <v>1393693</v>
       </c>
       <c r="AD89" s="11">
-        <v>1030510</v>
+        <v>2180643</v>
       </c>
       <c r="AE89" s="11">
-        <v>1393693</v>
+        <v>1968007</v>
       </c>
       <c r="AF89" s="11">
-        <v>2180643</v>
+        <v>709926</v>
       </c>
       <c r="AG89" s="11">
-        <v>1968007</v>
-      </c>
-      <c r="AH89" s="11">
-        <v>709926</v>
-      </c>
-      <c r="AI89" s="11">
         <v>1169321</v>
+      </c>
+      <c r="AH89" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI89" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ89" s="11" t="s">
         <v>58</v>
@@ -12447,68 +12447,68 @@
       <c r="AG90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH90" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI90" s="13" t="s">
-        <v>58</v>
+      <c r="AH90" s="13">
+        <v>42300</v>
+      </c>
+      <c r="AI90" s="13">
+        <v>170859</v>
       </c>
       <c r="AJ90" s="13">
-        <v>42300</v>
+        <v>533976</v>
       </c>
       <c r="AK90" s="13">
-        <v>170859</v>
+        <v>237112</v>
       </c>
       <c r="AL90" s="13">
-        <v>533976</v>
+        <v>282486</v>
       </c>
       <c r="AM90" s="13">
-        <v>237112</v>
+        <v>1014750</v>
       </c>
       <c r="AN90" s="13">
-        <v>282486</v>
+        <v>430547</v>
       </c>
       <c r="AO90" s="13">
-        <v>1014750</v>
+        <v>447606</v>
       </c>
       <c r="AP90" s="13">
-        <v>430547</v>
+        <v>397644</v>
       </c>
       <c r="AQ90" s="13">
-        <v>447606</v>
+        <v>176773</v>
       </c>
       <c r="AR90" s="13">
-        <v>397644</v>
+        <v>154174</v>
       </c>
       <c r="AS90" s="13">
-        <v>176773</v>
+        <v>202630</v>
       </c>
       <c r="AT90" s="13">
-        <v>154174</v>
+        <v>348127</v>
       </c>
       <c r="AU90" s="13">
-        <v>202630</v>
+        <v>284913</v>
       </c>
       <c r="AV90" s="13">
-        <v>348127</v>
+        <v>183796</v>
       </c>
       <c r="AW90" s="13">
-        <v>284913</v>
+        <v>0</v>
       </c>
       <c r="AX90" s="13">
-        <v>183796</v>
+        <v>0</v>
       </c>
       <c r="AY90" s="13">
-        <v>0</v>
+        <v>263567</v>
       </c>
       <c r="AZ90" s="13">
         <v>0</v>
       </c>
       <c r="BA90" s="13">
-        <v>263567</v>
+        <v>284176</v>
       </c>
       <c r="BB90" s="13">
-        <v>0</v>
+        <v>161480</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -12576,41 +12576,41 @@
       <c r="W91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X91" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y91" s="11" t="s">
-        <v>58</v>
+      <c r="X91" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="11">
+        <v>0</v>
       </c>
       <c r="Z91" s="11">
         <v>0</v>
       </c>
       <c r="AA91" s="11">
-        <v>0</v>
+        <v>3360</v>
       </c>
       <c r="AB91" s="11">
-        <v>0</v>
+        <v>19422</v>
       </c>
       <c r="AC91" s="11">
-        <v>3360</v>
+        <v>15145</v>
       </c>
       <c r="AD91" s="11">
-        <v>19422</v>
+        <v>16992</v>
       </c>
       <c r="AE91" s="11">
-        <v>15145</v>
+        <v>11716</v>
       </c>
       <c r="AF91" s="11">
-        <v>16992</v>
+        <v>0</v>
       </c>
       <c r="AG91" s="11">
-        <v>11716</v>
-      </c>
-      <c r="AH91" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI91" s="11">
         <v>4769</v>
+      </c>
+      <c r="AH91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI91" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ91" s="11" t="s">
         <v>58</v>
@@ -12735,41 +12735,41 @@
       <c r="W92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X92" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y92" s="13" t="s">
-        <v>58</v>
+      <c r="X92" s="13">
+        <v>11142</v>
+      </c>
+      <c r="Y92" s="13">
+        <v>9258</v>
       </c>
       <c r="Z92" s="13">
-        <v>11142</v>
+        <v>28107</v>
       </c>
       <c r="AA92" s="13">
-        <v>9258</v>
+        <v>72924</v>
       </c>
       <c r="AB92" s="13">
-        <v>28107</v>
+        <v>100681</v>
       </c>
       <c r="AC92" s="13">
-        <v>72924</v>
+        <v>161004</v>
       </c>
       <c r="AD92" s="13">
-        <v>100681</v>
+        <v>178084</v>
       </c>
       <c r="AE92" s="13">
-        <v>161004</v>
+        <v>137314</v>
       </c>
       <c r="AF92" s="13">
-        <v>178084</v>
+        <v>56460</v>
       </c>
       <c r="AG92" s="13">
-        <v>137314</v>
-      </c>
-      <c r="AH92" s="13">
-        <v>56460</v>
-      </c>
-      <c r="AI92" s="13">
         <v>38640</v>
+      </c>
+      <c r="AH92" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI92" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ92" s="13" t="s">
         <v>58</v>
@@ -12893,97 +12893,97 @@
         <v>0</v>
       </c>
       <c r="X93" s="15">
-        <v>0</v>
+        <v>225660</v>
       </c>
       <c r="Y93" s="15">
-        <v>0</v>
+        <v>234606</v>
       </c>
       <c r="Z93" s="15">
-        <v>225660</v>
+        <v>604450</v>
       </c>
       <c r="AA93" s="15">
-        <v>234606</v>
+        <v>999886</v>
       </c>
       <c r="AB93" s="15">
-        <v>604450</v>
+        <v>1150613</v>
       </c>
       <c r="AC93" s="15">
-        <v>999886</v>
+        <v>1569842</v>
       </c>
       <c r="AD93" s="15">
-        <v>1150613</v>
+        <v>2375719</v>
       </c>
       <c r="AE93" s="15">
-        <v>1569842</v>
+        <v>2117037</v>
       </c>
       <c r="AF93" s="15">
-        <v>2375719</v>
+        <v>766386</v>
       </c>
       <c r="AG93" s="15">
-        <v>2117037</v>
+        <v>1212730</v>
       </c>
       <c r="AH93" s="15">
-        <v>766386</v>
+        <v>760645</v>
       </c>
       <c r="AI93" s="15">
-        <v>1212730</v>
+        <v>1019026</v>
       </c>
       <c r="AJ93" s="15">
-        <v>760645</v>
+        <v>2295293</v>
       </c>
       <c r="AK93" s="15">
-        <v>1019026</v>
+        <v>2193152</v>
       </c>
       <c r="AL93" s="15">
-        <v>2295293</v>
+        <v>1568729</v>
       </c>
       <c r="AM93" s="15">
-        <v>2193152</v>
+        <v>4711325</v>
       </c>
       <c r="AN93" s="15">
-        <v>1568729</v>
+        <v>3415875</v>
       </c>
       <c r="AO93" s="15">
-        <v>4711325</v>
+        <v>1908411</v>
       </c>
       <c r="AP93" s="15">
-        <v>3415875</v>
+        <v>6301729</v>
       </c>
       <c r="AQ93" s="15">
-        <v>1908411</v>
+        <v>1016470</v>
       </c>
       <c r="AR93" s="15">
-        <v>6301729</v>
+        <v>1125933</v>
       </c>
       <c r="AS93" s="15">
-        <v>1016470</v>
+        <v>3501955</v>
       </c>
       <c r="AT93" s="15">
-        <v>1125933</v>
+        <v>1939559</v>
       </c>
       <c r="AU93" s="15">
-        <v>3501955</v>
+        <v>2558050</v>
       </c>
       <c r="AV93" s="15">
-        <v>1939559</v>
+        <v>6499406</v>
       </c>
       <c r="AW93" s="15">
-        <v>2558050</v>
+        <v>5683493</v>
       </c>
       <c r="AX93" s="15">
-        <v>6499406</v>
+        <v>10696626</v>
       </c>
       <c r="AY93" s="15">
-        <v>5683493</v>
+        <v>4631749</v>
       </c>
       <c r="AZ93" s="15">
-        <v>10696626</v>
+        <v>5374625</v>
       </c>
       <c r="BA93" s="15">
-        <v>4631749</v>
+        <v>4394338</v>
       </c>
       <c r="BB93" s="15">
-        <v>5374625</v>
+        <v>3046139</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -13108,11 +13108,11 @@
       <c r="W95" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="X95" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y95" s="15" t="s">
-        <v>58</v>
+      <c r="X95" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="15">
+        <v>0</v>
       </c>
       <c r="Z95" s="15">
         <v>0</v>
@@ -13324,11 +13324,11 @@
       <c r="W97" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="X97" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y97" s="15" t="s">
-        <v>58</v>
+      <c r="X97" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="15">
+        <v>0</v>
       </c>
       <c r="Z97" s="15">
         <v>0</v>
@@ -13540,17 +13540,17 @@
       <c r="W99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y99" s="11" t="s">
-        <v>58</v>
+      <c r="X99" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="11">
+        <v>-238</v>
       </c>
       <c r="Z99" s="11">
         <v>0</v>
       </c>
       <c r="AA99" s="11">
-        <v>-238</v>
+        <v>0</v>
       </c>
       <c r="AB99" s="11">
         <v>0</v>
@@ -13580,37 +13580,37 @@
         <v>0</v>
       </c>
       <c r="AK99" s="11">
-        <v>0</v>
+        <v>-4469</v>
       </c>
       <c r="AL99" s="11">
-        <v>0</v>
+        <v>-4759</v>
       </c>
       <c r="AM99" s="11">
-        <v>-4469</v>
+        <v>-3795</v>
       </c>
       <c r="AN99" s="11">
-        <v>-4759</v>
+        <v>-1713</v>
       </c>
       <c r="AO99" s="11">
-        <v>-3795</v>
+        <v>-5940</v>
       </c>
       <c r="AP99" s="11">
-        <v>-1713</v>
+        <v>-7451</v>
       </c>
       <c r="AQ99" s="11">
-        <v>-5940</v>
+        <v>-8693</v>
       </c>
       <c r="AR99" s="11">
-        <v>-7451</v>
+        <v>-7060</v>
       </c>
       <c r="AS99" s="11">
-        <v>-8693</v>
+        <v>-19</v>
       </c>
       <c r="AT99" s="11">
-        <v>-7060</v>
+        <v>0</v>
       </c>
       <c r="AU99" s="11">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="AV99" s="11">
         <v>0</v>
@@ -13628,10 +13628,10 @@
         <v>0</v>
       </c>
       <c r="BA99" s="11">
-        <v>0</v>
+        <v>-486</v>
       </c>
       <c r="BB99" s="11">
-        <v>0</v>
+        <v>-830</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.3">
@@ -13698,97 +13698,97 @@
         <v>0</v>
       </c>
       <c r="X100" s="19">
-        <v>0</v>
+        <v>592486</v>
       </c>
       <c r="Y100" s="19">
-        <v>0</v>
+        <v>678602</v>
       </c>
       <c r="Z100" s="19">
-        <v>592486</v>
+        <v>1387829</v>
       </c>
       <c r="AA100" s="19">
-        <v>678602</v>
+        <v>1566703</v>
       </c>
       <c r="AB100" s="19">
-        <v>1387829</v>
+        <v>2115451</v>
       </c>
       <c r="AC100" s="19">
-        <v>1566703</v>
+        <v>2610979</v>
       </c>
       <c r="AD100" s="19">
-        <v>2115451</v>
+        <v>3416778</v>
       </c>
       <c r="AE100" s="19">
-        <v>2610979</v>
+        <v>2704690</v>
       </c>
       <c r="AF100" s="19">
-        <v>3416778</v>
+        <v>1264748</v>
       </c>
       <c r="AG100" s="19">
-        <v>2704690</v>
+        <v>2686954</v>
       </c>
       <c r="AH100" s="19">
-        <v>1264748</v>
+        <v>2358066</v>
       </c>
       <c r="AI100" s="19">
-        <v>2686954</v>
+        <v>2731540</v>
       </c>
       <c r="AJ100" s="19">
-        <v>2358066</v>
+        <v>3297277</v>
       </c>
       <c r="AK100" s="19">
-        <v>2731540</v>
+        <v>3460734</v>
       </c>
       <c r="AL100" s="19">
-        <v>3297277</v>
+        <v>2641950</v>
       </c>
       <c r="AM100" s="19">
-        <v>3460734</v>
+        <v>6165972</v>
       </c>
       <c r="AN100" s="19">
-        <v>2641950</v>
+        <v>5342633</v>
       </c>
       <c r="AO100" s="19">
-        <v>6165972</v>
+        <v>4564880</v>
       </c>
       <c r="AP100" s="19">
-        <v>5342633</v>
+        <v>9612676</v>
       </c>
       <c r="AQ100" s="19">
-        <v>4564880</v>
+        <v>3768577</v>
       </c>
       <c r="AR100" s="19">
-        <v>9612676</v>
+        <v>2906291</v>
       </c>
       <c r="AS100" s="19">
-        <v>3768577</v>
+        <v>5131898</v>
       </c>
       <c r="AT100" s="19">
-        <v>2906291</v>
+        <v>4869790</v>
       </c>
       <c r="AU100" s="19">
-        <v>5131898</v>
+        <v>4961238</v>
       </c>
       <c r="AV100" s="19">
-        <v>4869790</v>
+        <v>9702296</v>
       </c>
       <c r="AW100" s="19">
-        <v>5839635</v>
+        <v>8219216</v>
       </c>
       <c r="AX100" s="19">
-        <v>9702296</v>
+        <v>11433123</v>
       </c>
       <c r="AY100" s="19">
-        <v>8219216</v>
+        <v>7010482</v>
       </c>
       <c r="AZ100" s="19">
-        <v>11928978</v>
+        <v>7476155</v>
       </c>
       <c r="BA100" s="19">
-        <v>7010482</v>
+        <v>7011462</v>
       </c>
       <c r="BB100" s="19">
-        <v>7476155</v>
+        <v>5365876</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
@@ -14356,32 +14356,32 @@
       <c r="AS107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV107" s="11" t="s">
-        <v>58</v>
+      <c r="AT107" s="11">
+        <v>133423308</v>
+      </c>
+      <c r="AU107" s="11">
+        <v>158177177</v>
+      </c>
+      <c r="AV107" s="11">
+        <v>191961665</v>
       </c>
       <c r="AW107" s="11">
-        <v>158177177</v>
+        <v>198862360</v>
       </c>
       <c r="AX107" s="11">
-        <v>191961665</v>
+        <v>196378590</v>
       </c>
       <c r="AY107" s="11">
-        <v>198862360</v>
+        <v>207307063</v>
       </c>
       <c r="AZ107" s="11">
-        <v>196378590</v>
+        <v>211319352</v>
       </c>
       <c r="BA107" s="11">
-        <v>207307063</v>
+        <v>208547517</v>
       </c>
       <c r="BB107" s="11">
-        <v>211319352</v>
+        <v>196778132</v>
       </c>
     </row>
     <row r="108" spans="2:54" x14ac:dyDescent="0.3">
@@ -14449,98 +14449,98 @@
       <c r="W108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y108" s="13" t="s">
-        <v>58</v>
+      <c r="X108" s="13">
+        <v>26426844</v>
+      </c>
+      <c r="Y108" s="13">
+        <v>27245546</v>
       </c>
       <c r="Z108" s="13">
-        <v>26426844</v>
+        <v>32822824</v>
       </c>
       <c r="AA108" s="13">
-        <v>27245546</v>
+        <v>35685916</v>
       </c>
       <c r="AB108" s="13">
-        <v>32822824</v>
+        <v>43738347</v>
       </c>
       <c r="AC108" s="13">
-        <v>35685916</v>
+        <v>49205665</v>
       </c>
       <c r="AD108" s="13">
-        <v>43738347</v>
+        <v>49670470</v>
       </c>
       <c r="AE108" s="13">
-        <v>49205665</v>
+        <v>48039806</v>
       </c>
       <c r="AF108" s="13">
-        <v>49670470</v>
+        <v>49715736</v>
       </c>
       <c r="AG108" s="13">
-        <v>48039806</v>
+        <v>53776766</v>
       </c>
       <c r="AH108" s="13">
-        <v>49715736</v>
+        <v>49043796</v>
       </c>
       <c r="AI108" s="13">
-        <v>53776766</v>
+        <v>58697277</v>
       </c>
       <c r="AJ108" s="13">
-        <v>49043796</v>
+        <v>58507119</v>
       </c>
       <c r="AK108" s="13">
-        <v>58697277</v>
+        <v>75886957</v>
       </c>
       <c r="AL108" s="13">
-        <v>58507119</v>
+        <v>82453115</v>
       </c>
       <c r="AM108" s="13">
-        <v>75886957</v>
+        <v>86666097</v>
       </c>
       <c r="AN108" s="13">
-        <v>82453115</v>
+        <v>96542857</v>
       </c>
       <c r="AO108" s="13">
-        <v>86666097</v>
+        <v>149441237</v>
       </c>
       <c r="AP108" s="13">
-        <v>96542857</v>
+        <v>166680628</v>
       </c>
       <c r="AQ108" s="13">
-        <v>149441237</v>
+        <v>202693023</v>
       </c>
       <c r="AR108" s="13">
-        <v>166680628</v>
+        <v>154822642</v>
       </c>
       <c r="AS108" s="13">
-        <v>202693023</v>
+        <v>118434599</v>
       </c>
       <c r="AT108" s="13">
-        <v>154822642</v>
+        <v>129312088</v>
       </c>
       <c r="AU108" s="13">
-        <v>118434599</v>
+        <v>193546112</v>
       </c>
       <c r="AV108" s="13">
-        <v>129312088</v>
+        <v>141006757</v>
       </c>
       <c r="AW108" s="13">
-        <v>193546112</v>
+        <v>123430924</v>
       </c>
       <c r="AX108" s="13">
-        <v>141006757</v>
+        <v>120248913</v>
       </c>
       <c r="AY108" s="13">
-        <v>123430924</v>
+        <v>137210359</v>
       </c>
       <c r="AZ108" s="13">
-        <v>120248913</v>
+        <v>136586304</v>
       </c>
       <c r="BA108" s="13">
-        <v>137210359</v>
+        <v>126045455</v>
       </c>
       <c r="BB108" s="13">
-        <v>136586304</v>
+        <v>128654880</v>
       </c>
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.3">
@@ -14674,32 +14674,32 @@
       <c r="AS109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT109" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU109" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV109" s="11" t="s">
-        <v>58</v>
+      <c r="AT109" s="11">
+        <v>589551920</v>
+      </c>
+      <c r="AU109" s="11">
+        <v>560061255</v>
+      </c>
+      <c r="AV109" s="11">
+        <v>564512071</v>
       </c>
       <c r="AW109" s="11">
-        <v>560061255</v>
+        <v>495605839</v>
       </c>
       <c r="AX109" s="11">
-        <v>564512071</v>
+        <v>451731272</v>
       </c>
       <c r="AY109" s="11">
-        <v>495605839</v>
+        <v>436777955</v>
       </c>
       <c r="AZ109" s="11">
-        <v>451731272</v>
+        <v>422918755</v>
       </c>
       <c r="BA109" s="11">
-        <v>436777955</v>
+        <v>407655771</v>
       </c>
       <c r="BB109" s="11">
-        <v>422918755</v>
+        <v>403583926</v>
       </c>
     </row>
     <row r="110" spans="2:54" x14ac:dyDescent="0.3">
@@ -14770,77 +14770,77 @@
       <c r="X110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z110" s="13" t="s">
-        <v>58</v>
+      <c r="Y110" s="13">
+        <v>19250000</v>
+      </c>
+      <c r="Z110" s="13">
+        <v>23302977</v>
       </c>
       <c r="AA110" s="13">
-        <v>19250000</v>
+        <v>23948549</v>
       </c>
       <c r="AB110" s="13">
-        <v>23302977</v>
+        <v>27447409</v>
       </c>
       <c r="AC110" s="13">
-        <v>23948549</v>
+        <v>27455641</v>
       </c>
       <c r="AD110" s="13">
-        <v>27447409</v>
+        <v>28773563</v>
       </c>
       <c r="AE110" s="13">
-        <v>27455641</v>
-      </c>
-      <c r="AF110" s="13">
-        <v>28773563</v>
+        <v>28859223</v>
+      </c>
+      <c r="AF110" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG110" s="13">
-        <v>28859223</v>
-      </c>
-      <c r="AH110" s="13" t="s">
-        <v>58</v>
+        <v>33946721</v>
+      </c>
+      <c r="AH110" s="13">
+        <v>37508239</v>
       </c>
       <c r="AI110" s="13">
-        <v>33946721</v>
+        <v>46524727</v>
       </c>
       <c r="AJ110" s="13">
-        <v>37508239</v>
+        <v>54257545</v>
       </c>
       <c r="AK110" s="13">
-        <v>46524727</v>
+        <v>65768698</v>
       </c>
       <c r="AL110" s="13">
-        <v>54257545</v>
+        <v>70819076</v>
       </c>
       <c r="AM110" s="13">
-        <v>65768698</v>
+        <v>78570703</v>
       </c>
       <c r="AN110" s="13">
-        <v>70819076</v>
+        <v>81681741</v>
       </c>
       <c r="AO110" s="13">
-        <v>78570703</v>
+        <v>93947341</v>
       </c>
       <c r="AP110" s="13">
-        <v>81681741</v>
+        <v>121000812</v>
       </c>
       <c r="AQ110" s="13">
-        <v>93947341</v>
+        <v>145177928</v>
       </c>
       <c r="AR110" s="13">
-        <v>121000812</v>
+        <v>148923828</v>
       </c>
       <c r="AS110" s="13">
-        <v>145177928</v>
-      </c>
-      <c r="AT110" s="13">
-        <v>148923828</v>
-      </c>
-      <c r="AU110" s="13">
         <v>123974822</v>
       </c>
-      <c r="AV110" s="13">
-        <v>133423308</v>
+      <c r="AT110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV110" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW110" s="13" t="s">
         <v>58</v>
@@ -14926,98 +14926,98 @@
       <c r="W111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X111" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y111" s="11" t="s">
-        <v>58</v>
+      <c r="X111" s="11">
+        <v>22231640</v>
+      </c>
+      <c r="Y111" s="11">
+        <v>22230070</v>
       </c>
       <c r="Z111" s="11">
-        <v>22231640</v>
+        <v>22229290</v>
       </c>
       <c r="AA111" s="11">
-        <v>22230070</v>
+        <v>22228757</v>
       </c>
       <c r="AB111" s="11">
-        <v>22229290</v>
+        <v>35997443</v>
       </c>
       <c r="AC111" s="11">
-        <v>22228757</v>
+        <v>36000000</v>
       </c>
       <c r="AD111" s="11">
-        <v>35997443</v>
+        <v>35998918</v>
       </c>
       <c r="AE111" s="11">
-        <v>36000000</v>
+        <v>35997809</v>
       </c>
       <c r="AF111" s="11">
-        <v>35998918</v>
+        <v>35997689</v>
       </c>
       <c r="AG111" s="11">
-        <v>35997809</v>
+        <v>38405087</v>
       </c>
       <c r="AH111" s="11">
-        <v>35997689</v>
+        <v>43592251</v>
       </c>
       <c r="AI111" s="11">
-        <v>38405087</v>
+        <v>45609112</v>
       </c>
       <c r="AJ111" s="11">
-        <v>43592251</v>
+        <v>42314175</v>
       </c>
       <c r="AK111" s="11">
-        <v>45609112</v>
+        <v>45998566</v>
       </c>
       <c r="AL111" s="11">
-        <v>42314175</v>
+        <v>46000000</v>
       </c>
       <c r="AM111" s="11">
-        <v>45998566</v>
+        <v>48216111</v>
       </c>
       <c r="AN111" s="11">
-        <v>46000000</v>
+        <v>68299962</v>
       </c>
       <c r="AO111" s="11">
-        <v>48216111</v>
+        <v>68228068</v>
       </c>
       <c r="AP111" s="11">
-        <v>68299962</v>
+        <v>90231348</v>
       </c>
       <c r="AQ111" s="11">
-        <v>68228068</v>
+        <v>90229008</v>
       </c>
       <c r="AR111" s="11">
-        <v>90231348</v>
+        <v>90233133</v>
       </c>
       <c r="AS111" s="11">
-        <v>90229008</v>
+        <v>90228956</v>
       </c>
       <c r="AT111" s="11">
-        <v>90233133</v>
+        <v>145112004</v>
       </c>
       <c r="AU111" s="11">
-        <v>90228956</v>
+        <v>116648957</v>
       </c>
       <c r="AV111" s="11">
-        <v>145112004</v>
+        <v>116648999</v>
       </c>
       <c r="AW111" s="11">
-        <v>145111968</v>
+        <v>116643703</v>
       </c>
       <c r="AX111" s="11">
-        <v>116648999</v>
+        <v>108603263</v>
       </c>
       <c r="AY111" s="11">
-        <v>116643703</v>
+        <v>108603007</v>
       </c>
       <c r="AZ111" s="11">
-        <v>116649200</v>
+        <v>108603039</v>
       </c>
       <c r="BA111" s="11">
-        <v>108603007</v>
+        <v>108606660</v>
       </c>
       <c r="BB111" s="11">
-        <v>108603039</v>
+        <v>108597280</v>
       </c>
     </row>
     <row r="112" spans="2:54" x14ac:dyDescent="0.3">
@@ -15085,80 +15085,80 @@
       <c r="W112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y112" s="13" t="s">
-        <v>58</v>
+      <c r="X112" s="13">
+        <v>181736305</v>
+      </c>
+      <c r="Y112" s="13">
+        <v>181545543</v>
       </c>
       <c r="Z112" s="13">
-        <v>181736305</v>
+        <v>192879004</v>
       </c>
       <c r="AA112" s="13">
-        <v>181545543</v>
+        <v>170436719</v>
       </c>
       <c r="AB112" s="13">
-        <v>192879004</v>
+        <v>221854500</v>
       </c>
       <c r="AC112" s="13">
-        <v>170436719</v>
+        <v>243842893</v>
       </c>
       <c r="AD112" s="13">
-        <v>221854500</v>
+        <v>268267672</v>
       </c>
       <c r="AE112" s="13">
-        <v>243842893</v>
+        <v>287628947</v>
       </c>
       <c r="AF112" s="13">
-        <v>268267672</v>
+        <v>347252302</v>
       </c>
       <c r="AG112" s="13">
-        <v>287628947</v>
+        <v>326023840</v>
       </c>
       <c r="AH112" s="13">
-        <v>347252302</v>
+        <v>324607417</v>
       </c>
       <c r="AI112" s="13">
-        <v>326023840</v>
+        <v>364907631</v>
       </c>
       <c r="AJ112" s="13">
-        <v>324607417</v>
+        <v>372608939</v>
       </c>
       <c r="AK112" s="13">
-        <v>364907631</v>
+        <v>372375993</v>
       </c>
       <c r="AL112" s="13">
-        <v>372608939</v>
+        <v>452259098</v>
       </c>
       <c r="AM112" s="13">
-        <v>372375993</v>
+        <v>497805471</v>
       </c>
       <c r="AN112" s="13">
-        <v>452259098</v>
+        <v>622362855</v>
       </c>
       <c r="AO112" s="13">
-        <v>497805471</v>
+        <v>882505863</v>
       </c>
       <c r="AP112" s="13">
-        <v>622362855</v>
+        <v>932076342</v>
       </c>
       <c r="AQ112" s="13">
-        <v>882505863</v>
+        <v>711063457</v>
       </c>
       <c r="AR112" s="13">
-        <v>932076342</v>
+        <v>639606952</v>
       </c>
       <c r="AS112" s="13">
-        <v>711063457</v>
-      </c>
-      <c r="AT112" s="13">
-        <v>639606952</v>
-      </c>
-      <c r="AU112" s="13">
         <v>665293147</v>
       </c>
-      <c r="AV112" s="13">
-        <v>589551920</v>
+      <c r="AT112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW112" s="13" t="s">
         <v>58</v>
@@ -15331,68 +15331,68 @@
       <c r="AG114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH114" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI114" s="11" t="s">
-        <v>58</v>
+      <c r="AH114" s="11">
+        <v>65950891</v>
+      </c>
+      <c r="AI114" s="11">
+        <v>71357289</v>
       </c>
       <c r="AJ114" s="11">
-        <v>65950891</v>
+        <v>60410944</v>
       </c>
       <c r="AK114" s="11">
-        <v>71357289</v>
+        <v>62160195</v>
       </c>
       <c r="AL114" s="11">
-        <v>60410944</v>
+        <v>76316779</v>
       </c>
       <c r="AM114" s="11">
-        <v>62160195</v>
+        <v>85747278</v>
       </c>
       <c r="AN114" s="11">
-        <v>76316779</v>
+        <v>94690224</v>
       </c>
       <c r="AO114" s="11">
-        <v>85747278</v>
+        <v>101258866</v>
       </c>
       <c r="AP114" s="11">
-        <v>94690224</v>
+        <v>172564868</v>
       </c>
       <c r="AQ114" s="11">
-        <v>101258866</v>
+        <v>194023311</v>
       </c>
       <c r="AR114" s="11">
-        <v>172564868</v>
+        <v>145565851</v>
       </c>
       <c r="AS114" s="11">
-        <v>194023311</v>
+        <v>127111158</v>
       </c>
       <c r="AT114" s="11">
-        <v>145565851</v>
+        <v>133732913</v>
       </c>
       <c r="AU114" s="11">
-        <v>127111158</v>
+        <v>173718663</v>
       </c>
       <c r="AV114" s="11">
-        <v>133732913</v>
+        <v>147709834</v>
       </c>
       <c r="AW114" s="11">
-        <v>173718663</v>
+        <v>139114779</v>
       </c>
       <c r="AX114" s="11">
-        <v>147709834</v>
+        <v>131745292</v>
       </c>
       <c r="AY114" s="11">
-        <v>139114779</v>
+        <v>143308868</v>
       </c>
       <c r="AZ114" s="11">
-        <v>131745292</v>
+        <v>157511238</v>
       </c>
       <c r="BA114" s="11">
-        <v>143308868</v>
+        <v>160721703</v>
       </c>
       <c r="BB114" s="11">
-        <v>157511238</v>
+        <v>141395872</v>
       </c>
     </row>
     <row r="115" spans="2:54" x14ac:dyDescent="0.3">
@@ -15490,68 +15490,68 @@
       <c r="AG115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH115" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI115" s="13" t="s">
-        <v>58</v>
+      <c r="AH115" s="13">
+        <v>30121673</v>
+      </c>
+      <c r="AI115" s="13">
+        <v>56372222</v>
       </c>
       <c r="AJ115" s="13">
-        <v>30121673</v>
+        <v>52816514</v>
       </c>
       <c r="AK115" s="13">
-        <v>56372222</v>
-      </c>
-      <c r="AL115" s="13">
-        <v>52816514</v>
+        <v>52092437</v>
+      </c>
+      <c r="AL115" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM115" s="13">
-        <v>52092437</v>
-      </c>
-      <c r="AN115" s="13" t="s">
-        <v>58</v>
+        <v>68410256</v>
+      </c>
+      <c r="AN115" s="13">
+        <v>68883249</v>
       </c>
       <c r="AO115" s="13">
-        <v>68410256</v>
+        <v>81837995</v>
       </c>
       <c r="AP115" s="13">
-        <v>68883249</v>
+        <v>104864032</v>
       </c>
       <c r="AQ115" s="13">
-        <v>81837995</v>
+        <v>144863118</v>
       </c>
       <c r="AR115" s="13">
-        <v>104864032</v>
+        <v>155899281</v>
       </c>
       <c r="AS115" s="13">
-        <v>144863118</v>
+        <v>160825000</v>
       </c>
       <c r="AT115" s="13">
-        <v>155899281</v>
+        <v>186638655</v>
       </c>
       <c r="AU115" s="13">
-        <v>160825000</v>
+        <v>177030453</v>
       </c>
       <c r="AV115" s="13">
-        <v>186638655</v>
+        <v>175705918</v>
       </c>
       <c r="AW115" s="13">
-        <v>177030453</v>
+        <v>183320480</v>
       </c>
       <c r="AX115" s="13">
-        <v>175705918</v>
+        <v>189321750</v>
       </c>
       <c r="AY115" s="13">
-        <v>183320480</v>
+        <v>190808982</v>
       </c>
       <c r="AZ115" s="13">
-        <v>189321750</v>
+        <v>200105000</v>
       </c>
       <c r="BA115" s="13">
-        <v>190808982</v>
+        <v>201991067</v>
       </c>
       <c r="BB115" s="13">
-        <v>200105000</v>
+        <v>201699476</v>
       </c>
     </row>
     <row r="116" spans="2:54" x14ac:dyDescent="0.3">
@@ -15619,41 +15619,41 @@
       <c r="W116" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X116" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y116" s="11" t="s">
-        <v>58</v>
+      <c r="X116" s="11">
+        <v>28177854</v>
+      </c>
+      <c r="Y116" s="11">
+        <v>29569348</v>
       </c>
       <c r="Z116" s="11">
-        <v>28177854</v>
+        <v>33609925</v>
       </c>
       <c r="AA116" s="11">
-        <v>29569348</v>
+        <v>40153117</v>
       </c>
       <c r="AB116" s="11">
-        <v>33609925</v>
+        <v>46033682</v>
       </c>
       <c r="AC116" s="11">
-        <v>40153117</v>
+        <v>51906629</v>
       </c>
       <c r="AD116" s="11">
-        <v>46033682</v>
+        <v>54439859</v>
       </c>
       <c r="AE116" s="11">
-        <v>51906629</v>
+        <v>55904525</v>
       </c>
       <c r="AF116" s="11">
-        <v>54439859</v>
+        <v>50777913</v>
       </c>
       <c r="AG116" s="11">
-        <v>55904525</v>
-      </c>
-      <c r="AH116" s="11">
-        <v>50777913</v>
-      </c>
-      <c r="AI116" s="11">
         <v>55321048</v>
+      </c>
+      <c r="AH116" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI116" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ116" s="11" t="s">
         <v>58</v>
@@ -15808,68 +15808,68 @@
       <c r="AG117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH117" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI117" s="13" t="s">
-        <v>58</v>
+      <c r="AH117" s="13">
+        <v>423000000</v>
+      </c>
+      <c r="AI117" s="13">
+        <v>435864796</v>
       </c>
       <c r="AJ117" s="13">
-        <v>423000000</v>
+        <v>439848435</v>
       </c>
       <c r="AK117" s="13">
-        <v>435864796</v>
+        <v>467676529</v>
       </c>
       <c r="AL117" s="13">
-        <v>439848435</v>
+        <v>556074803</v>
       </c>
       <c r="AM117" s="13">
-        <v>467676529</v>
+        <v>585545297</v>
       </c>
       <c r="AN117" s="13">
-        <v>556074803</v>
+        <v>806267790</v>
       </c>
       <c r="AO117" s="13">
-        <v>585545297</v>
+        <v>940348740</v>
       </c>
       <c r="AP117" s="13">
-        <v>806267790</v>
+        <v>977012285</v>
       </c>
       <c r="AQ117" s="13">
-        <v>940348740</v>
+        <v>883865000</v>
       </c>
       <c r="AR117" s="13">
-        <v>977012285</v>
+        <v>770870000</v>
       </c>
       <c r="AS117" s="13">
-        <v>883865000</v>
+        <v>675433333</v>
       </c>
       <c r="AT117" s="13">
-        <v>770870000</v>
+        <v>686641026</v>
       </c>
       <c r="AU117" s="13">
-        <v>675433333</v>
+        <v>619376087</v>
       </c>
       <c r="AV117" s="13">
-        <v>686641026</v>
-      </c>
-      <c r="AW117" s="13">
-        <v>619376087</v>
+        <v>532742029</v>
+      </c>
+      <c r="AW117" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX117" s="13">
-        <v>532742029</v>
-      </c>
-      <c r="AY117" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AY117" s="13">
+        <v>440747492</v>
       </c>
       <c r="AZ117" s="13" t="s">
         <v>58</v>
       </c>
       <c r="BA117" s="13">
-        <v>440747492</v>
-      </c>
-      <c r="BB117" s="13" t="s">
-        <v>58</v>
+        <v>421626113</v>
+      </c>
+      <c r="BB117" s="13">
+        <v>393853659</v>
       </c>
     </row>
     <row r="118" spans="2:54" x14ac:dyDescent="0.3">
@@ -15946,32 +15946,32 @@
       <c r="Z118" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB118" s="11" t="s">
-        <v>58</v>
+      <c r="AA118" s="11">
+        <v>24172662</v>
+      </c>
+      <c r="AB118" s="11">
+        <v>25190661</v>
       </c>
       <c r="AC118" s="11">
-        <v>24172662</v>
+        <v>28957935</v>
       </c>
       <c r="AD118" s="11">
-        <v>25190661</v>
+        <v>32120983</v>
       </c>
       <c r="AE118" s="11">
-        <v>28957935</v>
-      </c>
-      <c r="AF118" s="11">
-        <v>32120983</v>
+        <v>32098630</v>
+      </c>
+      <c r="AF118" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG118" s="11">
-        <v>32098630</v>
+        <v>33584507</v>
       </c>
       <c r="AH118" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI118" s="11">
-        <v>33584507</v>
+      <c r="AI118" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ118" s="11" t="s">
         <v>58</v>
@@ -16096,41 +16096,41 @@
       <c r="W119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y119" s="13" t="s">
-        <v>58</v>
+      <c r="X119" s="13">
+        <v>116062500</v>
+      </c>
+      <c r="Y119" s="13">
+        <v>128583333</v>
       </c>
       <c r="Z119" s="13">
-        <v>116062500</v>
+        <v>137779412</v>
       </c>
       <c r="AA119" s="13">
-        <v>128583333</v>
+        <v>147024194</v>
       </c>
       <c r="AB119" s="13">
-        <v>137779412</v>
+        <v>158303459</v>
       </c>
       <c r="AC119" s="13">
-        <v>147024194</v>
+        <v>199262376</v>
       </c>
       <c r="AD119" s="13">
-        <v>158303459</v>
+        <v>213019139</v>
       </c>
       <c r="AE119" s="13">
-        <v>199262376</v>
+        <v>276842742</v>
       </c>
       <c r="AF119" s="13">
-        <v>213019139</v>
+        <v>288061224</v>
       </c>
       <c r="AG119" s="13">
-        <v>276842742</v>
-      </c>
-      <c r="AH119" s="13">
-        <v>288061224</v>
-      </c>
-      <c r="AI119" s="13">
         <v>386400000</v>
+      </c>
+      <c r="AH119" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI119" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ119" s="13" t="s">
         <v>58</v>

--- a/database/industries/urea/khorasan/product/monthly_seprated.xlsx
+++ b/database/industries/urea/khorasan/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\khorasan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F3319D-DFEE-4521-99C0-C141237C822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDD12F0-E0E0-488B-A56E-AE166C9C3B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="98">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>خراسان-پتروشیمی خراسان</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -796,12 +796,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -856,7 +856,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1025,7 +1025,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1194,7 +1194,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1406,7 +1406,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1522,107 +1522,107 @@
       <c r="U11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
+      <c r="V11" s="11">
+        <v>15691</v>
+      </c>
+      <c r="W11" s="11">
+        <v>32210</v>
       </c>
       <c r="X11" s="11">
-        <v>15691</v>
+        <v>53078</v>
       </c>
       <c r="Y11" s="11">
-        <v>32210</v>
+        <v>53170</v>
       </c>
       <c r="Z11" s="11">
-        <v>53078</v>
+        <v>51384</v>
       </c>
       <c r="AA11" s="11">
-        <v>53170</v>
+        <v>51372</v>
       </c>
       <c r="AB11" s="11">
-        <v>51384</v>
+        <v>50473</v>
       </c>
       <c r="AC11" s="11">
-        <v>51372</v>
+        <v>27459</v>
       </c>
       <c r="AD11" s="11">
-        <v>50473</v>
+        <v>29484</v>
       </c>
       <c r="AE11" s="11">
-        <v>27459</v>
+        <v>51095</v>
       </c>
       <c r="AF11" s="11">
-        <v>29484</v>
+        <v>53131</v>
       </c>
       <c r="AG11" s="11">
-        <v>51095</v>
+        <v>53107</v>
       </c>
       <c r="AH11" s="11">
-        <v>53131</v>
+        <v>53127</v>
       </c>
       <c r="AI11" s="11">
-        <v>53107</v>
+        <v>53044</v>
       </c>
       <c r="AJ11" s="11">
-        <v>53127</v>
+        <v>53080</v>
       </c>
       <c r="AK11" s="11">
-        <v>53044</v>
+        <v>49666</v>
       </c>
       <c r="AL11" s="11">
-        <v>53080</v>
+        <v>51404</v>
       </c>
       <c r="AM11" s="11">
-        <v>49666</v>
+        <v>51366</v>
       </c>
       <c r="AN11" s="11">
-        <v>51404</v>
+        <v>51348</v>
       </c>
       <c r="AO11" s="11">
-        <v>51366</v>
+        <v>45940</v>
       </c>
       <c r="AP11" s="11">
-        <v>51348</v>
+        <v>5880</v>
       </c>
       <c r="AQ11" s="11">
-        <v>45940</v>
+        <v>47514</v>
       </c>
       <c r="AR11" s="11">
-        <v>5880</v>
+        <v>52878</v>
       </c>
       <c r="AS11" s="11">
-        <v>47514</v>
+        <v>52908</v>
       </c>
       <c r="AT11" s="11">
-        <v>52878</v>
+        <v>52744</v>
       </c>
       <c r="AU11" s="11">
-        <v>52908</v>
+        <v>52863</v>
       </c>
       <c r="AV11" s="11">
-        <v>52744</v>
+        <v>52876</v>
       </c>
       <c r="AW11" s="11">
-        <v>52863</v>
+        <v>52970</v>
       </c>
       <c r="AX11" s="11">
-        <v>52876</v>
+        <v>49925</v>
       </c>
       <c r="AY11" s="11">
-        <v>52970</v>
+        <v>50864</v>
       </c>
       <c r="AZ11" s="11">
-        <v>49925</v>
+        <v>43382</v>
       </c>
       <c r="BA11" s="11">
-        <v>50864</v>
+        <v>20595</v>
       </c>
       <c r="BB11" s="11">
-        <v>43382</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1681,80 +1681,80 @@
       <c r="U12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
+      <c r="V12" s="13">
+        <v>8460</v>
+      </c>
+      <c r="W12" s="13">
+        <v>19051</v>
       </c>
       <c r="X12" s="13">
-        <v>8460</v>
+        <v>31516</v>
       </c>
       <c r="Y12" s="13">
-        <v>19051</v>
+        <v>31366</v>
       </c>
       <c r="Z12" s="13">
-        <v>31516</v>
+        <v>29980</v>
       </c>
       <c r="AA12" s="13">
-        <v>31366</v>
+        <v>30070</v>
       </c>
       <c r="AB12" s="13">
-        <v>29980</v>
+        <v>29493</v>
       </c>
       <c r="AC12" s="13">
-        <v>30070</v>
+        <v>14118</v>
       </c>
       <c r="AD12" s="13">
-        <v>29493</v>
+        <v>12740</v>
       </c>
       <c r="AE12" s="13">
-        <v>14118</v>
+        <v>28960</v>
       </c>
       <c r="AF12" s="13">
-        <v>12740</v>
+        <v>31008</v>
       </c>
       <c r="AG12" s="13">
-        <v>28960</v>
+        <v>31043</v>
       </c>
       <c r="AH12" s="13">
-        <v>31008</v>
+        <v>30170</v>
       </c>
       <c r="AI12" s="13">
-        <v>31043</v>
+        <v>31002</v>
       </c>
       <c r="AJ12" s="13">
-        <v>30170</v>
+        <v>30993</v>
       </c>
       <c r="AK12" s="13">
-        <v>31002</v>
+        <v>30938</v>
       </c>
       <c r="AL12" s="13">
-        <v>30993</v>
+        <v>30000</v>
       </c>
       <c r="AM12" s="13">
-        <v>30938</v>
+        <v>30000</v>
       </c>
       <c r="AN12" s="13">
         <v>30000</v>
       </c>
       <c r="AO12" s="13">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="AP12" s="13">
-        <v>30000</v>
+        <v>2807</v>
       </c>
       <c r="AQ12" s="13">
-        <v>27000</v>
+        <v>27684</v>
       </c>
       <c r="AR12" s="13">
-        <v>2807</v>
+        <v>31005</v>
       </c>
       <c r="AS12" s="13">
-        <v>27684</v>
+        <v>31000</v>
       </c>
       <c r="AT12" s="13">
-        <v>31005</v>
+        <v>31000</v>
       </c>
       <c r="AU12" s="13">
         <v>31000</v>
@@ -1763,25 +1763,25 @@
         <v>31000</v>
       </c>
       <c r="AW12" s="13">
-        <v>31000</v>
+        <v>31040</v>
       </c>
       <c r="AX12" s="13">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="AY12" s="13">
-        <v>31040</v>
+        <v>30000</v>
       </c>
       <c r="AZ12" s="13">
-        <v>30000</v>
+        <v>26796</v>
       </c>
       <c r="BA12" s="13">
-        <v>30000</v>
+        <v>12846</v>
       </c>
       <c r="BB12" s="13">
-        <v>26796</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1840,11 +1840,11 @@
       <c r="U13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
+      <c r="V13" s="11">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <v>0</v>
       </c>
       <c r="X13" s="11">
         <v>0</v>
@@ -1873,11 +1873,11 @@
       <c r="AF13" s="11">
         <v>0</v>
       </c>
-      <c r="AG13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>0</v>
+      <c r="AG13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI13" s="11" t="s">
         <v>58</v>
@@ -1906,11 +1906,11 @@
       <c r="AQ13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS13" s="11" t="s">
-        <v>58</v>
+      <c r="AR13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>0</v>
       </c>
       <c r="AT13" s="11">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1999,107 +1999,107 @@
       <c r="U14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
+      <c r="V14" s="13">
+        <v>589</v>
+      </c>
+      <c r="W14" s="13">
+        <v>1026</v>
       </c>
       <c r="X14" s="13">
-        <v>589</v>
+        <v>1858</v>
       </c>
       <c r="Y14" s="13">
-        <v>1026</v>
+        <v>1879</v>
       </c>
       <c r="Z14" s="13">
-        <v>1858</v>
+        <v>1818</v>
       </c>
       <c r="AA14" s="13">
+        <v>1818</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>1808</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>951</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>981</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>1804</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>1881</v>
+      </c>
+      <c r="AG14" s="13">
         <v>1879</v>
       </c>
-      <c r="AB14" s="13">
-        <v>1818</v>
-      </c>
-      <c r="AC14" s="13">
-        <v>1818</v>
-      </c>
-      <c r="AD14" s="13">
-        <v>1808</v>
-      </c>
-      <c r="AE14" s="13">
-        <v>951</v>
-      </c>
-      <c r="AF14" s="13">
-        <v>981</v>
-      </c>
-      <c r="AG14" s="13">
-        <v>1804</v>
-      </c>
       <c r="AH14" s="13">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="AI14" s="13">
         <v>1879</v>
       </c>
       <c r="AJ14" s="13">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="AK14" s="13">
-        <v>1879</v>
+        <v>1803</v>
       </c>
       <c r="AL14" s="13">
-        <v>1879</v>
+        <v>1818</v>
       </c>
       <c r="AM14" s="13">
-        <v>1803</v>
+        <v>1818</v>
       </c>
       <c r="AN14" s="13">
         <v>1818</v>
       </c>
       <c r="AO14" s="13">
-        <v>1818</v>
+        <v>1576</v>
       </c>
       <c r="AP14" s="13">
-        <v>1818</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1576</v>
+        <v>1434</v>
       </c>
       <c r="AR14" s="13">
-        <v>0</v>
+        <v>1879</v>
       </c>
       <c r="AS14" s="13">
-        <v>1434</v>
+        <v>1879</v>
       </c>
       <c r="AT14" s="13">
-        <v>1879</v>
+        <v>1697</v>
       </c>
       <c r="AU14" s="13">
         <v>1879</v>
       </c>
       <c r="AV14" s="13">
-        <v>1697</v>
+        <v>1879</v>
       </c>
       <c r="AW14" s="13">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="AX14" s="13">
-        <v>1879</v>
+        <v>787</v>
       </c>
       <c r="AY14" s="13">
-        <v>1880</v>
+        <v>1818</v>
       </c>
       <c r="AZ14" s="13">
-        <v>787</v>
+        <v>888</v>
       </c>
       <c r="BA14" s="13">
-        <v>1818</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="13">
-        <v>888</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2158,11 +2158,11 @@
       <c r="U15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
+      <c r="V15" s="11">
+        <v>0</v>
+      </c>
+      <c r="W15" s="11">
+        <v>0</v>
       </c>
       <c r="X15" s="11">
         <v>0</v>
@@ -2188,11 +2188,11 @@
       <c r="AE15" s="11">
         <v>0</v>
       </c>
-      <c r="AF15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>0</v>
+      <c r="AF15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH15" s="11" t="s">
         <v>58</v>
@@ -2258,7 +2258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2383,11 +2383,11 @@
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS16" s="13" t="s">
-        <v>58</v>
+      <c r="AR16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>0</v>
       </c>
       <c r="AT16" s="13">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2476,107 +2476,107 @@
       <c r="U17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
+      <c r="V17" s="11">
+        <v>7920</v>
+      </c>
+      <c r="W17" s="11">
+        <v>16402</v>
       </c>
       <c r="X17" s="11">
-        <v>7920</v>
+        <v>27179</v>
       </c>
       <c r="Y17" s="11">
-        <v>16402</v>
+        <v>27207</v>
       </c>
       <c r="Z17" s="11">
-        <v>27179</v>
+        <v>26204</v>
       </c>
       <c r="AA17" s="11">
-        <v>27207</v>
+        <v>26181</v>
       </c>
       <c r="AB17" s="11">
-        <v>26204</v>
+        <v>25679</v>
       </c>
       <c r="AC17" s="11">
-        <v>26181</v>
+        <v>13270</v>
       </c>
       <c r="AD17" s="11">
-        <v>25679</v>
+        <v>14863</v>
       </c>
       <c r="AE17" s="11">
-        <v>13270</v>
+        <v>25947</v>
       </c>
       <c r="AF17" s="11">
-        <v>14863</v>
+        <v>27097</v>
       </c>
       <c r="AG17" s="11">
-        <v>25947</v>
+        <v>27075</v>
       </c>
       <c r="AH17" s="11">
-        <v>27097</v>
+        <v>27096</v>
       </c>
       <c r="AI17" s="11">
-        <v>27075</v>
+        <v>27199</v>
       </c>
       <c r="AJ17" s="11">
-        <v>27096</v>
+        <v>27242</v>
       </c>
       <c r="AK17" s="11">
-        <v>27199</v>
+        <v>25376</v>
       </c>
       <c r="AL17" s="11">
-        <v>27242</v>
+        <v>26327</v>
       </c>
       <c r="AM17" s="11">
-        <v>25376</v>
+        <v>26286</v>
       </c>
       <c r="AN17" s="11">
-        <v>26327</v>
+        <v>26277</v>
       </c>
       <c r="AO17" s="11">
-        <v>26286</v>
+        <v>23636</v>
       </c>
       <c r="AP17" s="11">
-        <v>26277</v>
+        <v>3365</v>
       </c>
       <c r="AQ17" s="11">
-        <v>23636</v>
+        <v>24208</v>
       </c>
       <c r="AR17" s="11">
-        <v>3365</v>
+        <v>27054</v>
       </c>
       <c r="AS17" s="11">
-        <v>24208</v>
+        <v>27039</v>
       </c>
       <c r="AT17" s="11">
-        <v>27054</v>
+        <v>27040</v>
       </c>
       <c r="AU17" s="11">
-        <v>27039</v>
+        <v>26985</v>
       </c>
       <c r="AV17" s="11">
-        <v>27040</v>
+        <v>27032</v>
       </c>
       <c r="AW17" s="11">
-        <v>26985</v>
+        <v>27152</v>
       </c>
       <c r="AX17" s="11">
-        <v>27032</v>
+        <v>27000</v>
       </c>
       <c r="AY17" s="11">
-        <v>27152</v>
+        <v>26330</v>
       </c>
       <c r="AZ17" s="11">
-        <v>27000</v>
+        <v>23462</v>
       </c>
       <c r="BA17" s="11">
-        <v>26330</v>
+        <v>11923</v>
       </c>
       <c r="BB17" s="11">
-        <v>23462</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2635,107 +2635,107 @@
       <c r="U18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
+      <c r="V18" s="13">
+        <v>1800</v>
+      </c>
+      <c r="W18" s="13">
+        <v>3377</v>
       </c>
       <c r="X18" s="13">
-        <v>1800</v>
+        <v>5983</v>
       </c>
       <c r="Y18" s="13">
-        <v>3377</v>
+        <v>6033</v>
       </c>
       <c r="Z18" s="13">
-        <v>5983</v>
+        <v>5844</v>
       </c>
       <c r="AA18" s="13">
+        <v>5844</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>5739</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>2958</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>3220</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>5740</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>6076</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>6078</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>6087</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>5985</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>5980</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>5745</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>5820</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>5814</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>5822</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>5051</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>4566</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>6049</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>6043</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>5427</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>6002</v>
+      </c>
+      <c r="AV18" s="13">
         <v>6033</v>
       </c>
-      <c r="AB18" s="13">
-        <v>5844</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>5844</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>5739</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>2958</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>3220</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>5740</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>6076</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>6078</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>6087</v>
-      </c>
-      <c r="AK18" s="13">
-        <v>5985</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>5980</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>5745</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>5820</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>5814</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>5822</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>5051</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>4566</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>6049</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>6043</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>5427</v>
-      </c>
       <c r="AW18" s="13">
-        <v>6002</v>
+        <v>6066</v>
       </c>
       <c r="AX18" s="13">
-        <v>6033</v>
+        <v>2698</v>
       </c>
       <c r="AY18" s="13">
-        <v>6066</v>
+        <v>5862</v>
       </c>
       <c r="AZ18" s="13">
-        <v>2698</v>
+        <v>2897</v>
       </c>
       <c r="BA18" s="13">
-        <v>5862</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="13">
-        <v>2897</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2794,107 +2794,107 @@
       <c r="U19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
+      <c r="V19" s="11">
+        <v>512</v>
+      </c>
+      <c r="W19" s="11">
+        <v>857</v>
       </c>
       <c r="X19" s="11">
-        <v>512</v>
+        <v>1360</v>
       </c>
       <c r="Y19" s="11">
-        <v>857</v>
+        <v>1395</v>
       </c>
       <c r="Z19" s="11">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="AA19" s="11">
-        <v>1395</v>
+        <v>1367</v>
       </c>
       <c r="AB19" s="11">
-        <v>1356</v>
+        <v>1403</v>
       </c>
       <c r="AC19" s="11">
-        <v>1367</v>
+        <v>977</v>
       </c>
       <c r="AD19" s="11">
-        <v>1403</v>
+        <v>806</v>
       </c>
       <c r="AE19" s="11">
-        <v>977</v>
+        <v>1334</v>
       </c>
       <c r="AF19" s="11">
-        <v>806</v>
+        <v>1397</v>
       </c>
       <c r="AG19" s="11">
-        <v>1334</v>
+        <v>1412</v>
       </c>
       <c r="AH19" s="11">
-        <v>1397</v>
+        <v>1420</v>
       </c>
       <c r="AI19" s="11">
-        <v>1412</v>
+        <v>1346</v>
       </c>
       <c r="AJ19" s="11">
-        <v>1420</v>
+        <v>1332</v>
       </c>
       <c r="AK19" s="11">
-        <v>1346</v>
+        <v>1316</v>
       </c>
       <c r="AL19" s="11">
-        <v>1332</v>
+        <v>1289</v>
       </c>
       <c r="AM19" s="11">
-        <v>1316</v>
+        <v>1345</v>
       </c>
       <c r="AN19" s="11">
-        <v>1289</v>
+        <v>1355</v>
       </c>
       <c r="AO19" s="11">
-        <v>1345</v>
+        <v>1272</v>
       </c>
       <c r="AP19" s="11">
-        <v>1355</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="11">
-        <v>1272</v>
+        <v>1205</v>
       </c>
       <c r="AR19" s="11">
-        <v>0</v>
+        <v>1341</v>
       </c>
       <c r="AS19" s="11">
-        <v>1205</v>
+        <v>1350</v>
       </c>
       <c r="AT19" s="11">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="AU19" s="11">
+        <v>1366</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>1380</v>
+      </c>
+      <c r="AW19" s="11">
         <v>1350</v>
       </c>
-      <c r="AV19" s="11">
-        <v>1331</v>
-      </c>
-      <c r="AW19" s="11">
-        <v>1366</v>
-      </c>
       <c r="AX19" s="11">
-        <v>1380</v>
+        <v>762</v>
       </c>
       <c r="AY19" s="11">
-        <v>1350</v>
+        <v>1260</v>
       </c>
       <c r="AZ19" s="11">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="BA19" s="11">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="11">
-        <v>757</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2953,11 +2953,11 @@
       <c r="U20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W20" s="13" t="s">
-        <v>58</v>
+      <c r="V20" s="13">
+        <v>0</v>
+      </c>
+      <c r="W20" s="13">
+        <v>0</v>
       </c>
       <c r="X20" s="13">
         <v>0</v>
@@ -2986,11 +2986,11 @@
       <c r="AF20" s="13">
         <v>0</v>
       </c>
-      <c r="AG20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>0</v>
+      <c r="AG20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI20" s="13" t="s">
         <v>58</v>
@@ -3053,7 +3053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3112,11 +3112,11 @@
       <c r="U21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W21" s="11" t="s">
-        <v>58</v>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
       </c>
       <c r="X21" s="11">
         <v>0</v>
@@ -3145,11 +3145,11 @@
       <c r="AF21" s="11">
         <v>0</v>
       </c>
-      <c r="AG21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="11">
-        <v>0</v>
+      <c r="AG21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI21" s="11" t="s">
         <v>58</v>
@@ -3178,11 +3178,11 @@
       <c r="AQ21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS21" s="11" t="s">
-        <v>58</v>
+      <c r="AR21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="11">
+        <v>0</v>
       </c>
       <c r="AT21" s="11">
         <v>0</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -3271,11 +3271,11 @@
       <c r="U22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>58</v>
+      <c r="V22" s="13">
+        <v>0</v>
+      </c>
+      <c r="W22" s="13">
+        <v>0</v>
       </c>
       <c r="X22" s="13">
         <v>0</v>
@@ -3304,11 +3304,11 @@
       <c r="AF22" s="13">
         <v>0</v>
       </c>
-      <c r="AG22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="13">
-        <v>0</v>
+      <c r="AG22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI22" s="13" t="s">
         <v>58</v>
@@ -3371,7 +3371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>70</v>
       </c>
@@ -3429,106 +3429,106 @@
         <v>0</v>
       </c>
       <c r="V23" s="15">
-        <v>0</v>
+        <v>34972</v>
       </c>
       <c r="W23" s="15">
-        <v>0</v>
+        <v>72923</v>
       </c>
       <c r="X23" s="15">
-        <v>34972</v>
+        <v>120974</v>
       </c>
       <c r="Y23" s="15">
-        <v>72923</v>
+        <v>121050</v>
       </c>
       <c r="Z23" s="15">
-        <v>120974</v>
+        <v>116586</v>
       </c>
       <c r="AA23" s="15">
-        <v>121050</v>
+        <v>116652</v>
       </c>
       <c r="AB23" s="15">
-        <v>116586</v>
+        <v>114595</v>
       </c>
       <c r="AC23" s="15">
-        <v>116652</v>
+        <v>59733</v>
       </c>
       <c r="AD23" s="15">
-        <v>114595</v>
+        <v>62094</v>
       </c>
       <c r="AE23" s="15">
-        <v>59733</v>
+        <v>114880</v>
       </c>
       <c r="AF23" s="15">
-        <v>62094</v>
+        <v>120590</v>
       </c>
       <c r="AG23" s="15">
-        <v>114880</v>
+        <v>120594</v>
       </c>
       <c r="AH23" s="15">
-        <v>120590</v>
+        <v>119778</v>
       </c>
       <c r="AI23" s="15">
-        <v>120594</v>
+        <v>120455</v>
       </c>
       <c r="AJ23" s="15">
-        <v>119778</v>
+        <v>120506</v>
       </c>
       <c r="AK23" s="15">
-        <v>120455</v>
+        <v>114844</v>
       </c>
       <c r="AL23" s="15">
-        <v>120506</v>
+        <v>116658</v>
       </c>
       <c r="AM23" s="15">
-        <v>114844</v>
+        <v>116629</v>
       </c>
       <c r="AN23" s="15">
-        <v>116658</v>
+        <v>116620</v>
       </c>
       <c r="AO23" s="15">
-        <v>116629</v>
+        <v>104475</v>
       </c>
       <c r="AP23" s="15">
-        <v>116620</v>
+        <v>12052</v>
       </c>
       <c r="AQ23" s="15">
-        <v>104475</v>
+        <v>106611</v>
       </c>
       <c r="AR23" s="15">
-        <v>12052</v>
+        <v>120206</v>
       </c>
       <c r="AS23" s="15">
-        <v>106611</v>
+        <v>120219</v>
       </c>
       <c r="AT23" s="15">
-        <v>120206</v>
+        <v>119239</v>
       </c>
       <c r="AU23" s="15">
-        <v>120219</v>
+        <v>120095</v>
       </c>
       <c r="AV23" s="15">
-        <v>119239</v>
+        <v>120200</v>
       </c>
       <c r="AW23" s="15">
-        <v>120095</v>
+        <v>120458</v>
       </c>
       <c r="AX23" s="15">
-        <v>120200</v>
+        <v>111172</v>
       </c>
       <c r="AY23" s="15">
-        <v>120458</v>
+        <v>116134</v>
       </c>
       <c r="AZ23" s="15">
-        <v>111172</v>
+        <v>98182</v>
       </c>
       <c r="BA23" s="15">
-        <v>116134</v>
+        <v>45364</v>
       </c>
       <c r="BB23" s="15">
-        <v>98182</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>71</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>56</v>
       </c>
@@ -3674,14 +3674,14 @@
       <c r="AE25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF25" s="11" t="s">
-        <v>58</v>
+      <c r="AF25" s="11">
+        <v>0</v>
       </c>
       <c r="AG25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="11">
-        <v>0</v>
+      <c r="AH25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>58</v>
@@ -3710,11 +3710,11 @@
       <c r="AQ25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS25" s="11" t="s">
-        <v>58</v>
+      <c r="AR25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="11">
+        <v>0</v>
       </c>
       <c r="AT25" s="11">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>59</v>
       </c>
@@ -3833,14 +3833,14 @@
       <c r="AE26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF26" s="13" t="s">
-        <v>58</v>
+      <c r="AF26" s="13">
+        <v>0</v>
       </c>
       <c r="AG26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH26" s="13">
-        <v>0</v>
+      <c r="AH26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI26" s="13" t="s">
         <v>58</v>
@@ -3869,11 +3869,11 @@
       <c r="AQ26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS26" s="13" t="s">
-        <v>58</v>
+      <c r="AR26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="13">
+        <v>0</v>
       </c>
       <c r="AT26" s="13">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>72</v>
       </c>
@@ -3962,11 +3962,11 @@
       <c r="U27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W27" s="11" t="s">
-        <v>58</v>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>0</v>
       </c>
       <c r="X27" s="11">
         <v>0</v>
@@ -3992,11 +3992,11 @@
       <c r="AE27" s="11">
         <v>0</v>
       </c>
-      <c r="AF27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="11">
-        <v>0</v>
+      <c r="AF27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH27" s="11" t="s">
         <v>58</v>
@@ -4062,7 +4062,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>61</v>
       </c>
@@ -4151,14 +4151,14 @@
       <c r="AE28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF28" s="13" t="s">
-        <v>58</v>
+      <c r="AF28" s="13">
+        <v>0</v>
       </c>
       <c r="AG28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH28" s="13">
-        <v>0</v>
+      <c r="AH28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI28" s="13" t="s">
         <v>58</v>
@@ -4187,11 +4187,11 @@
       <c r="AQ28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS28" s="13" t="s">
-        <v>58</v>
+      <c r="AR28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="13">
+        <v>0</v>
       </c>
       <c r="AT28" s="13">
         <v>0</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>73</v>
       </c>
@@ -4280,11 +4280,11 @@
       <c r="U29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W29" s="11" t="s">
-        <v>58</v>
+      <c r="V29" s="11">
+        <v>0</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0</v>
       </c>
       <c r="X29" s="11">
         <v>0</v>
@@ -4310,11 +4310,11 @@
       <c r="AE29" s="11">
         <v>0</v>
       </c>
-      <c r="AF29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="11">
-        <v>0</v>
+      <c r="AF29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH29" s="11" t="s">
         <v>58</v>
@@ -4380,7 +4380,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>74</v>
       </c>
@@ -4439,11 +4439,11 @@
       <c r="U30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W30" s="13" t="s">
-        <v>58</v>
+      <c r="V30" s="13">
+        <v>0</v>
+      </c>
+      <c r="W30" s="13">
+        <v>0</v>
       </c>
       <c r="X30" s="13">
         <v>0</v>
@@ -4469,11 +4469,11 @@
       <c r="AE30" s="13">
         <v>0</v>
       </c>
-      <c r="AF30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="13">
-        <v>0</v>
+      <c r="AF30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH30" s="13" t="s">
         <v>58</v>
@@ -4539,7 +4539,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>75</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>76</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="BA32" s="17"/>
       <c r="BB32" s="17"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>77</v>
       </c>
@@ -4810,11 +4810,11 @@
       <c r="U33" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="V33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W33" s="15" t="s">
-        <v>58</v>
+      <c r="V33" s="15">
+        <v>0</v>
+      </c>
+      <c r="W33" s="15">
+        <v>0</v>
       </c>
       <c r="X33" s="15">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>78</v>
       </c>
@@ -4968,106 +4968,106 @@
         <v>0</v>
       </c>
       <c r="V34" s="19">
-        <v>0</v>
+        <v>34972</v>
       </c>
       <c r="W34" s="19">
-        <v>0</v>
+        <v>72923</v>
       </c>
       <c r="X34" s="19">
-        <v>34972</v>
+        <v>120974</v>
       </c>
       <c r="Y34" s="19">
-        <v>72923</v>
+        <v>121050</v>
       </c>
       <c r="Z34" s="19">
-        <v>120974</v>
+        <v>116586</v>
       </c>
       <c r="AA34" s="19">
-        <v>121050</v>
+        <v>116652</v>
       </c>
       <c r="AB34" s="19">
-        <v>116586</v>
+        <v>114595</v>
       </c>
       <c r="AC34" s="19">
-        <v>116652</v>
+        <v>59733</v>
       </c>
       <c r="AD34" s="19">
-        <v>114595</v>
+        <v>62094</v>
       </c>
       <c r="AE34" s="19">
-        <v>59733</v>
+        <v>114880</v>
       </c>
       <c r="AF34" s="19">
-        <v>62094</v>
+        <v>120590</v>
       </c>
       <c r="AG34" s="19">
-        <v>114880</v>
+        <v>120594</v>
       </c>
       <c r="AH34" s="19">
-        <v>120590</v>
+        <v>119778</v>
       </c>
       <c r="AI34" s="19">
-        <v>120594</v>
+        <v>120455</v>
       </c>
       <c r="AJ34" s="19">
-        <v>119778</v>
+        <v>120506</v>
       </c>
       <c r="AK34" s="19">
-        <v>120455</v>
+        <v>114844</v>
       </c>
       <c r="AL34" s="19">
-        <v>120506</v>
+        <v>116658</v>
       </c>
       <c r="AM34" s="19">
-        <v>114844</v>
+        <v>116629</v>
       </c>
       <c r="AN34" s="19">
-        <v>116658</v>
+        <v>116620</v>
       </c>
       <c r="AO34" s="19">
-        <v>116629</v>
+        <v>104475</v>
       </c>
       <c r="AP34" s="19">
-        <v>116620</v>
+        <v>12052</v>
       </c>
       <c r="AQ34" s="19">
-        <v>104475</v>
+        <v>106611</v>
       </c>
       <c r="AR34" s="19">
-        <v>12052</v>
+        <v>120206</v>
       </c>
       <c r="AS34" s="19">
-        <v>106611</v>
+        <v>120219</v>
       </c>
       <c r="AT34" s="19">
-        <v>120206</v>
+        <v>119239</v>
       </c>
       <c r="AU34" s="19">
-        <v>120219</v>
+        <v>120095</v>
       </c>
       <c r="AV34" s="19">
-        <v>119239</v>
+        <v>120200</v>
       </c>
       <c r="AW34" s="19">
-        <v>120095</v>
+        <v>120458</v>
       </c>
       <c r="AX34" s="19">
-        <v>120200</v>
+        <v>111172</v>
       </c>
       <c r="AY34" s="19">
-        <v>120458</v>
+        <v>116134</v>
       </c>
       <c r="AZ34" s="19">
-        <v>111172</v>
+        <v>98182</v>
       </c>
       <c r="BA34" s="19">
-        <v>116134</v>
+        <v>45364</v>
       </c>
       <c r="BB34" s="19">
-        <v>98182</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5122,7 +5122,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5177,7 +5177,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5232,7 +5232,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>79</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5444,7 +5444,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>80</v>
       </c>
@@ -5501,7 +5501,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>56</v>
       </c>
@@ -5560,11 +5560,11 @@
       <c r="U41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W41" s="11" t="s">
-        <v>58</v>
+      <c r="V41" s="11">
+        <v>0</v>
+      </c>
+      <c r="W41" s="11">
+        <v>0</v>
       </c>
       <c r="X41" s="11">
         <v>0</v>
@@ -5593,11 +5593,11 @@
       <c r="AF41" s="11">
         <v>0</v>
       </c>
-      <c r="AG41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="11">
-        <v>0</v>
+      <c r="AG41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI41" s="11" t="s">
         <v>58</v>
@@ -5626,11 +5626,11 @@
       <c r="AQ41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS41" s="11" t="s">
-        <v>58</v>
+      <c r="AR41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>0</v>
       </c>
       <c r="AT41" s="11">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>59</v>
       </c>
@@ -5719,11 +5719,11 @@
       <c r="U42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W42" s="13" t="s">
-        <v>58</v>
+      <c r="V42" s="13">
+        <v>0</v>
+      </c>
+      <c r="W42" s="13">
+        <v>0</v>
       </c>
       <c r="X42" s="13">
         <v>0</v>
@@ -5752,11 +5752,11 @@
       <c r="AF42" s="13">
         <v>0</v>
       </c>
-      <c r="AG42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="13">
-        <v>0</v>
+      <c r="AG42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI42" s="13" t="s">
         <v>58</v>
@@ -5785,41 +5785,41 @@
       <c r="AQ42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS42" s="13" t="s">
-        <v>58</v>
+      <c r="AR42" s="13">
+        <v>1330</v>
+      </c>
+      <c r="AS42" s="13">
+        <v>999</v>
       </c>
       <c r="AT42" s="13">
-        <v>1330</v>
+        <v>913</v>
       </c>
       <c r="AU42" s="13">
-        <v>999</v>
+        <v>712</v>
       </c>
       <c r="AV42" s="13">
-        <v>913</v>
+        <v>766</v>
       </c>
       <c r="AW42" s="13">
-        <v>712</v>
+        <v>940</v>
       </c>
       <c r="AX42" s="13">
-        <v>766</v>
+        <v>1359</v>
       </c>
       <c r="AY42" s="13">
-        <v>940</v>
+        <v>1631</v>
       </c>
       <c r="AZ42" s="13">
-        <v>1359</v>
+        <v>942</v>
       </c>
       <c r="BA42" s="13">
-        <v>1631</v>
+        <v>771</v>
       </c>
       <c r="BB42" s="13">
-        <v>942</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>60</v>
       </c>
@@ -5878,107 +5878,107 @@
       <c r="U43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W43" s="11" t="s">
-        <v>58</v>
+      <c r="V43" s="11">
+        <v>827</v>
+      </c>
+      <c r="W43" s="11">
+        <v>1291</v>
       </c>
       <c r="X43" s="11">
-        <v>827</v>
+        <v>4250</v>
       </c>
       <c r="Y43" s="11">
-        <v>1291</v>
+        <v>3394</v>
       </c>
       <c r="Z43" s="11">
-        <v>4250</v>
+        <v>1609</v>
       </c>
       <c r="AA43" s="11">
-        <v>3394</v>
+        <v>3248</v>
       </c>
       <c r="AB43" s="11">
-        <v>1609</v>
+        <v>2191</v>
       </c>
       <c r="AC43" s="11">
-        <v>3248</v>
+        <v>1030</v>
       </c>
       <c r="AD43" s="11">
-        <v>2191</v>
+        <v>591</v>
       </c>
       <c r="AE43" s="11">
-        <v>1030</v>
+        <v>2746</v>
       </c>
       <c r="AF43" s="11">
-        <v>591</v>
+        <v>2603</v>
       </c>
       <c r="AG43" s="11">
-        <v>2746</v>
+        <v>1579</v>
       </c>
       <c r="AH43" s="11">
-        <v>2603</v>
+        <v>913</v>
       </c>
       <c r="AI43" s="11">
-        <v>1579</v>
+        <v>230</v>
       </c>
       <c r="AJ43" s="11">
-        <v>913</v>
+        <v>1589</v>
       </c>
       <c r="AK43" s="11">
-        <v>230</v>
+        <v>1755</v>
       </c>
       <c r="AL43" s="11">
-        <v>1589</v>
+        <v>385</v>
       </c>
       <c r="AM43" s="11">
-        <v>1755</v>
+        <v>1940</v>
       </c>
       <c r="AN43" s="11">
-        <v>385</v>
+        <v>955</v>
       </c>
       <c r="AO43" s="11">
-        <v>1940</v>
+        <v>430</v>
       </c>
       <c r="AP43" s="11">
-        <v>955</v>
+        <v>265</v>
       </c>
       <c r="AQ43" s="11">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="AR43" s="11">
-        <v>265</v>
+        <v>910</v>
       </c>
       <c r="AS43" s="11">
-        <v>474</v>
+        <v>553</v>
       </c>
       <c r="AT43" s="11">
-        <v>910</v>
+        <v>296</v>
       </c>
       <c r="AU43" s="11">
-        <v>553</v>
+        <v>2975</v>
       </c>
       <c r="AV43" s="11">
-        <v>296</v>
+        <v>920</v>
       </c>
       <c r="AW43" s="11">
-        <v>2975</v>
+        <v>110</v>
       </c>
       <c r="AX43" s="11">
-        <v>920</v>
+        <v>1066</v>
       </c>
       <c r="AY43" s="11">
-        <v>110</v>
+        <v>594</v>
       </c>
       <c r="AZ43" s="11">
-        <v>1066</v>
+        <v>4242</v>
       </c>
       <c r="BA43" s="11">
-        <v>594</v>
+        <v>1927</v>
       </c>
       <c r="BB43" s="11">
-        <v>4242</v>
+        <v>911</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>61</v>
       </c>
@@ -6037,11 +6037,11 @@
       <c r="U44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="13" t="s">
-        <v>58</v>
+      <c r="V44" s="13">
+        <v>0</v>
+      </c>
+      <c r="W44" s="13">
+        <v>0</v>
       </c>
       <c r="X44" s="13">
         <v>0</v>
@@ -6070,11 +6070,11 @@
       <c r="AF44" s="13">
         <v>0</v>
       </c>
-      <c r="AG44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="13">
-        <v>0</v>
+      <c r="AG44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI44" s="13" t="s">
         <v>58</v>
@@ -6103,11 +6103,11 @@
       <c r="AQ44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS44" s="13" t="s">
-        <v>58</v>
+      <c r="AR44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="13">
+        <v>0</v>
       </c>
       <c r="AT44" s="13">
         <v>0</v>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>62</v>
       </c>
@@ -6196,11 +6196,11 @@
       <c r="U45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
+      <c r="V45" s="11">
+        <v>0</v>
+      </c>
+      <c r="W45" s="11">
+        <v>0</v>
       </c>
       <c r="X45" s="11">
         <v>0</v>
@@ -6226,11 +6226,11 @@
       <c r="AE45" s="11">
         <v>0</v>
       </c>
-      <c r="AF45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="11">
-        <v>0</v>
+      <c r="AF45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH45" s="11" t="s">
         <v>58</v>
@@ -6296,7 +6296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>63</v>
       </c>
@@ -6421,41 +6421,41 @@
       <c r="AQ46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS46" s="13" t="s">
-        <v>58</v>
+      <c r="AR46" s="13">
+        <v>703</v>
+      </c>
+      <c r="AS46" s="13">
+        <v>1355</v>
       </c>
       <c r="AT46" s="13">
-        <v>703</v>
+        <v>1574</v>
       </c>
       <c r="AU46" s="13">
-        <v>1355</v>
+        <v>1507</v>
       </c>
       <c r="AV46" s="13">
-        <v>1574</v>
+        <v>1682</v>
       </c>
       <c r="AW46" s="13">
-        <v>1507</v>
+        <v>1252</v>
       </c>
       <c r="AX46" s="13">
-        <v>1682</v>
+        <v>1157</v>
       </c>
       <c r="AY46" s="13">
-        <v>1252</v>
+        <v>1499</v>
       </c>
       <c r="AZ46" s="13">
-        <v>1157</v>
+        <v>1406</v>
       </c>
       <c r="BA46" s="13">
-        <v>1499</v>
+        <v>240</v>
       </c>
       <c r="BB46" s="13">
-        <v>1406</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>64</v>
       </c>
@@ -6514,11 +6514,11 @@
       <c r="U47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W47" s="11" t="s">
-        <v>58</v>
+      <c r="V47" s="11">
+        <v>0</v>
+      </c>
+      <c r="W47" s="11">
+        <v>0</v>
       </c>
       <c r="X47" s="11">
         <v>0</v>
@@ -6547,11 +6547,11 @@
       <c r="AF47" s="11">
         <v>0</v>
       </c>
-      <c r="AG47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="11">
-        <v>0</v>
+      <c r="AG47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI47" s="11" t="s">
         <v>58</v>
@@ -6580,11 +6580,11 @@
       <c r="AQ47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS47" s="11" t="s">
-        <v>58</v>
+      <c r="AR47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="11">
+        <v>0</v>
       </c>
       <c r="AT47" s="11">
         <v>0</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>65</v>
       </c>
@@ -6673,11 +6673,11 @@
       <c r="U48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W48" s="13" t="s">
-        <v>58</v>
+      <c r="V48" s="13">
+        <v>0</v>
+      </c>
+      <c r="W48" s="13">
+        <v>0</v>
       </c>
       <c r="X48" s="13">
         <v>0</v>
@@ -6706,11 +6706,11 @@
       <c r="AF48" s="13">
         <v>0</v>
       </c>
-      <c r="AG48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="13">
-        <v>0</v>
+      <c r="AG48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI48" s="13" t="s">
         <v>58</v>
@@ -6739,11 +6739,11 @@
       <c r="AQ48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS48" s="13" t="s">
-        <v>58</v>
+      <c r="AR48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="13">
+        <v>0</v>
       </c>
       <c r="AT48" s="13">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>66</v>
       </c>
@@ -6832,11 +6832,11 @@
       <c r="U49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W49" s="11" t="s">
-        <v>58</v>
+      <c r="V49" s="11">
+        <v>0</v>
+      </c>
+      <c r="W49" s="11">
+        <v>0</v>
       </c>
       <c r="X49" s="11">
         <v>0</v>
@@ -6865,11 +6865,11 @@
       <c r="AF49" s="11">
         <v>0</v>
       </c>
-      <c r="AG49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="11">
-        <v>0</v>
+      <c r="AG49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI49" s="11" t="s">
         <v>58</v>
@@ -6898,11 +6898,11 @@
       <c r="AQ49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS49" s="11" t="s">
-        <v>58</v>
+      <c r="AR49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="11">
+        <v>0</v>
       </c>
       <c r="AT49" s="11">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>67</v>
       </c>
@@ -6991,78 +6991,78 @@
       <c r="U50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W50" s="13" t="s">
-        <v>58</v>
+      <c r="V50" s="13">
+        <v>0</v>
+      </c>
+      <c r="W50" s="13">
+        <v>88</v>
       </c>
       <c r="X50" s="13">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="Y50" s="13">
-        <v>88</v>
+        <v>1516</v>
       </c>
       <c r="Z50" s="13">
-        <v>571</v>
+        <v>1949</v>
       </c>
       <c r="AA50" s="13">
-        <v>1516</v>
+        <v>1826</v>
       </c>
       <c r="AB50" s="13">
-        <v>1949</v>
+        <v>1687</v>
       </c>
       <c r="AC50" s="13">
-        <v>1826</v>
+        <v>824</v>
       </c>
       <c r="AD50" s="13">
-        <v>1687</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="13">
-        <v>824</v>
+        <v>732</v>
       </c>
       <c r="AF50" s="13">
-        <v>0</v>
+        <v>1942</v>
       </c>
       <c r="AG50" s="13">
-        <v>732</v>
+        <v>1921</v>
       </c>
       <c r="AH50" s="13">
-        <v>1942</v>
+        <v>1491</v>
       </c>
       <c r="AI50" s="13">
-        <v>1921</v>
+        <v>1444</v>
       </c>
       <c r="AJ50" s="13">
-        <v>1491</v>
+        <v>1321</v>
       </c>
       <c r="AK50" s="13">
-        <v>1444</v>
+        <v>1181</v>
       </c>
       <c r="AL50" s="13">
-        <v>1321</v>
+        <v>1172</v>
       </c>
       <c r="AM50" s="13">
-        <v>1181</v>
+        <v>1918</v>
       </c>
       <c r="AN50" s="13">
-        <v>1172</v>
+        <v>2464</v>
       </c>
       <c r="AO50" s="13">
-        <v>1918</v>
+        <v>2664</v>
       </c>
       <c r="AP50" s="13">
-        <v>2464</v>
+        <v>2048</v>
       </c>
       <c r="AQ50" s="13">
-        <v>2664</v>
-      </c>
-      <c r="AR50" s="13">
-        <v>2048</v>
-      </c>
-      <c r="AS50" s="13">
         <v>1549</v>
       </c>
+      <c r="AR50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS50" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT50" s="13" t="s">
         <v>58</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>68</v>
       </c>
@@ -7150,107 +7150,107 @@
       <c r="U51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W51" s="11" t="s">
-        <v>58</v>
+      <c r="V51" s="11">
+        <v>6713</v>
+      </c>
+      <c r="W51" s="11">
+        <v>9897</v>
       </c>
       <c r="X51" s="11">
-        <v>6713</v>
+        <v>16176</v>
       </c>
       <c r="Y51" s="11">
-        <v>9897</v>
+        <v>8603</v>
       </c>
       <c r="Z51" s="11">
-        <v>16176</v>
+        <v>16034</v>
       </c>
       <c r="AA51" s="11">
-        <v>8603</v>
+        <v>14940</v>
       </c>
       <c r="AB51" s="11">
-        <v>16034</v>
+        <v>16641</v>
       </c>
       <c r="AC51" s="11">
-        <v>14940</v>
+        <v>8217</v>
       </c>
       <c r="AD51" s="11">
-        <v>16641</v>
+        <v>7790</v>
       </c>
       <c r="AE51" s="11">
-        <v>8217</v>
+        <v>20719</v>
       </c>
       <c r="AF51" s="11">
-        <v>7790</v>
+        <v>26222</v>
       </c>
       <c r="AG51" s="11">
-        <v>20719</v>
+        <v>23595</v>
       </c>
       <c r="AH51" s="11">
-        <v>26222</v>
+        <v>11048</v>
       </c>
       <c r="AI51" s="11">
-        <v>23595</v>
+        <v>16038</v>
       </c>
       <c r="AJ51" s="11">
-        <v>11048</v>
+        <v>11798</v>
       </c>
       <c r="AK51" s="11">
-        <v>16038</v>
+        <v>11582</v>
       </c>
       <c r="AL51" s="11">
-        <v>11798</v>
+        <v>15692</v>
       </c>
       <c r="AM51" s="11">
-        <v>11582</v>
+        <v>16688</v>
       </c>
       <c r="AN51" s="11">
-        <v>15692</v>
+        <v>19395</v>
       </c>
       <c r="AO51" s="11">
-        <v>16688</v>
+        <v>14541</v>
       </c>
       <c r="AP51" s="11">
-        <v>19395</v>
+        <v>10672</v>
       </c>
       <c r="AQ51" s="11">
-        <v>14541</v>
+        <v>9504</v>
       </c>
       <c r="AR51" s="11">
-        <v>10672</v>
+        <v>15303</v>
       </c>
       <c r="AS51" s="11">
-        <v>9504</v>
+        <v>15558</v>
       </c>
       <c r="AT51" s="11">
-        <v>15303</v>
+        <v>17980</v>
       </c>
       <c r="AU51" s="11">
-        <v>15558</v>
+        <v>10974</v>
       </c>
       <c r="AV51" s="11">
-        <v>17980</v>
+        <v>1813</v>
       </c>
       <c r="AW51" s="11">
-        <v>10974</v>
+        <v>14934</v>
       </c>
       <c r="AX51" s="11">
-        <v>1813</v>
+        <v>10860</v>
       </c>
       <c r="AY51" s="11">
-        <v>14934</v>
+        <v>14654</v>
       </c>
       <c r="AZ51" s="11">
-        <v>10860</v>
+        <v>9411</v>
       </c>
       <c r="BA51" s="11">
-        <v>14654</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="11">
-        <v>9411</v>
+        <v>4648</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>69</v>
       </c>
@@ -7309,78 +7309,78 @@
       <c r="U52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W52" s="13" t="s">
-        <v>58</v>
+      <c r="V52" s="13">
+        <v>1077</v>
+      </c>
+      <c r="W52" s="13">
+        <v>1032</v>
       </c>
       <c r="X52" s="13">
-        <v>1077</v>
+        <v>1405</v>
       </c>
       <c r="Y52" s="13">
-        <v>1032</v>
+        <v>1280</v>
       </c>
       <c r="Z52" s="13">
-        <v>1405</v>
+        <v>1189</v>
       </c>
       <c r="AA52" s="13">
-        <v>1280</v>
+        <v>1203</v>
       </c>
       <c r="AB52" s="13">
-        <v>1189</v>
+        <v>1061</v>
       </c>
       <c r="AC52" s="13">
-        <v>1203</v>
+        <v>760</v>
       </c>
       <c r="AD52" s="13">
-        <v>1061</v>
+        <v>543</v>
       </c>
       <c r="AE52" s="13">
-        <v>760</v>
+        <v>1552</v>
       </c>
       <c r="AF52" s="13">
-        <v>543</v>
+        <v>782</v>
       </c>
       <c r="AG52" s="13">
-        <v>1552</v>
+        <v>1245</v>
       </c>
       <c r="AH52" s="13">
-        <v>782</v>
+        <v>1074</v>
       </c>
       <c r="AI52" s="13">
-        <v>1245</v>
+        <v>1133</v>
       </c>
       <c r="AJ52" s="13">
-        <v>1074</v>
+        <v>687</v>
       </c>
       <c r="AK52" s="13">
-        <v>1133</v>
+        <v>1316</v>
       </c>
       <c r="AL52" s="13">
-        <v>687</v>
+        <v>1163</v>
       </c>
       <c r="AM52" s="13">
-        <v>1316</v>
+        <v>1194</v>
       </c>
       <c r="AN52" s="13">
-        <v>1163</v>
+        <v>1192</v>
       </c>
       <c r="AO52" s="13">
-        <v>1194</v>
+        <v>1371</v>
       </c>
       <c r="AP52" s="13">
-        <v>1192</v>
+        <v>748</v>
       </c>
       <c r="AQ52" s="13">
-        <v>1371</v>
-      </c>
-      <c r="AR52" s="13">
-        <v>748</v>
-      </c>
-      <c r="AS52" s="13">
         <v>788</v>
       </c>
+      <c r="AR52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS52" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT52" s="13" t="s">
         <v>58</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>81</v>
       </c>
@@ -7467,106 +7467,106 @@
         <v>0</v>
       </c>
       <c r="V53" s="15">
-        <v>0</v>
+        <v>8617</v>
       </c>
       <c r="W53" s="15">
-        <v>0</v>
+        <v>12308</v>
       </c>
       <c r="X53" s="15">
-        <v>8617</v>
+        <v>22402</v>
       </c>
       <c r="Y53" s="15">
-        <v>12308</v>
+        <v>14793</v>
       </c>
       <c r="Z53" s="15">
-        <v>22402</v>
+        <v>20781</v>
       </c>
       <c r="AA53" s="15">
-        <v>14793</v>
+        <v>21217</v>
       </c>
       <c r="AB53" s="15">
-        <v>20781</v>
+        <v>21580</v>
       </c>
       <c r="AC53" s="15">
-        <v>21217</v>
+        <v>10831</v>
       </c>
       <c r="AD53" s="15">
-        <v>21580</v>
+        <v>8924</v>
       </c>
       <c r="AE53" s="15">
-        <v>10831</v>
+        <v>25749</v>
       </c>
       <c r="AF53" s="15">
-        <v>8924</v>
+        <v>31549</v>
       </c>
       <c r="AG53" s="15">
-        <v>25749</v>
+        <v>28340</v>
       </c>
       <c r="AH53" s="15">
-        <v>31549</v>
+        <v>14526</v>
       </c>
       <c r="AI53" s="15">
-        <v>28340</v>
+        <v>18845</v>
       </c>
       <c r="AJ53" s="15">
-        <v>14526</v>
+        <v>15395</v>
       </c>
       <c r="AK53" s="15">
-        <v>18845</v>
+        <v>15834</v>
       </c>
       <c r="AL53" s="15">
-        <v>15395</v>
+        <v>18412</v>
       </c>
       <c r="AM53" s="15">
-        <v>15834</v>
+        <v>21740</v>
       </c>
       <c r="AN53" s="15">
-        <v>18412</v>
+        <v>24006</v>
       </c>
       <c r="AO53" s="15">
-        <v>21740</v>
+        <v>19006</v>
       </c>
       <c r="AP53" s="15">
-        <v>24006</v>
+        <v>13733</v>
       </c>
       <c r="AQ53" s="15">
-        <v>19006</v>
+        <v>12315</v>
       </c>
       <c r="AR53" s="15">
-        <v>13733</v>
+        <v>18246</v>
       </c>
       <c r="AS53" s="15">
-        <v>12315</v>
+        <v>18465</v>
       </c>
       <c r="AT53" s="15">
-        <v>18246</v>
+        <v>20763</v>
       </c>
       <c r="AU53" s="15">
-        <v>18465</v>
+        <v>16168</v>
       </c>
       <c r="AV53" s="15">
-        <v>20763</v>
+        <v>5181</v>
       </c>
       <c r="AW53" s="15">
-        <v>16168</v>
+        <v>17236</v>
       </c>
       <c r="AX53" s="15">
-        <v>5181</v>
+        <v>14442</v>
       </c>
       <c r="AY53" s="15">
-        <v>17236</v>
+        <v>18378</v>
       </c>
       <c r="AZ53" s="15">
-        <v>14442</v>
+        <v>16001</v>
       </c>
       <c r="BA53" s="15">
-        <v>18378</v>
+        <v>2938</v>
       </c>
       <c r="BB53" s="15">
-        <v>16001</v>
+        <v>5583</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>82</v>
       </c>
@@ -7623,7 +7623,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>56</v>
       </c>
@@ -7712,77 +7712,77 @@
       <c r="AE55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG55" s="11" t="s">
-        <v>58</v>
+      <c r="AF55" s="11">
+        <v>10772</v>
+      </c>
+      <c r="AG55" s="11">
+        <v>11744</v>
       </c>
       <c r="AH55" s="11">
-        <v>10772</v>
+        <v>28965</v>
       </c>
       <c r="AI55" s="11">
-        <v>11744</v>
+        <v>31368</v>
       </c>
       <c r="AJ55" s="11">
-        <v>28965</v>
+        <v>16854</v>
       </c>
       <c r="AK55" s="11">
-        <v>31368</v>
+        <v>43079</v>
       </c>
       <c r="AL55" s="11">
-        <v>16854</v>
+        <v>31384</v>
       </c>
       <c r="AM55" s="11">
-        <v>43079</v>
+        <v>13733</v>
       </c>
       <c r="AN55" s="11">
-        <v>31384</v>
+        <v>33445</v>
       </c>
       <c r="AO55" s="11">
-        <v>13733</v>
+        <v>3346</v>
       </c>
       <c r="AP55" s="11">
-        <v>33445</v>
+        <v>6378</v>
       </c>
       <c r="AQ55" s="11">
-        <v>3346</v>
+        <v>25855</v>
       </c>
       <c r="AR55" s="11">
-        <v>6378</v>
+        <v>11734</v>
       </c>
       <c r="AS55" s="11">
-        <v>25855</v>
+        <v>11847</v>
       </c>
       <c r="AT55" s="11">
-        <v>11734</v>
+        <v>40787</v>
       </c>
       <c r="AU55" s="11">
-        <v>11847</v>
+        <v>38770</v>
       </c>
       <c r="AV55" s="11">
-        <v>40787</v>
+        <v>77842</v>
       </c>
       <c r="AW55" s="11">
-        <v>38770</v>
+        <v>26739</v>
       </c>
       <c r="AX55" s="11">
-        <v>77842</v>
+        <v>30565</v>
       </c>
       <c r="AY55" s="11">
-        <v>26739</v>
+        <v>22900</v>
       </c>
       <c r="AZ55" s="11">
-        <v>30565</v>
+        <v>19039</v>
       </c>
       <c r="BA55" s="11">
-        <v>22900</v>
+        <v>28919</v>
       </c>
       <c r="BB55" s="11">
-        <v>19039</v>
+        <v>20688</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>59</v>
       </c>
@@ -7871,77 +7871,77 @@
       <c r="AE56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG56" s="13" t="s">
-        <v>58</v>
+      <c r="AF56" s="13">
+        <v>263</v>
+      </c>
+      <c r="AG56" s="13">
+        <v>180</v>
       </c>
       <c r="AH56" s="13">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="AI56" s="13">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="AJ56" s="13">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="13">
+        <v>39</v>
+      </c>
+      <c r="AL56" s="13">
+        <v>197</v>
+      </c>
+      <c r="AM56" s="13">
+        <v>858</v>
+      </c>
+      <c r="AN56" s="13">
+        <v>1265</v>
+      </c>
+      <c r="AO56" s="13">
+        <v>1315</v>
+      </c>
+      <c r="AP56" s="13">
+        <v>278</v>
+      </c>
+      <c r="AQ56" s="13">
+        <v>80</v>
+      </c>
+      <c r="AR56" s="13">
         <v>119</v>
       </c>
-      <c r="AL56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="13">
-        <v>39</v>
-      </c>
-      <c r="AN56" s="13">
-        <v>197</v>
-      </c>
-      <c r="AO56" s="13">
-        <v>858</v>
-      </c>
-      <c r="AP56" s="13">
-        <v>1265</v>
-      </c>
-      <c r="AQ56" s="13">
-        <v>1315</v>
-      </c>
-      <c r="AR56" s="13">
-        <v>278</v>
-      </c>
       <c r="AS56" s="13">
-        <v>80</v>
+        <v>1215</v>
       </c>
       <c r="AT56" s="13">
-        <v>119</v>
+        <v>1656</v>
       </c>
       <c r="AU56" s="13">
-        <v>1215</v>
+        <v>1582</v>
       </c>
       <c r="AV56" s="13">
-        <v>1656</v>
+        <v>2331</v>
       </c>
       <c r="AW56" s="13">
-        <v>1582</v>
+        <v>2811</v>
       </c>
       <c r="AX56" s="13">
-        <v>2331</v>
+        <v>2800</v>
       </c>
       <c r="AY56" s="13">
-        <v>2811</v>
+        <v>2127</v>
       </c>
       <c r="AZ56" s="13">
-        <v>2800</v>
+        <v>955</v>
       </c>
       <c r="BA56" s="13">
-        <v>2127</v>
+        <v>523</v>
       </c>
       <c r="BB56" s="13">
-        <v>955</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>72</v>
       </c>
@@ -8000,42 +8000,42 @@
       <c r="U57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W57" s="11" t="s">
-        <v>58</v>
+      <c r="V57" s="11">
+        <v>7613</v>
+      </c>
+      <c r="W57" s="11">
+        <v>7621</v>
       </c>
       <c r="X57" s="11">
-        <v>7613</v>
+        <v>17148</v>
       </c>
       <c r="Y57" s="11">
-        <v>7621</v>
+        <v>23002</v>
       </c>
       <c r="Z57" s="11">
-        <v>17148</v>
+        <v>22386</v>
       </c>
       <c r="AA57" s="11">
-        <v>23002</v>
+        <v>26850</v>
       </c>
       <c r="AB57" s="11">
-        <v>22386</v>
+        <v>40056</v>
       </c>
       <c r="AC57" s="11">
-        <v>26850</v>
+        <v>35203</v>
       </c>
       <c r="AD57" s="11">
-        <v>40056</v>
+        <v>13981</v>
       </c>
       <c r="AE57" s="11">
-        <v>35203</v>
-      </c>
-      <c r="AF57" s="11">
-        <v>13981</v>
-      </c>
-      <c r="AG57" s="11">
         <v>21137</v>
       </c>
+      <c r="AF57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG57" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH57" s="11" t="s">
         <v>58</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>61</v>
       </c>
@@ -8189,77 +8189,77 @@
       <c r="AE58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG58" s="13" t="s">
-        <v>58</v>
+      <c r="AF58" s="13">
+        <v>100</v>
+      </c>
+      <c r="AG58" s="13">
+        <v>392</v>
       </c>
       <c r="AH58" s="13">
-        <v>100</v>
+        <v>1214</v>
       </c>
       <c r="AI58" s="13">
-        <v>392</v>
+        <v>507</v>
       </c>
       <c r="AJ58" s="13">
-        <v>1214</v>
+        <v>508</v>
       </c>
       <c r="AK58" s="13">
+        <v>1733</v>
+      </c>
+      <c r="AL58" s="13">
+        <v>534</v>
+      </c>
+      <c r="AM58" s="13">
+        <v>476</v>
+      </c>
+      <c r="AN58" s="13">
+        <v>407</v>
+      </c>
+      <c r="AO58" s="13">
+        <v>200</v>
+      </c>
+      <c r="AP58" s="13">
+        <v>200</v>
+      </c>
+      <c r="AQ58" s="13">
+        <v>300</v>
+      </c>
+      <c r="AR58" s="13">
         <v>507</v>
       </c>
-      <c r="AL58" s="13">
-        <v>508</v>
-      </c>
-      <c r="AM58" s="13">
-        <v>1733</v>
-      </c>
-      <c r="AN58" s="13">
-        <v>534</v>
-      </c>
-      <c r="AO58" s="13">
-        <v>476</v>
-      </c>
-      <c r="AP58" s="13">
-        <v>407</v>
-      </c>
-      <c r="AQ58" s="13">
+      <c r="AS58" s="13">
+        <v>460</v>
+      </c>
+      <c r="AT58" s="13">
+        <v>345</v>
+      </c>
+      <c r="AU58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="13">
+        <v>598</v>
+      </c>
+      <c r="AX58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY58" s="13">
+        <v>674</v>
+      </c>
+      <c r="AZ58" s="13">
+        <v>410</v>
+      </c>
+      <c r="BA58" s="13">
         <v>200</v>
       </c>
-      <c r="AR58" s="13">
-        <v>200</v>
-      </c>
-      <c r="AS58" s="13">
-        <v>300</v>
-      </c>
-      <c r="AT58" s="13">
-        <v>507</v>
-      </c>
-      <c r="AU58" s="13">
-        <v>460</v>
-      </c>
-      <c r="AV58" s="13">
-        <v>345</v>
-      </c>
-      <c r="AW58" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX58" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY58" s="13">
-        <v>598</v>
-      </c>
-      <c r="AZ58" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA58" s="13">
-        <v>674</v>
-      </c>
       <c r="BB58" s="13">
-        <v>410</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>73</v>
       </c>
@@ -8318,42 +8318,42 @@
       <c r="U59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W59" s="11" t="s">
-        <v>58</v>
+      <c r="V59" s="11">
+        <v>0</v>
+      </c>
+      <c r="W59" s="11">
+        <v>0</v>
       </c>
       <c r="X59" s="11">
         <v>0</v>
       </c>
       <c r="Y59" s="11">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="Z59" s="11">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="AA59" s="11">
-        <v>139</v>
+        <v>523</v>
       </c>
       <c r="AB59" s="11">
-        <v>771</v>
+        <v>529</v>
       </c>
       <c r="AC59" s="11">
-        <v>523</v>
+        <v>365</v>
       </c>
       <c r="AD59" s="11">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="11">
-        <v>365</v>
-      </c>
-      <c r="AF59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="11">
         <v>142</v>
       </c>
+      <c r="AF59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG59" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH59" s="11" t="s">
         <v>58</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>74</v>
       </c>
@@ -8477,42 +8477,42 @@
       <c r="U60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W60" s="13" t="s">
-        <v>58</v>
+      <c r="V60" s="13">
+        <v>96</v>
+      </c>
+      <c r="W60" s="13">
+        <v>72</v>
       </c>
       <c r="X60" s="13">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="Y60" s="13">
-        <v>72</v>
+        <v>496</v>
       </c>
       <c r="Z60" s="13">
-        <v>204</v>
+        <v>636</v>
       </c>
       <c r="AA60" s="13">
+        <v>808</v>
+      </c>
+      <c r="AB60" s="13">
+        <v>836</v>
+      </c>
+      <c r="AC60" s="13">
         <v>496</v>
       </c>
-      <c r="AB60" s="13">
-        <v>636</v>
-      </c>
-      <c r="AC60" s="13">
-        <v>808</v>
-      </c>
       <c r="AD60" s="13">
-        <v>836</v>
+        <v>196</v>
       </c>
       <c r="AE60" s="13">
-        <v>496</v>
-      </c>
-      <c r="AF60" s="13">
-        <v>196</v>
-      </c>
-      <c r="AG60" s="13">
         <v>100</v>
       </c>
+      <c r="AF60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG60" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH60" s="13" t="s">
         <v>58</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>83</v>
       </c>
@@ -8635,106 +8635,106 @@
         <v>0</v>
       </c>
       <c r="V61" s="15">
-        <v>0</v>
+        <v>7709</v>
       </c>
       <c r="W61" s="15">
-        <v>0</v>
+        <v>7693</v>
       </c>
       <c r="X61" s="15">
-        <v>7709</v>
+        <v>17352</v>
       </c>
       <c r="Y61" s="15">
-        <v>7693</v>
+        <v>23637</v>
       </c>
       <c r="Z61" s="15">
-        <v>17352</v>
+        <v>23793</v>
       </c>
       <c r="AA61" s="15">
-        <v>23637</v>
+        <v>28181</v>
       </c>
       <c r="AB61" s="15">
-        <v>23793</v>
+        <v>41421</v>
       </c>
       <c r="AC61" s="15">
-        <v>28181</v>
+        <v>36064</v>
       </c>
       <c r="AD61" s="15">
-        <v>41421</v>
+        <v>14177</v>
       </c>
       <c r="AE61" s="15">
-        <v>36064</v>
+        <v>21379</v>
       </c>
       <c r="AF61" s="15">
-        <v>14177</v>
+        <v>11135</v>
       </c>
       <c r="AG61" s="15">
-        <v>21379</v>
+        <v>12316</v>
       </c>
       <c r="AH61" s="15">
-        <v>11135</v>
+        <v>30397</v>
       </c>
       <c r="AI61" s="15">
-        <v>12316</v>
+        <v>31994</v>
       </c>
       <c r="AJ61" s="15">
-        <v>30397</v>
+        <v>17362</v>
       </c>
       <c r="AK61" s="15">
-        <v>31994</v>
+        <v>44851</v>
       </c>
       <c r="AL61" s="15">
-        <v>17362</v>
+        <v>32115</v>
       </c>
       <c r="AM61" s="15">
-        <v>44851</v>
+        <v>15067</v>
       </c>
       <c r="AN61" s="15">
-        <v>32115</v>
+        <v>35117</v>
       </c>
       <c r="AO61" s="15">
-        <v>15067</v>
+        <v>4861</v>
       </c>
       <c r="AP61" s="15">
-        <v>35117</v>
+        <v>6856</v>
       </c>
       <c r="AQ61" s="15">
-        <v>4861</v>
+        <v>26235</v>
       </c>
       <c r="AR61" s="15">
-        <v>6856</v>
+        <v>12360</v>
       </c>
       <c r="AS61" s="15">
-        <v>26235</v>
+        <v>13522</v>
       </c>
       <c r="AT61" s="15">
-        <v>12360</v>
+        <v>42788</v>
       </c>
       <c r="AU61" s="15">
-        <v>13522</v>
+        <v>40352</v>
       </c>
       <c r="AV61" s="15">
-        <v>42788</v>
+        <v>80173</v>
       </c>
       <c r="AW61" s="15">
-        <v>40352</v>
+        <v>30147</v>
       </c>
       <c r="AX61" s="15">
-        <v>80173</v>
+        <v>33365</v>
       </c>
       <c r="AY61" s="15">
-        <v>30147</v>
+        <v>25701</v>
       </c>
       <c r="AZ61" s="15">
-        <v>33365</v>
+        <v>20404</v>
       </c>
       <c r="BA61" s="15">
-        <v>25701</v>
+        <v>29642</v>
       </c>
       <c r="BB61" s="15">
-        <v>20404</v>
+        <v>20688</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="16" t="s">
         <v>76</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="BA62" s="17"/>
       <c r="BB62" s="17"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
         <v>77</v>
       </c>
@@ -8848,11 +8848,11 @@
       <c r="U63" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="V63" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W63" s="15" t="s">
-        <v>58</v>
+      <c r="V63" s="15">
+        <v>0</v>
+      </c>
+      <c r="W63" s="15">
+        <v>0</v>
       </c>
       <c r="X63" s="15">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
         <v>84</v>
       </c>
@@ -9005,7 +9005,7 @@
       <c r="BA64" s="17"/>
       <c r="BB64" s="17"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>85</v>
       </c>
@@ -9062,11 +9062,11 @@
       <c r="U65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="V65" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W65" s="15" t="s">
-        <v>58</v>
+      <c r="V65" s="15">
+        <v>0</v>
+      </c>
+      <c r="W65" s="15">
+        <v>0</v>
       </c>
       <c r="X65" s="15">
         <v>0</v>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
         <v>78</v>
       </c>
@@ -9220,106 +9220,106 @@
         <v>0</v>
       </c>
       <c r="V66" s="19">
-        <v>0</v>
+        <v>16326</v>
       </c>
       <c r="W66" s="19">
-        <v>0</v>
+        <v>20001</v>
       </c>
       <c r="X66" s="19">
-        <v>16326</v>
+        <v>39754</v>
       </c>
       <c r="Y66" s="19">
-        <v>20001</v>
+        <v>38430</v>
       </c>
       <c r="Z66" s="19">
-        <v>39754</v>
+        <v>44574</v>
       </c>
       <c r="AA66" s="19">
-        <v>38430</v>
+        <v>49398</v>
       </c>
       <c r="AB66" s="19">
-        <v>44574</v>
+        <v>63001</v>
       </c>
       <c r="AC66" s="19">
-        <v>49398</v>
+        <v>46895</v>
       </c>
       <c r="AD66" s="19">
-        <v>63001</v>
+        <v>23101</v>
       </c>
       <c r="AE66" s="19">
-        <v>46895</v>
+        <v>47128</v>
       </c>
       <c r="AF66" s="19">
-        <v>23101</v>
+        <v>42684</v>
       </c>
       <c r="AG66" s="19">
-        <v>47128</v>
+        <v>40656</v>
       </c>
       <c r="AH66" s="19">
-        <v>42684</v>
+        <v>44923</v>
       </c>
       <c r="AI66" s="19">
-        <v>40656</v>
+        <v>50839</v>
       </c>
       <c r="AJ66" s="19">
-        <v>44923</v>
+        <v>32757</v>
       </c>
       <c r="AK66" s="19">
-        <v>50839</v>
+        <v>60685</v>
       </c>
       <c r="AL66" s="19">
-        <v>32757</v>
+        <v>50527</v>
       </c>
       <c r="AM66" s="19">
-        <v>60685</v>
+        <v>36807</v>
       </c>
       <c r="AN66" s="19">
-        <v>50527</v>
+        <v>59123</v>
       </c>
       <c r="AO66" s="19">
-        <v>36807</v>
+        <v>23867</v>
       </c>
       <c r="AP66" s="19">
-        <v>59123</v>
+        <v>20589</v>
       </c>
       <c r="AQ66" s="19">
-        <v>23867</v>
+        <v>38550</v>
       </c>
       <c r="AR66" s="19">
-        <v>20589</v>
+        <v>30606</v>
       </c>
       <c r="AS66" s="19">
-        <v>38550</v>
+        <v>31987</v>
       </c>
       <c r="AT66" s="19">
-        <v>30606</v>
+        <v>63551</v>
       </c>
       <c r="AU66" s="19">
-        <v>31987</v>
+        <v>56520</v>
       </c>
       <c r="AV66" s="19">
-        <v>63551</v>
+        <v>85354</v>
       </c>
       <c r="AW66" s="19">
-        <v>56520</v>
+        <v>47383</v>
       </c>
       <c r="AX66" s="19">
-        <v>85354</v>
+        <v>47807</v>
       </c>
       <c r="AY66" s="19">
-        <v>47383</v>
+        <v>44079</v>
       </c>
       <c r="AZ66" s="19">
-        <v>47807</v>
+        <v>36405</v>
       </c>
       <c r="BA66" s="19">
-        <v>44079</v>
+        <v>32580</v>
       </c>
       <c r="BB66" s="19">
-        <v>36405</v>
+        <v>26271</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -9374,7 +9374,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -9429,7 +9429,7 @@
       <c r="BA68" s="1"/>
       <c r="BB68" s="1"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -9484,7 +9484,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>86</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9696,7 +9696,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>87</v>
       </c>
@@ -9753,7 +9753,7 @@
       <c r="BA72" s="9"/>
       <c r="BB72" s="9"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>56</v>
       </c>
@@ -9812,11 +9812,11 @@
       <c r="U73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W73" s="11" t="s">
-        <v>58</v>
+      <c r="V73" s="11">
+        <v>0</v>
+      </c>
+      <c r="W73" s="11">
+        <v>0</v>
       </c>
       <c r="X73" s="11">
         <v>0</v>
@@ -9912,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>59</v>
       </c>
@@ -9971,11 +9971,11 @@
       <c r="U74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W74" s="13" t="s">
-        <v>58</v>
+      <c r="V74" s="13">
+        <v>0</v>
+      </c>
+      <c r="W74" s="13">
+        <v>0</v>
       </c>
       <c r="X74" s="13">
         <v>0</v>
@@ -10038,40 +10038,40 @@
         <v>0</v>
       </c>
       <c r="AR74" s="13">
-        <v>0</v>
+        <v>177453</v>
       </c>
       <c r="AS74" s="13">
-        <v>0</v>
+        <v>158019</v>
       </c>
       <c r="AT74" s="13">
-        <v>177453</v>
+        <v>175261</v>
       </c>
       <c r="AU74" s="13">
-        <v>158019</v>
+        <v>141590</v>
       </c>
       <c r="AV74" s="13">
-        <v>175261</v>
+        <v>150426</v>
       </c>
       <c r="AW74" s="13">
-        <v>141590</v>
+        <v>194964</v>
       </c>
       <c r="AX74" s="13">
-        <v>150426</v>
+        <v>287183</v>
       </c>
       <c r="AY74" s="13">
-        <v>194964</v>
+        <v>340141</v>
       </c>
       <c r="AZ74" s="13">
-        <v>287183</v>
+        <v>185365</v>
       </c>
       <c r="BA74" s="13">
-        <v>340141</v>
+        <v>149898</v>
       </c>
       <c r="BB74" s="13">
-        <v>185365</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>60</v>
       </c>
@@ -10130,107 +10130,107 @@
       <c r="U75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W75" s="11" t="s">
-        <v>58</v>
+      <c r="V75" s="11">
+        <v>21855</v>
+      </c>
+      <c r="W75" s="11">
+        <v>35174</v>
       </c>
       <c r="X75" s="11">
-        <v>21855</v>
+        <v>139497</v>
       </c>
       <c r="Y75" s="11">
-        <v>35174</v>
+        <v>121118</v>
       </c>
       <c r="Z75" s="11">
-        <v>139497</v>
+        <v>70375</v>
       </c>
       <c r="AA75" s="11">
-        <v>121118</v>
+        <v>159820</v>
       </c>
       <c r="AB75" s="11">
-        <v>70375</v>
+        <v>108828</v>
       </c>
       <c r="AC75" s="11">
-        <v>159820</v>
+        <v>49481</v>
       </c>
       <c r="AD75" s="11">
-        <v>108828</v>
+        <v>29382</v>
       </c>
       <c r="AE75" s="11">
-        <v>49481</v>
+        <v>147671</v>
       </c>
       <c r="AF75" s="11">
-        <v>29382</v>
+        <v>127661</v>
       </c>
       <c r="AG75" s="11">
-        <v>147671</v>
+        <v>92683</v>
       </c>
       <c r="AH75" s="11">
-        <v>127661</v>
+        <v>53417</v>
       </c>
       <c r="AI75" s="11">
-        <v>92683</v>
+        <v>17454</v>
       </c>
       <c r="AJ75" s="11">
-        <v>53417</v>
+        <v>131018</v>
       </c>
       <c r="AK75" s="11">
-        <v>17454</v>
+        <v>152099</v>
       </c>
       <c r="AL75" s="11">
-        <v>131018</v>
+        <v>37169</v>
       </c>
       <c r="AM75" s="11">
-        <v>152099</v>
+        <v>289916</v>
       </c>
       <c r="AN75" s="11">
-        <v>37169</v>
+        <v>159180</v>
       </c>
       <c r="AO75" s="11">
-        <v>289916</v>
+        <v>87158</v>
       </c>
       <c r="AP75" s="11">
-        <v>159180</v>
+        <v>41028</v>
       </c>
       <c r="AQ75" s="11">
-        <v>87158</v>
+        <v>56138</v>
       </c>
       <c r="AR75" s="11">
-        <v>41028</v>
+        <v>117674</v>
       </c>
       <c r="AS75" s="11">
-        <v>56138</v>
+        <v>107031</v>
       </c>
       <c r="AT75" s="11">
-        <v>117674</v>
+        <v>41738</v>
       </c>
       <c r="AU75" s="11">
-        <v>107031</v>
+        <v>367207</v>
       </c>
       <c r="AV75" s="11">
-        <v>41738</v>
+        <v>110629</v>
       </c>
       <c r="AW75" s="11">
-        <v>367207</v>
+        <v>15100</v>
       </c>
       <c r="AX75" s="11">
-        <v>110629</v>
+        <v>145601</v>
       </c>
       <c r="AY75" s="11">
-        <v>15100</v>
+        <v>74871</v>
       </c>
       <c r="AZ75" s="11">
-        <v>145601</v>
+        <v>545754</v>
       </c>
       <c r="BA75" s="11">
-        <v>74871</v>
+        <v>245163</v>
       </c>
       <c r="BB75" s="11">
-        <v>545754</v>
+        <v>105478</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>61</v>
       </c>
@@ -10289,11 +10289,11 @@
       <c r="U76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W76" s="13" t="s">
-        <v>58</v>
+      <c r="V76" s="13">
+        <v>0</v>
+      </c>
+      <c r="W76" s="13">
+        <v>0</v>
       </c>
       <c r="X76" s="13">
         <v>0</v>
@@ -10389,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>62</v>
       </c>
@@ -10448,11 +10448,11 @@
       <c r="U77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W77" s="11" t="s">
-        <v>58</v>
+      <c r="V77" s="11">
+        <v>0</v>
+      </c>
+      <c r="W77" s="11">
+        <v>0</v>
       </c>
       <c r="X77" s="11">
         <v>0</v>
@@ -10478,11 +10478,11 @@
       <c r="AE77" s="11">
         <v>0</v>
       </c>
-      <c r="AF77" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG77" s="11">
-        <v>0</v>
+      <c r="AF77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH77" s="11" t="s">
         <v>58</v>
@@ -10548,7 +10548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>63</v>
       </c>
@@ -10673,41 +10673,41 @@
       <c r="AQ78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS78" s="13" t="s">
-        <v>58</v>
+      <c r="AR78" s="13">
+        <v>414455</v>
+      </c>
+      <c r="AS78" s="13">
+        <v>758883</v>
       </c>
       <c r="AT78" s="13">
-        <v>414455</v>
+        <v>888542</v>
       </c>
       <c r="AU78" s="13">
-        <v>758883</v>
+        <v>746878</v>
       </c>
       <c r="AV78" s="13">
-        <v>888542</v>
+        <v>759812</v>
       </c>
       <c r="AW78" s="13">
-        <v>746878</v>
+        <v>546846</v>
       </c>
       <c r="AX78" s="13">
-        <v>759812</v>
+        <v>489317</v>
       </c>
       <c r="AY78" s="13">
-        <v>546846</v>
+        <v>611076</v>
       </c>
       <c r="AZ78" s="13">
-        <v>489317</v>
+        <v>567439</v>
       </c>
       <c r="BA78" s="13">
-        <v>611076</v>
+        <v>99191</v>
       </c>
       <c r="BB78" s="13">
-        <v>567439</v>
+        <v>9838</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>64</v>
       </c>
@@ -10766,11 +10766,11 @@
       <c r="U79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W79" s="11" t="s">
-        <v>58</v>
+      <c r="V79" s="11">
+        <v>0</v>
+      </c>
+      <c r="W79" s="11">
+        <v>0</v>
       </c>
       <c r="X79" s="11">
         <v>0</v>
@@ -10866,7 +10866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>65</v>
       </c>
@@ -10925,11 +10925,11 @@
       <c r="U80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W80" s="13" t="s">
-        <v>58</v>
+      <c r="V80" s="13">
+        <v>0</v>
+      </c>
+      <c r="W80" s="13">
+        <v>0</v>
       </c>
       <c r="X80" s="13">
         <v>0</v>
@@ -11025,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>66</v>
       </c>
@@ -11084,11 +11084,11 @@
       <c r="U81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W81" s="11" t="s">
-        <v>58</v>
+      <c r="V81" s="11">
+        <v>0</v>
+      </c>
+      <c r="W81" s="11">
+        <v>0</v>
       </c>
       <c r="X81" s="11">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>67</v>
       </c>
@@ -11243,78 +11243,78 @@
       <c r="U82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W82" s="13" t="s">
-        <v>58</v>
+      <c r="V82" s="13">
+        <v>0</v>
+      </c>
+      <c r="W82" s="13">
+        <v>1694</v>
       </c>
       <c r="X82" s="13">
-        <v>0</v>
+        <v>13306</v>
       </c>
       <c r="Y82" s="13">
-        <v>1694</v>
+        <v>36306</v>
       </c>
       <c r="Z82" s="13">
-        <v>13306</v>
+        <v>53495</v>
       </c>
       <c r="AA82" s="13">
-        <v>36306</v>
+        <v>50134</v>
       </c>
       <c r="AB82" s="13">
-        <v>53495</v>
+        <v>48541</v>
       </c>
       <c r="AC82" s="13">
-        <v>50134</v>
+        <v>23780</v>
       </c>
       <c r="AD82" s="13">
-        <v>48541</v>
+        <v>0</v>
       </c>
       <c r="AE82" s="13">
-        <v>23780</v>
+        <v>24849</v>
       </c>
       <c r="AF82" s="13">
-        <v>0</v>
+        <v>72841</v>
       </c>
       <c r="AG82" s="13">
-        <v>24849</v>
+        <v>89374</v>
       </c>
       <c r="AH82" s="13">
-        <v>72841</v>
+        <v>80898</v>
       </c>
       <c r="AI82" s="13">
-        <v>89374</v>
+        <v>94970</v>
       </c>
       <c r="AJ82" s="13">
-        <v>80898</v>
+        <v>93552</v>
       </c>
       <c r="AK82" s="13">
-        <v>94970</v>
+        <v>92792</v>
       </c>
       <c r="AL82" s="13">
-        <v>93552</v>
+        <v>95731</v>
       </c>
       <c r="AM82" s="13">
-        <v>92792</v>
+        <v>180191</v>
       </c>
       <c r="AN82" s="13">
-        <v>95731</v>
+        <v>298146</v>
       </c>
       <c r="AO82" s="13">
-        <v>180191</v>
+        <v>386754</v>
       </c>
       <c r="AP82" s="13">
-        <v>298146</v>
+        <v>304996</v>
       </c>
       <c r="AQ82" s="13">
-        <v>386754</v>
-      </c>
-      <c r="AR82" s="13">
-        <v>304996</v>
-      </c>
-      <c r="AS82" s="13">
         <v>192037</v>
       </c>
+      <c r="AR82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS82" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT82" s="13" t="s">
         <v>58</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>68</v>
       </c>
@@ -11402,107 +11402,107 @@
       <c r="U83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W83" s="11" t="s">
-        <v>58</v>
+      <c r="V83" s="11">
+        <v>149241</v>
+      </c>
+      <c r="W83" s="11">
+        <v>220011</v>
       </c>
       <c r="X83" s="11">
-        <v>149241</v>
+        <v>359581</v>
       </c>
       <c r="Y83" s="11">
-        <v>220011</v>
+        <v>191234</v>
       </c>
       <c r="Z83" s="11">
-        <v>359581</v>
+        <v>577183</v>
       </c>
       <c r="AA83" s="11">
-        <v>191234</v>
+        <v>537840</v>
       </c>
       <c r="AB83" s="11">
-        <v>577183</v>
+        <v>599058</v>
       </c>
       <c r="AC83" s="11">
-        <v>537840</v>
+        <v>295794</v>
       </c>
       <c r="AD83" s="11">
-        <v>599058</v>
+        <v>280422</v>
       </c>
       <c r="AE83" s="11">
-        <v>295794</v>
+        <v>795715</v>
       </c>
       <c r="AF83" s="11">
-        <v>280422</v>
+        <v>1143076</v>
       </c>
       <c r="AG83" s="11">
-        <v>795715</v>
+        <v>1076147</v>
       </c>
       <c r="AH83" s="11">
-        <v>1143076</v>
+        <v>467487</v>
       </c>
       <c r="AI83" s="11">
-        <v>1076147</v>
+        <v>737725</v>
       </c>
       <c r="AJ83" s="11">
-        <v>467487</v>
+        <v>542708</v>
       </c>
       <c r="AK83" s="11">
-        <v>737725</v>
+        <v>558439</v>
       </c>
       <c r="AL83" s="11">
-        <v>542708</v>
+        <v>1071763</v>
       </c>
       <c r="AM83" s="11">
-        <v>558439</v>
+        <v>1138590</v>
       </c>
       <c r="AN83" s="11">
-        <v>1071763</v>
+        <v>1750037</v>
       </c>
       <c r="AO83" s="11">
-        <v>1138590</v>
+        <v>1312020</v>
       </c>
       <c r="AP83" s="11">
-        <v>1750037</v>
+        <v>962968</v>
       </c>
       <c r="AQ83" s="11">
-        <v>1312020</v>
+        <v>857536</v>
       </c>
       <c r="AR83" s="11">
-        <v>962968</v>
+        <v>2220649</v>
       </c>
       <c r="AS83" s="11">
-        <v>857536</v>
+        <v>2257652</v>
       </c>
       <c r="AT83" s="11">
-        <v>2220649</v>
+        <v>2097349</v>
       </c>
       <c r="AU83" s="11">
-        <v>1379255</v>
+        <v>1280048</v>
       </c>
       <c r="AV83" s="11">
-        <v>2097349</v>
+        <v>211485</v>
       </c>
       <c r="AW83" s="11">
-        <v>1280048</v>
+        <v>1621823</v>
       </c>
       <c r="AX83" s="11">
-        <v>-284370</v>
+        <v>1179429</v>
       </c>
       <c r="AY83" s="11">
-        <v>1621823</v>
+        <v>1591522</v>
       </c>
       <c r="AZ83" s="11">
-        <v>1179429</v>
+        <v>1022009</v>
       </c>
       <c r="BA83" s="11">
-        <v>1591522</v>
+        <v>0</v>
       </c>
       <c r="BB83" s="11">
-        <v>1022009</v>
+        <v>504787</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>69</v>
       </c>
@@ -11561,78 +11561,78 @@
       <c r="U84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W84" s="13" t="s">
-        <v>58</v>
+      <c r="V84" s="13">
+        <v>195730</v>
+      </c>
+      <c r="W84" s="13">
+        <v>187355</v>
       </c>
       <c r="X84" s="13">
-        <v>195730</v>
+        <v>270995</v>
       </c>
       <c r="Y84" s="13">
-        <v>187355</v>
+        <v>218159</v>
       </c>
       <c r="Z84" s="13">
-        <v>270995</v>
+        <v>263785</v>
       </c>
       <c r="AA84" s="13">
-        <v>218159</v>
+        <v>293343</v>
       </c>
       <c r="AB84" s="13">
-        <v>263785</v>
+        <v>284632</v>
       </c>
       <c r="AC84" s="13">
-        <v>293343</v>
+        <v>218598</v>
       </c>
       <c r="AD84" s="13">
-        <v>284632</v>
+        <v>188558</v>
       </c>
       <c r="AE84" s="13">
-        <v>218598</v>
+        <v>505989</v>
       </c>
       <c r="AF84" s="13">
-        <v>188558</v>
+        <v>253843</v>
       </c>
       <c r="AG84" s="13">
-        <v>505989</v>
+        <v>454310</v>
       </c>
       <c r="AH84" s="13">
-        <v>253843</v>
+        <v>400182</v>
       </c>
       <c r="AI84" s="13">
-        <v>454310</v>
+        <v>421902</v>
       </c>
       <c r="AJ84" s="13">
-        <v>400182</v>
+        <v>310702</v>
       </c>
       <c r="AK84" s="13">
-        <v>421902</v>
+        <v>655112</v>
       </c>
       <c r="AL84" s="13">
-        <v>310702</v>
+        <v>723808</v>
       </c>
       <c r="AM84" s="13">
-        <v>655112</v>
+        <v>1053712</v>
       </c>
       <c r="AN84" s="13">
-        <v>723808</v>
+        <v>1111035</v>
       </c>
       <c r="AO84" s="13">
-        <v>1053712</v>
+        <v>974868</v>
       </c>
       <c r="AP84" s="13">
-        <v>1111035</v>
+        <v>478426</v>
       </c>
       <c r="AQ84" s="13">
-        <v>974868</v>
-      </c>
-      <c r="AR84" s="13">
-        <v>478426</v>
-      </c>
-      <c r="AS84" s="13">
         <v>524251</v>
       </c>
+      <c r="AR84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS84" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT84" s="13" t="s">
         <v>58</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
         <v>81</v>
       </c>
@@ -11719,106 +11719,106 @@
         <v>0</v>
       </c>
       <c r="V85" s="15">
-        <v>0</v>
+        <v>366826</v>
       </c>
       <c r="W85" s="15">
-        <v>0</v>
+        <v>444234</v>
       </c>
       <c r="X85" s="15">
-        <v>366826</v>
+        <v>783379</v>
       </c>
       <c r="Y85" s="15">
-        <v>444234</v>
+        <v>566817</v>
       </c>
       <c r="Z85" s="15">
-        <v>783379</v>
+        <v>964838</v>
       </c>
       <c r="AA85" s="15">
-        <v>566817</v>
+        <v>1041137</v>
       </c>
       <c r="AB85" s="15">
-        <v>964838</v>
+        <v>1041059</v>
       </c>
       <c r="AC85" s="15">
-        <v>1041137</v>
+        <v>587653</v>
       </c>
       <c r="AD85" s="15">
-        <v>1041059</v>
+        <v>498362</v>
       </c>
       <c r="AE85" s="15">
-        <v>587653</v>
+        <v>1474224</v>
       </c>
       <c r="AF85" s="15">
-        <v>498362</v>
+        <v>1597421</v>
       </c>
       <c r="AG85" s="15">
-        <v>1474224</v>
+        <v>1712514</v>
       </c>
       <c r="AH85" s="15">
-        <v>1597421</v>
+        <v>1001984</v>
       </c>
       <c r="AI85" s="15">
-        <v>1712514</v>
+        <v>1272051</v>
       </c>
       <c r="AJ85" s="15">
-        <v>1001984</v>
+        <v>1077980</v>
       </c>
       <c r="AK85" s="15">
-        <v>1272051</v>
+        <v>1458442</v>
       </c>
       <c r="AL85" s="15">
-        <v>1077980</v>
+        <v>1928471</v>
       </c>
       <c r="AM85" s="15">
-        <v>1458442</v>
+        <v>2662409</v>
       </c>
       <c r="AN85" s="15">
-        <v>1928471</v>
+        <v>3318398</v>
       </c>
       <c r="AO85" s="15">
-        <v>2662409</v>
+        <v>2760800</v>
       </c>
       <c r="AP85" s="15">
-        <v>3318398</v>
+        <v>1787418</v>
       </c>
       <c r="AQ85" s="15">
-        <v>2760800</v>
+        <v>1629962</v>
       </c>
       <c r="AR85" s="15">
-        <v>1787418</v>
+        <v>2930231</v>
       </c>
       <c r="AS85" s="15">
-        <v>1629962</v>
+        <v>3281585</v>
       </c>
       <c r="AT85" s="15">
-        <v>2930231</v>
+        <v>3202890</v>
       </c>
       <c r="AU85" s="15">
-        <v>2403188</v>
+        <v>2535723</v>
       </c>
       <c r="AV85" s="15">
-        <v>3202890</v>
+        <v>1232352</v>
       </c>
       <c r="AW85" s="15">
-        <v>2535723</v>
+        <v>2378733</v>
       </c>
       <c r="AX85" s="15">
-        <v>736497</v>
+        <v>2101530</v>
       </c>
       <c r="AY85" s="15">
-        <v>2378733</v>
+        <v>2617610</v>
       </c>
       <c r="AZ85" s="15">
-        <v>2101530</v>
+        <v>2320567</v>
       </c>
       <c r="BA85" s="15">
-        <v>2617610</v>
+        <v>494252</v>
       </c>
       <c r="BB85" s="15">
-        <v>2320567</v>
+        <v>620103</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>89</v>
       </c>
@@ -11875,7 +11875,7 @@
       <c r="BA86" s="9"/>
       <c r="BB86" s="9"/>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>56</v>
       </c>
@@ -11964,77 +11964,77 @@
       <c r="AE87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG87" s="11" t="s">
-        <v>58</v>
+      <c r="AF87" s="11">
+        <v>710423</v>
+      </c>
+      <c r="AG87" s="11">
+        <v>838020</v>
       </c>
       <c r="AH87" s="11">
-        <v>710423</v>
+        <v>1749803</v>
       </c>
       <c r="AI87" s="11">
-        <v>838020</v>
+        <v>1949841</v>
       </c>
       <c r="AJ87" s="11">
-        <v>1749803</v>
+        <v>1286243</v>
       </c>
       <c r="AK87" s="11">
-        <v>1949841</v>
+        <v>3693907</v>
       </c>
       <c r="AL87" s="11">
-        <v>1286243</v>
+        <v>2971758</v>
       </c>
       <c r="AM87" s="11">
-        <v>3693907</v>
+        <v>1390588</v>
       </c>
       <c r="AN87" s="11">
-        <v>2971758</v>
+        <v>5771432</v>
       </c>
       <c r="AO87" s="11">
-        <v>1390588</v>
+        <v>649202</v>
       </c>
       <c r="AP87" s="11">
-        <v>5771432</v>
+        <v>928419</v>
       </c>
       <c r="AQ87" s="11">
-        <v>649202</v>
+        <v>3286459</v>
       </c>
       <c r="AR87" s="11">
-        <v>928419</v>
+        <v>1569222</v>
       </c>
       <c r="AS87" s="11">
-        <v>3286459</v>
+        <v>2058045</v>
       </c>
       <c r="AT87" s="11">
-        <v>1569222</v>
+        <v>6024641</v>
       </c>
       <c r="AU87" s="11">
-        <v>2058045</v>
+        <v>5393480</v>
       </c>
       <c r="AV87" s="11">
-        <v>6024641</v>
+        <v>10255317</v>
       </c>
       <c r="AW87" s="11">
-        <v>5393480</v>
+        <v>3831900</v>
       </c>
       <c r="AX87" s="11">
-        <v>10255317</v>
+        <v>4814331</v>
       </c>
       <c r="AY87" s="11">
-        <v>3831900</v>
+        <v>3680527</v>
       </c>
       <c r="AZ87" s="11">
-        <v>4814331</v>
+        <v>2692036</v>
       </c>
       <c r="BA87" s="11">
-        <v>3680527</v>
+        <v>3880465</v>
       </c>
       <c r="BB87" s="11">
-        <v>2692036</v>
+        <v>2599304</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>59</v>
       </c>
@@ -12123,77 +12123,77 @@
       <c r="AE88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG88" s="13" t="s">
-        <v>58</v>
+      <c r="AF88" s="13">
+        <v>7922</v>
+      </c>
+      <c r="AG88" s="13">
+        <v>10147</v>
       </c>
       <c r="AH88" s="13">
-        <v>7922</v>
+        <v>11514</v>
       </c>
       <c r="AI88" s="13">
-        <v>10147</v>
+        <v>6199</v>
       </c>
       <c r="AJ88" s="13">
-        <v>11514</v>
+        <v>0</v>
       </c>
       <c r="AK88" s="13">
-        <v>6199</v>
+        <v>2668</v>
       </c>
       <c r="AL88" s="13">
-        <v>0</v>
+        <v>13570</v>
       </c>
       <c r="AM88" s="13">
-        <v>2668</v>
+        <v>70217</v>
       </c>
       <c r="AN88" s="13">
-        <v>13570</v>
+        <v>132653</v>
       </c>
       <c r="AO88" s="13">
-        <v>70217</v>
+        <v>190495</v>
       </c>
       <c r="AP88" s="13">
-        <v>132653</v>
+        <v>43340</v>
       </c>
       <c r="AQ88" s="13">
-        <v>190495</v>
+        <v>12866</v>
       </c>
       <c r="AR88" s="13">
-        <v>43340</v>
+        <v>22210</v>
       </c>
       <c r="AS88" s="13">
-        <v>12866</v>
+        <v>215092</v>
       </c>
       <c r="AT88" s="13">
-        <v>22210</v>
+        <v>290969</v>
       </c>
       <c r="AU88" s="13">
-        <v>215092</v>
+        <v>290013</v>
       </c>
       <c r="AV88" s="13">
-        <v>290969</v>
+        <v>441309</v>
       </c>
       <c r="AW88" s="13">
-        <v>290013</v>
+        <v>536282</v>
       </c>
       <c r="AX88" s="13">
-        <v>441309</v>
+        <v>560294</v>
       </c>
       <c r="AY88" s="13">
-        <v>536282</v>
+        <v>429635</v>
       </c>
       <c r="AZ88" s="13">
-        <v>560294</v>
+        <v>192623</v>
       </c>
       <c r="BA88" s="13">
-        <v>429635</v>
+        <v>105122</v>
       </c>
       <c r="BB88" s="13">
-        <v>192623</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>72</v>
       </c>
@@ -12252,42 +12252,42 @@
       <c r="U89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V89" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W89" s="11" t="s">
-        <v>58</v>
+      <c r="V89" s="11">
+        <v>214518</v>
+      </c>
+      <c r="W89" s="11">
+        <v>225348</v>
       </c>
       <c r="X89" s="11">
-        <v>214518</v>
+        <v>576343</v>
       </c>
       <c r="Y89" s="11">
-        <v>225348</v>
+        <v>923602</v>
       </c>
       <c r="Z89" s="11">
-        <v>576343</v>
+        <v>1030510</v>
       </c>
       <c r="AA89" s="11">
-        <v>923602</v>
+        <v>1393693</v>
       </c>
       <c r="AB89" s="11">
-        <v>1030510</v>
+        <v>2180643</v>
       </c>
       <c r="AC89" s="11">
-        <v>1393693</v>
+        <v>1968007</v>
       </c>
       <c r="AD89" s="11">
-        <v>2180643</v>
+        <v>709926</v>
       </c>
       <c r="AE89" s="11">
-        <v>1968007</v>
-      </c>
-      <c r="AF89" s="11">
-        <v>709926</v>
-      </c>
-      <c r="AG89" s="11">
         <v>1169321</v>
       </c>
+      <c r="AF89" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG89" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH89" s="11" t="s">
         <v>58</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>61</v>
       </c>
@@ -12441,77 +12441,77 @@
       <c r="AE90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF90" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG90" s="13" t="s">
-        <v>58</v>
+      <c r="AF90" s="13">
+        <v>42300</v>
+      </c>
+      <c r="AG90" s="13">
+        <v>170859</v>
       </c>
       <c r="AH90" s="13">
-        <v>42300</v>
+        <v>533976</v>
       </c>
       <c r="AI90" s="13">
-        <v>170859</v>
+        <v>237112</v>
       </c>
       <c r="AJ90" s="13">
-        <v>533976</v>
+        <v>282486</v>
       </c>
       <c r="AK90" s="13">
-        <v>237112</v>
+        <v>1014750</v>
       </c>
       <c r="AL90" s="13">
-        <v>282486</v>
+        <v>430547</v>
       </c>
       <c r="AM90" s="13">
-        <v>1014750</v>
+        <v>447606</v>
       </c>
       <c r="AN90" s="13">
-        <v>430547</v>
+        <v>397644</v>
       </c>
       <c r="AO90" s="13">
-        <v>447606</v>
+        <v>176773</v>
       </c>
       <c r="AP90" s="13">
-        <v>397644</v>
+        <v>154174</v>
       </c>
       <c r="AQ90" s="13">
-        <v>176773</v>
+        <v>202630</v>
       </c>
       <c r="AR90" s="13">
-        <v>154174</v>
+        <v>348127</v>
       </c>
       <c r="AS90" s="13">
-        <v>202630</v>
+        <v>284913</v>
       </c>
       <c r="AT90" s="13">
-        <v>348127</v>
+        <v>183796</v>
       </c>
       <c r="AU90" s="13">
-        <v>284913</v>
+        <v>0</v>
       </c>
       <c r="AV90" s="13">
-        <v>183796</v>
+        <v>0</v>
       </c>
       <c r="AW90" s="13">
-        <v>0</v>
+        <v>263567</v>
       </c>
       <c r="AX90" s="13">
         <v>0</v>
       </c>
       <c r="AY90" s="13">
-        <v>263567</v>
+        <v>284176</v>
       </c>
       <c r="AZ90" s="13">
-        <v>0</v>
+        <v>161480</v>
       </c>
       <c r="BA90" s="13">
-        <v>284176</v>
+        <v>81527</v>
       </c>
       <c r="BB90" s="13">
-        <v>161480</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>73</v>
       </c>
@@ -12570,42 +12570,42 @@
       <c r="U91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V91" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W91" s="11" t="s">
-        <v>58</v>
+      <c r="V91" s="11">
+        <v>0</v>
+      </c>
+      <c r="W91" s="11">
+        <v>0</v>
       </c>
       <c r="X91" s="11">
         <v>0</v>
       </c>
       <c r="Y91" s="11">
-        <v>0</v>
+        <v>3360</v>
       </c>
       <c r="Z91" s="11">
-        <v>0</v>
+        <v>19422</v>
       </c>
       <c r="AA91" s="11">
-        <v>3360</v>
+        <v>15145</v>
       </c>
       <c r="AB91" s="11">
-        <v>19422</v>
+        <v>16992</v>
       </c>
       <c r="AC91" s="11">
-        <v>15145</v>
+        <v>11716</v>
       </c>
       <c r="AD91" s="11">
-        <v>16992</v>
+        <v>0</v>
       </c>
       <c r="AE91" s="11">
-        <v>11716</v>
-      </c>
-      <c r="AF91" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG91" s="11">
         <v>4769</v>
       </c>
+      <c r="AF91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG91" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH91" s="11" t="s">
         <v>58</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>74</v>
       </c>
@@ -12729,42 +12729,42 @@
       <c r="U92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V92" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W92" s="13" t="s">
-        <v>58</v>
+      <c r="V92" s="13">
+        <v>11142</v>
+      </c>
+      <c r="W92" s="13">
+        <v>9258</v>
       </c>
       <c r="X92" s="13">
-        <v>11142</v>
+        <v>28107</v>
       </c>
       <c r="Y92" s="13">
-        <v>9258</v>
+        <v>72924</v>
       </c>
       <c r="Z92" s="13">
-        <v>28107</v>
+        <v>100681</v>
       </c>
       <c r="AA92" s="13">
-        <v>72924</v>
+        <v>161004</v>
       </c>
       <c r="AB92" s="13">
-        <v>100681</v>
+        <v>178084</v>
       </c>
       <c r="AC92" s="13">
-        <v>161004</v>
+        <v>137314</v>
       </c>
       <c r="AD92" s="13">
-        <v>178084</v>
+        <v>56460</v>
       </c>
       <c r="AE92" s="13">
-        <v>137314</v>
-      </c>
-      <c r="AF92" s="13">
-        <v>56460</v>
-      </c>
-      <c r="AG92" s="13">
         <v>38640</v>
       </c>
+      <c r="AF92" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG92" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH92" s="13" t="s">
         <v>58</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
         <v>83</v>
       </c>
@@ -12887,106 +12887,106 @@
         <v>0</v>
       </c>
       <c r="V93" s="15">
-        <v>0</v>
+        <v>225660</v>
       </c>
       <c r="W93" s="15">
-        <v>0</v>
+        <v>234606</v>
       </c>
       <c r="X93" s="15">
-        <v>225660</v>
+        <v>604450</v>
       </c>
       <c r="Y93" s="15">
-        <v>234606</v>
+        <v>999886</v>
       </c>
       <c r="Z93" s="15">
-        <v>604450</v>
+        <v>1150613</v>
       </c>
       <c r="AA93" s="15">
-        <v>999886</v>
+        <v>1569842</v>
       </c>
       <c r="AB93" s="15">
-        <v>1150613</v>
+        <v>2375719</v>
       </c>
       <c r="AC93" s="15">
-        <v>1569842</v>
+        <v>2117037</v>
       </c>
       <c r="AD93" s="15">
-        <v>2375719</v>
+        <v>766386</v>
       </c>
       <c r="AE93" s="15">
-        <v>2117037</v>
+        <v>1212730</v>
       </c>
       <c r="AF93" s="15">
-        <v>766386</v>
+        <v>760645</v>
       </c>
       <c r="AG93" s="15">
-        <v>1212730</v>
+        <v>1019026</v>
       </c>
       <c r="AH93" s="15">
-        <v>760645</v>
+        <v>2295293</v>
       </c>
       <c r="AI93" s="15">
-        <v>1019026</v>
+        <v>2193152</v>
       </c>
       <c r="AJ93" s="15">
-        <v>2295293</v>
+        <v>1568729</v>
       </c>
       <c r="AK93" s="15">
-        <v>2193152</v>
+        <v>4711325</v>
       </c>
       <c r="AL93" s="15">
-        <v>1568729</v>
+        <v>3415875</v>
       </c>
       <c r="AM93" s="15">
-        <v>4711325</v>
+        <v>1908411</v>
       </c>
       <c r="AN93" s="15">
-        <v>3415875</v>
+        <v>6301729</v>
       </c>
       <c r="AO93" s="15">
-        <v>1908411</v>
+        <v>1016470</v>
       </c>
       <c r="AP93" s="15">
-        <v>6301729</v>
+        <v>1125933</v>
       </c>
       <c r="AQ93" s="15">
-        <v>1016470</v>
+        <v>3501955</v>
       </c>
       <c r="AR93" s="15">
-        <v>1125933</v>
+        <v>1939559</v>
       </c>
       <c r="AS93" s="15">
-        <v>3501955</v>
+        <v>2558050</v>
       </c>
       <c r="AT93" s="15">
-        <v>1939559</v>
+        <v>6499406</v>
       </c>
       <c r="AU93" s="15">
-        <v>2558050</v>
+        <v>5683493</v>
       </c>
       <c r="AV93" s="15">
-        <v>6499406</v>
+        <v>10696626</v>
       </c>
       <c r="AW93" s="15">
-        <v>5683493</v>
+        <v>4631749</v>
       </c>
       <c r="AX93" s="15">
-        <v>10696626</v>
+        <v>5374625</v>
       </c>
       <c r="AY93" s="15">
-        <v>4631749</v>
+        <v>4394338</v>
       </c>
       <c r="AZ93" s="15">
-        <v>5374625</v>
+        <v>3046139</v>
       </c>
       <c r="BA93" s="15">
-        <v>4394338</v>
+        <v>4067114</v>
       </c>
       <c r="BB93" s="15">
-        <v>3046139</v>
+        <v>2599304</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="16" t="s">
         <v>90</v>
       </c>
@@ -13043,7 +13043,7 @@
       <c r="BA94" s="17"/>
       <c r="BB94" s="17"/>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
         <v>77</v>
       </c>
@@ -13102,11 +13102,11 @@
       <c r="U95" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="V95" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W95" s="15" t="s">
-        <v>58</v>
+      <c r="V95" s="15">
+        <v>0</v>
+      </c>
+      <c r="W95" s="15">
+        <v>0</v>
       </c>
       <c r="X95" s="15">
         <v>0</v>
@@ -13202,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="16" t="s">
         <v>91</v>
       </c>
@@ -13259,7 +13259,7 @@
       <c r="BA96" s="17"/>
       <c r="BB96" s="17"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
         <v>85</v>
       </c>
@@ -13318,11 +13318,11 @@
       <c r="U97" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="V97" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W97" s="15" t="s">
-        <v>58</v>
+      <c r="V97" s="15">
+        <v>0</v>
+      </c>
+      <c r="W97" s="15">
+        <v>0</v>
       </c>
       <c r="X97" s="15">
         <v>0</v>
@@ -13418,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
         <v>92</v>
       </c>
@@ -13475,7 +13475,7 @@
       <c r="BA98" s="9"/>
       <c r="BB98" s="9"/>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>93</v>
       </c>
@@ -13534,17 +13534,17 @@
       <c r="U99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W99" s="11" t="s">
-        <v>58</v>
+      <c r="V99" s="11">
+        <v>0</v>
+      </c>
+      <c r="W99" s="11">
+        <v>-238</v>
       </c>
       <c r="X99" s="11">
         <v>0</v>
       </c>
       <c r="Y99" s="11">
-        <v>-238</v>
+        <v>0</v>
       </c>
       <c r="Z99" s="11">
         <v>0</v>
@@ -13574,37 +13574,37 @@
         <v>0</v>
       </c>
       <c r="AI99" s="11">
-        <v>0</v>
+        <v>-4469</v>
       </c>
       <c r="AJ99" s="11">
-        <v>0</v>
+        <v>-4759</v>
       </c>
       <c r="AK99" s="11">
-        <v>-4469</v>
+        <v>-3795</v>
       </c>
       <c r="AL99" s="11">
-        <v>-4759</v>
+        <v>-1713</v>
       </c>
       <c r="AM99" s="11">
-        <v>-3795</v>
+        <v>-5940</v>
       </c>
       <c r="AN99" s="11">
-        <v>-1713</v>
+        <v>-7451</v>
       </c>
       <c r="AO99" s="11">
-        <v>-5940</v>
+        <v>-8693</v>
       </c>
       <c r="AP99" s="11">
-        <v>-7451</v>
+        <v>-7060</v>
       </c>
       <c r="AQ99" s="11">
-        <v>-8693</v>
+        <v>-19</v>
       </c>
       <c r="AR99" s="11">
-        <v>-7060</v>
+        <v>0</v>
       </c>
       <c r="AS99" s="11">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="AT99" s="11">
         <v>0</v>
@@ -13622,19 +13622,19 @@
         <v>0</v>
       </c>
       <c r="AY99" s="11">
-        <v>0</v>
+        <v>-486</v>
       </c>
       <c r="AZ99" s="11">
-        <v>0</v>
+        <v>-830</v>
       </c>
       <c r="BA99" s="11">
-        <v>-486</v>
+        <v>-551</v>
       </c>
       <c r="BB99" s="11">
-        <v>-830</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="18" t="s">
         <v>78</v>
       </c>
@@ -13692,106 +13692,106 @@
         <v>0</v>
       </c>
       <c r="V100" s="19">
-        <v>0</v>
+        <v>592486</v>
       </c>
       <c r="W100" s="19">
-        <v>0</v>
+        <v>678602</v>
       </c>
       <c r="X100" s="19">
-        <v>592486</v>
+        <v>1387829</v>
       </c>
       <c r="Y100" s="19">
-        <v>678602</v>
+        <v>1566703</v>
       </c>
       <c r="Z100" s="19">
-        <v>1387829</v>
+        <v>2115451</v>
       </c>
       <c r="AA100" s="19">
-        <v>1566703</v>
+        <v>2610979</v>
       </c>
       <c r="AB100" s="19">
-        <v>2115451</v>
+        <v>3416778</v>
       </c>
       <c r="AC100" s="19">
-        <v>2610979</v>
+        <v>2704690</v>
       </c>
       <c r="AD100" s="19">
-        <v>3416778</v>
+        <v>1264748</v>
       </c>
       <c r="AE100" s="19">
-        <v>2704690</v>
+        <v>2686954</v>
       </c>
       <c r="AF100" s="19">
-        <v>1264748</v>
+        <v>2358066</v>
       </c>
       <c r="AG100" s="19">
-        <v>2686954</v>
+        <v>2731540</v>
       </c>
       <c r="AH100" s="19">
-        <v>2358066</v>
+        <v>3297277</v>
       </c>
       <c r="AI100" s="19">
-        <v>2731540</v>
+        <v>3460734</v>
       </c>
       <c r="AJ100" s="19">
-        <v>3297277</v>
+        <v>2641950</v>
       </c>
       <c r="AK100" s="19">
-        <v>3460734</v>
+        <v>6165972</v>
       </c>
       <c r="AL100" s="19">
-        <v>2641950</v>
+        <v>5342633</v>
       </c>
       <c r="AM100" s="19">
-        <v>6165972</v>
+        <v>4564880</v>
       </c>
       <c r="AN100" s="19">
-        <v>5342633</v>
+        <v>9612676</v>
       </c>
       <c r="AO100" s="19">
-        <v>4564880</v>
+        <v>3768577</v>
       </c>
       <c r="AP100" s="19">
-        <v>9612676</v>
+        <v>2906291</v>
       </c>
       <c r="AQ100" s="19">
-        <v>3768577</v>
+        <v>5131898</v>
       </c>
       <c r="AR100" s="19">
-        <v>2906291</v>
+        <v>4869790</v>
       </c>
       <c r="AS100" s="19">
-        <v>5131898</v>
+        <v>5839635</v>
       </c>
       <c r="AT100" s="19">
-        <v>4869790</v>
+        <v>9702296</v>
       </c>
       <c r="AU100" s="19">
-        <v>4961238</v>
+        <v>8219216</v>
       </c>
       <c r="AV100" s="19">
-        <v>9702296</v>
+        <v>11928978</v>
       </c>
       <c r="AW100" s="19">
-        <v>8219216</v>
+        <v>7010482</v>
       </c>
       <c r="AX100" s="19">
-        <v>11433123</v>
+        <v>7476155</v>
       </c>
       <c r="AY100" s="19">
-        <v>7010482</v>
+        <v>7011462</v>
       </c>
       <c r="AZ100" s="19">
-        <v>7476155</v>
+        <v>5365876</v>
       </c>
       <c r="BA100" s="19">
-        <v>7011462</v>
+        <v>4560815</v>
       </c>
       <c r="BB100" s="19">
-        <v>5365876</v>
+        <v>3219407</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -13846,7 +13846,7 @@
       <c r="BA101" s="1"/>
       <c r="BB101" s="1"/>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -13901,7 +13901,7 @@
       <c r="BA102" s="1"/>
       <c r="BB102" s="1"/>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -13956,7 +13956,7 @@
       <c r="BA103" s="1"/>
       <c r="BB103" s="1"/>
     </row>
-    <row r="104" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
         <v>94</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -14168,7 +14168,7 @@
       <c r="BA105" s="1"/>
       <c r="BB105" s="1"/>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
         <v>95</v>
       </c>
@@ -14225,7 +14225,7 @@
       <c r="BA106" s="9"/>
       <c r="BB106" s="9"/>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>59</v>
       </c>
@@ -14350,41 +14350,41 @@
       <c r="AQ107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS107" s="11" t="s">
-        <v>58</v>
+      <c r="AR107" s="11">
+        <v>133423308</v>
+      </c>
+      <c r="AS107" s="11">
+        <v>158177177</v>
       </c>
       <c r="AT107" s="11">
-        <v>133423308</v>
+        <v>191961665</v>
       </c>
       <c r="AU107" s="11">
-        <v>158177177</v>
+        <v>198862360</v>
       </c>
       <c r="AV107" s="11">
-        <v>191961665</v>
+        <v>196378590</v>
       </c>
       <c r="AW107" s="11">
-        <v>198862360</v>
+        <v>207307063</v>
       </c>
       <c r="AX107" s="11">
-        <v>196378590</v>
+        <v>211319352</v>
       </c>
       <c r="AY107" s="11">
-        <v>207307063</v>
+        <v>208547517</v>
       </c>
       <c r="AZ107" s="11">
-        <v>211319352</v>
+        <v>196778132</v>
       </c>
       <c r="BA107" s="11">
-        <v>208547517</v>
-      </c>
-      <c r="BB107" s="11">
-        <v>196778132</v>
+        <v>194420233</v>
+      </c>
+      <c r="BB107" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
         <v>60</v>
       </c>
@@ -14443,107 +14443,107 @@
       <c r="U108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W108" s="13" t="s">
-        <v>58</v>
+      <c r="V108" s="13">
+        <v>26426844</v>
+      </c>
+      <c r="W108" s="13">
+        <v>27245546</v>
       </c>
       <c r="X108" s="13">
-        <v>26426844</v>
+        <v>32822824</v>
       </c>
       <c r="Y108" s="13">
-        <v>27245546</v>
+        <v>35685916</v>
       </c>
       <c r="Z108" s="13">
-        <v>32822824</v>
+        <v>43738347</v>
       </c>
       <c r="AA108" s="13">
-        <v>35685916</v>
+        <v>49205665</v>
       </c>
       <c r="AB108" s="13">
-        <v>43738347</v>
+        <v>49670470</v>
       </c>
       <c r="AC108" s="13">
-        <v>49205665</v>
+        <v>48039806</v>
       </c>
       <c r="AD108" s="13">
-        <v>49670470</v>
+        <v>49715736</v>
       </c>
       <c r="AE108" s="13">
-        <v>48039806</v>
+        <v>53776766</v>
       </c>
       <c r="AF108" s="13">
-        <v>49715736</v>
+        <v>49043796</v>
       </c>
       <c r="AG108" s="13">
-        <v>53776766</v>
+        <v>58697277</v>
       </c>
       <c r="AH108" s="13">
-        <v>49043796</v>
+        <v>58507119</v>
       </c>
       <c r="AI108" s="13">
-        <v>58697277</v>
+        <v>75886957</v>
       </c>
       <c r="AJ108" s="13">
-        <v>58507119</v>
+        <v>82453115</v>
       </c>
       <c r="AK108" s="13">
-        <v>75886957</v>
+        <v>86666097</v>
       </c>
       <c r="AL108" s="13">
-        <v>82453115</v>
+        <v>96542857</v>
       </c>
       <c r="AM108" s="13">
-        <v>86666097</v>
+        <v>149441237</v>
       </c>
       <c r="AN108" s="13">
-        <v>96542857</v>
+        <v>166680628</v>
       </c>
       <c r="AO108" s="13">
-        <v>149441237</v>
+        <v>202693023</v>
       </c>
       <c r="AP108" s="13">
-        <v>166680628</v>
+        <v>154822642</v>
       </c>
       <c r="AQ108" s="13">
-        <v>202693023</v>
+        <v>118434599</v>
       </c>
       <c r="AR108" s="13">
-        <v>154822642</v>
+        <v>129312088</v>
       </c>
       <c r="AS108" s="13">
-        <v>118434599</v>
+        <v>193546112</v>
       </c>
       <c r="AT108" s="13">
-        <v>129312088</v>
+        <v>141006757</v>
       </c>
       <c r="AU108" s="13">
-        <v>193546112</v>
+        <v>123430924</v>
       </c>
       <c r="AV108" s="13">
-        <v>141006757</v>
+        <v>120248913</v>
       </c>
       <c r="AW108" s="13">
-        <v>123430924</v>
+        <v>137210359</v>
       </c>
       <c r="AX108" s="13">
-        <v>120248913</v>
+        <v>136586304</v>
       </c>
       <c r="AY108" s="13">
-        <v>137210359</v>
+        <v>126045455</v>
       </c>
       <c r="AZ108" s="13">
-        <v>136586304</v>
+        <v>128654880</v>
       </c>
       <c r="BA108" s="13">
-        <v>126045455</v>
+        <v>127225221</v>
       </c>
       <c r="BB108" s="13">
-        <v>128654880</v>
+        <v>115782656</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>63</v>
       </c>
@@ -14668,41 +14668,41 @@
       <c r="AQ109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR109" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS109" s="11" t="s">
-        <v>58</v>
+      <c r="AR109" s="11">
+        <v>589551920</v>
+      </c>
+      <c r="AS109" s="11">
+        <v>560061255</v>
       </c>
       <c r="AT109" s="11">
-        <v>589551920</v>
+        <v>564512071</v>
       </c>
       <c r="AU109" s="11">
-        <v>560061255</v>
+        <v>495605839</v>
       </c>
       <c r="AV109" s="11">
-        <v>564512071</v>
+        <v>451731272</v>
       </c>
       <c r="AW109" s="11">
-        <v>495605839</v>
+        <v>436777955</v>
       </c>
       <c r="AX109" s="11">
-        <v>451731272</v>
+        <v>422918755</v>
       </c>
       <c r="AY109" s="11">
-        <v>436777955</v>
+        <v>407655771</v>
       </c>
       <c r="AZ109" s="11">
-        <v>422918755</v>
+        <v>403583926</v>
       </c>
       <c r="BA109" s="11">
-        <v>407655771</v>
+        <v>413295833</v>
       </c>
       <c r="BB109" s="11">
-        <v>403583926</v>
+        <v>409916667</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
         <v>67</v>
       </c>
@@ -14764,75 +14764,75 @@
       <c r="V110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X110" s="13" t="s">
-        <v>58</v>
+      <c r="W110" s="13">
+        <v>19250000</v>
+      </c>
+      <c r="X110" s="13">
+        <v>23302977</v>
       </c>
       <c r="Y110" s="13">
-        <v>19250000</v>
+        <v>23948549</v>
       </c>
       <c r="Z110" s="13">
-        <v>23302977</v>
+        <v>27447409</v>
       </c>
       <c r="AA110" s="13">
-        <v>23948549</v>
+        <v>27455641</v>
       </c>
       <c r="AB110" s="13">
-        <v>27447409</v>
+        <v>28773563</v>
       </c>
       <c r="AC110" s="13">
-        <v>27455641</v>
-      </c>
-      <c r="AD110" s="13">
-        <v>28773563</v>
+        <v>28859223</v>
+      </c>
+      <c r="AD110" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE110" s="13">
-        <v>28859223</v>
-      </c>
-      <c r="AF110" s="13" t="s">
-        <v>58</v>
+        <v>33946721</v>
+      </c>
+      <c r="AF110" s="13">
+        <v>37508239</v>
       </c>
       <c r="AG110" s="13">
-        <v>33946721</v>
+        <v>46524727</v>
       </c>
       <c r="AH110" s="13">
-        <v>37508239</v>
+        <v>54257545</v>
       </c>
       <c r="AI110" s="13">
-        <v>46524727</v>
+        <v>65768698</v>
       </c>
       <c r="AJ110" s="13">
-        <v>54257545</v>
+        <v>70819076</v>
       </c>
       <c r="AK110" s="13">
-        <v>65768698</v>
+        <v>78570703</v>
       </c>
       <c r="AL110" s="13">
-        <v>70819076</v>
+        <v>81681741</v>
       </c>
       <c r="AM110" s="13">
-        <v>78570703</v>
+        <v>93947341</v>
       </c>
       <c r="AN110" s="13">
-        <v>81681741</v>
+        <v>121000812</v>
       </c>
       <c r="AO110" s="13">
-        <v>93947341</v>
+        <v>145177928</v>
       </c>
       <c r="AP110" s="13">
-        <v>121000812</v>
+        <v>148923828</v>
       </c>
       <c r="AQ110" s="13">
-        <v>145177928</v>
-      </c>
-      <c r="AR110" s="13">
-        <v>148923828</v>
-      </c>
-      <c r="AS110" s="13">
         <v>123974822</v>
       </c>
+      <c r="AR110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS110" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT110" s="13" t="s">
         <v>58</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>68</v>
       </c>
@@ -14920,107 +14920,107 @@
       <c r="U111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V111" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W111" s="11" t="s">
-        <v>58</v>
+      <c r="V111" s="11">
+        <v>22231640</v>
+      </c>
+      <c r="W111" s="11">
+        <v>22230070</v>
       </c>
       <c r="X111" s="11">
-        <v>22231640</v>
+        <v>22229290</v>
       </c>
       <c r="Y111" s="11">
-        <v>22230070</v>
+        <v>22228757</v>
       </c>
       <c r="Z111" s="11">
-        <v>22229290</v>
+        <v>35997443</v>
       </c>
       <c r="AA111" s="11">
-        <v>22228757</v>
+        <v>36000000</v>
       </c>
       <c r="AB111" s="11">
-        <v>35997443</v>
+        <v>35998918</v>
       </c>
       <c r="AC111" s="11">
-        <v>36000000</v>
+        <v>35997809</v>
       </c>
       <c r="AD111" s="11">
-        <v>35998918</v>
+        <v>35997689</v>
       </c>
       <c r="AE111" s="11">
-        <v>35997809</v>
+        <v>38405087</v>
       </c>
       <c r="AF111" s="11">
-        <v>35997689</v>
+        <v>43592251</v>
       </c>
       <c r="AG111" s="11">
-        <v>38405087</v>
+        <v>45609112</v>
       </c>
       <c r="AH111" s="11">
-        <v>43592251</v>
+        <v>42314175</v>
       </c>
       <c r="AI111" s="11">
-        <v>45609112</v>
+        <v>45998566</v>
       </c>
       <c r="AJ111" s="11">
-        <v>42314175</v>
+        <v>46000000</v>
       </c>
       <c r="AK111" s="11">
-        <v>45998566</v>
+        <v>48216111</v>
       </c>
       <c r="AL111" s="11">
-        <v>46000000</v>
+        <v>68299962</v>
       </c>
       <c r="AM111" s="11">
-        <v>48216111</v>
+        <v>68228068</v>
       </c>
       <c r="AN111" s="11">
-        <v>68299962</v>
+        <v>90231348</v>
       </c>
       <c r="AO111" s="11">
-        <v>68228068</v>
+        <v>90229008</v>
       </c>
       <c r="AP111" s="11">
-        <v>90231348</v>
+        <v>90233133</v>
       </c>
       <c r="AQ111" s="11">
-        <v>90229008</v>
+        <v>90228956</v>
       </c>
       <c r="AR111" s="11">
-        <v>90233133</v>
+        <v>145112004</v>
       </c>
       <c r="AS111" s="11">
-        <v>90228956</v>
+        <v>145111968</v>
       </c>
       <c r="AT111" s="11">
-        <v>145112004</v>
+        <v>116648999</v>
       </c>
       <c r="AU111" s="11">
-        <v>116648957</v>
+        <v>116643703</v>
       </c>
       <c r="AV111" s="11">
-        <v>116648999</v>
+        <v>116649200</v>
       </c>
       <c r="AW111" s="11">
-        <v>116643703</v>
+        <v>108603007</v>
       </c>
       <c r="AX111" s="11">
-        <v>108603263</v>
+        <v>108603039</v>
       </c>
       <c r="AY111" s="11">
-        <v>108603007</v>
+        <v>108606660</v>
       </c>
       <c r="AZ111" s="11">
-        <v>108603039</v>
-      </c>
-      <c r="BA111" s="11">
-        <v>108606660</v>
+        <v>108597280</v>
+      </c>
+      <c r="BA111" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB111" s="11">
-        <v>108597280</v>
+        <v>108603055</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
         <v>69</v>
       </c>
@@ -15079,78 +15079,78 @@
       <c r="U112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W112" s="13" t="s">
-        <v>58</v>
+      <c r="V112" s="13">
+        <v>181736305</v>
+      </c>
+      <c r="W112" s="13">
+        <v>181545543</v>
       </c>
       <c r="X112" s="13">
-        <v>181736305</v>
+        <v>192879004</v>
       </c>
       <c r="Y112" s="13">
-        <v>181545543</v>
+        <v>170436719</v>
       </c>
       <c r="Z112" s="13">
-        <v>192879004</v>
+        <v>221854500</v>
       </c>
       <c r="AA112" s="13">
-        <v>170436719</v>
+        <v>243842893</v>
       </c>
       <c r="AB112" s="13">
-        <v>221854500</v>
+        <v>268267672</v>
       </c>
       <c r="AC112" s="13">
-        <v>243842893</v>
+        <v>287628947</v>
       </c>
       <c r="AD112" s="13">
-        <v>268267672</v>
+        <v>347252302</v>
       </c>
       <c r="AE112" s="13">
-        <v>287628947</v>
+        <v>326023840</v>
       </c>
       <c r="AF112" s="13">
-        <v>347252302</v>
+        <v>324607417</v>
       </c>
       <c r="AG112" s="13">
-        <v>326023840</v>
+        <v>364907631</v>
       </c>
       <c r="AH112" s="13">
-        <v>324607417</v>
+        <v>372608939</v>
       </c>
       <c r="AI112" s="13">
-        <v>364907631</v>
+        <v>372375993</v>
       </c>
       <c r="AJ112" s="13">
-        <v>372608939</v>
+        <v>452259098</v>
       </c>
       <c r="AK112" s="13">
-        <v>372375993</v>
+        <v>497805471</v>
       </c>
       <c r="AL112" s="13">
-        <v>452259098</v>
+        <v>622362855</v>
       </c>
       <c r="AM112" s="13">
-        <v>497805471</v>
+        <v>882505863</v>
       </c>
       <c r="AN112" s="13">
-        <v>622362855</v>
+        <v>932076342</v>
       </c>
       <c r="AO112" s="13">
-        <v>882505863</v>
+        <v>711063457</v>
       </c>
       <c r="AP112" s="13">
-        <v>932076342</v>
+        <v>639606952</v>
       </c>
       <c r="AQ112" s="13">
-        <v>711063457</v>
-      </c>
-      <c r="AR112" s="13">
-        <v>639606952</v>
-      </c>
-      <c r="AS112" s="13">
         <v>665293147</v>
       </c>
+      <c r="AR112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS112" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT112" s="13" t="s">
         <v>58</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
         <v>97</v>
       </c>
@@ -15236,7 +15236,7 @@
       <c r="BA113" s="9"/>
       <c r="BB113" s="9"/>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
         <v>56</v>
       </c>
@@ -15325,77 +15325,77 @@
       <c r="AE114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF114" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG114" s="11" t="s">
-        <v>58</v>
+      <c r="AF114" s="11">
+        <v>65950891</v>
+      </c>
+      <c r="AG114" s="11">
+        <v>71357289</v>
       </c>
       <c r="AH114" s="11">
-        <v>65950891</v>
+        <v>60410944</v>
       </c>
       <c r="AI114" s="11">
-        <v>71357289</v>
+        <v>62160195</v>
       </c>
       <c r="AJ114" s="11">
-        <v>60410944</v>
+        <v>76316779</v>
       </c>
       <c r="AK114" s="11">
-        <v>62160195</v>
+        <v>85747278</v>
       </c>
       <c r="AL114" s="11">
-        <v>76316779</v>
+        <v>94690224</v>
       </c>
       <c r="AM114" s="11">
-        <v>85747278</v>
+        <v>101258866</v>
       </c>
       <c r="AN114" s="11">
-        <v>94690224</v>
+        <v>172564868</v>
       </c>
       <c r="AO114" s="11">
-        <v>101258866</v>
+        <v>194023311</v>
       </c>
       <c r="AP114" s="11">
-        <v>172564868</v>
+        <v>145565851</v>
       </c>
       <c r="AQ114" s="11">
-        <v>194023311</v>
+        <v>127111158</v>
       </c>
       <c r="AR114" s="11">
-        <v>145565851</v>
+        <v>133732913</v>
       </c>
       <c r="AS114" s="11">
-        <v>127111158</v>
+        <v>173718663</v>
       </c>
       <c r="AT114" s="11">
-        <v>133732913</v>
+        <v>147709834</v>
       </c>
       <c r="AU114" s="11">
-        <v>173718663</v>
+        <v>139114779</v>
       </c>
       <c r="AV114" s="11">
-        <v>147709834</v>
+        <v>131745292</v>
       </c>
       <c r="AW114" s="11">
-        <v>139114779</v>
+        <v>143308868</v>
       </c>
       <c r="AX114" s="11">
-        <v>131745292</v>
+        <v>157511238</v>
       </c>
       <c r="AY114" s="11">
-        <v>143308868</v>
+        <v>160721703</v>
       </c>
       <c r="AZ114" s="11">
-        <v>157511238</v>
+        <v>141395872</v>
       </c>
       <c r="BA114" s="11">
-        <v>160721703</v>
+        <v>134183928</v>
       </c>
       <c r="BB114" s="11">
-        <v>141395872</v>
+        <v>125643078</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
         <v>59</v>
       </c>
@@ -15484,77 +15484,77 @@
       <c r="AE115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF115" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG115" s="13" t="s">
-        <v>58</v>
+      <c r="AF115" s="13">
+        <v>30121673</v>
+      </c>
+      <c r="AG115" s="13">
+        <v>56372222</v>
       </c>
       <c r="AH115" s="13">
-        <v>30121673</v>
+        <v>52816514</v>
       </c>
       <c r="AI115" s="13">
-        <v>56372222</v>
-      </c>
-      <c r="AJ115" s="13">
-        <v>52816514</v>
+        <v>52092437</v>
+      </c>
+      <c r="AJ115" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK115" s="13">
-        <v>52092437</v>
-      </c>
-      <c r="AL115" s="13" t="s">
-        <v>58</v>
+        <v>68410256</v>
+      </c>
+      <c r="AL115" s="13">
+        <v>68883249</v>
       </c>
       <c r="AM115" s="13">
-        <v>68410256</v>
+        <v>81837995</v>
       </c>
       <c r="AN115" s="13">
-        <v>68883249</v>
+        <v>104864032</v>
       </c>
       <c r="AO115" s="13">
-        <v>81837995</v>
+        <v>144863118</v>
       </c>
       <c r="AP115" s="13">
-        <v>104864032</v>
+        <v>155899281</v>
       </c>
       <c r="AQ115" s="13">
-        <v>144863118</v>
+        <v>160825000</v>
       </c>
       <c r="AR115" s="13">
-        <v>155899281</v>
+        <v>186638655</v>
       </c>
       <c r="AS115" s="13">
-        <v>160825000</v>
+        <v>177030453</v>
       </c>
       <c r="AT115" s="13">
-        <v>186638655</v>
+        <v>175705918</v>
       </c>
       <c r="AU115" s="13">
-        <v>177030453</v>
+        <v>183320480</v>
       </c>
       <c r="AV115" s="13">
-        <v>175705918</v>
+        <v>189321750</v>
       </c>
       <c r="AW115" s="13">
-        <v>183320480</v>
+        <v>190808982</v>
       </c>
       <c r="AX115" s="13">
-        <v>189321750</v>
+        <v>200105000</v>
       </c>
       <c r="AY115" s="13">
-        <v>190808982</v>
+        <v>201991067</v>
       </c>
       <c r="AZ115" s="13">
-        <v>200105000</v>
+        <v>201699476</v>
       </c>
       <c r="BA115" s="13">
-        <v>201991067</v>
-      </c>
-      <c r="BB115" s="13">
-        <v>201699476</v>
+        <v>200998088</v>
+      </c>
+      <c r="BB115" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
         <v>72</v>
       </c>
@@ -15613,42 +15613,42 @@
       <c r="U116" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V116" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W116" s="11" t="s">
-        <v>58</v>
+      <c r="V116" s="11">
+        <v>28177854</v>
+      </c>
+      <c r="W116" s="11">
+        <v>29569348</v>
       </c>
       <c r="X116" s="11">
-        <v>28177854</v>
+        <v>33609925</v>
       </c>
       <c r="Y116" s="11">
-        <v>29569348</v>
+        <v>40153117</v>
       </c>
       <c r="Z116" s="11">
-        <v>33609925</v>
+        <v>46033682</v>
       </c>
       <c r="AA116" s="11">
-        <v>40153117</v>
+        <v>51906629</v>
       </c>
       <c r="AB116" s="11">
-        <v>46033682</v>
+        <v>54439859</v>
       </c>
       <c r="AC116" s="11">
-        <v>51906629</v>
+        <v>55904525</v>
       </c>
       <c r="AD116" s="11">
-        <v>54439859</v>
+        <v>50777913</v>
       </c>
       <c r="AE116" s="11">
-        <v>55904525</v>
-      </c>
-      <c r="AF116" s="11">
-        <v>50777913</v>
-      </c>
-      <c r="AG116" s="11">
         <v>55321048</v>
       </c>
+      <c r="AF116" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG116" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH116" s="11" t="s">
         <v>58</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
         <v>61</v>
       </c>
@@ -15802,77 +15802,77 @@
       <c r="AE117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF117" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG117" s="13" t="s">
-        <v>58</v>
+      <c r="AF117" s="13">
+        <v>423000000</v>
+      </c>
+      <c r="AG117" s="13">
+        <v>435864796</v>
       </c>
       <c r="AH117" s="13">
-        <v>423000000</v>
+        <v>439848435</v>
       </c>
       <c r="AI117" s="13">
-        <v>435864796</v>
+        <v>467676529</v>
       </c>
       <c r="AJ117" s="13">
-        <v>439848435</v>
+        <v>556074803</v>
       </c>
       <c r="AK117" s="13">
-        <v>467676529</v>
+        <v>585545297</v>
       </c>
       <c r="AL117" s="13">
-        <v>556074803</v>
+        <v>806267790</v>
       </c>
       <c r="AM117" s="13">
-        <v>585545297</v>
+        <v>940348740</v>
       </c>
       <c r="AN117" s="13">
-        <v>806267790</v>
+        <v>977012285</v>
       </c>
       <c r="AO117" s="13">
-        <v>940348740</v>
+        <v>883865000</v>
       </c>
       <c r="AP117" s="13">
-        <v>977012285</v>
+        <v>770870000</v>
       </c>
       <c r="AQ117" s="13">
-        <v>883865000</v>
+        <v>675433333</v>
       </c>
       <c r="AR117" s="13">
-        <v>770870000</v>
+        <v>686641026</v>
       </c>
       <c r="AS117" s="13">
-        <v>675433333</v>
+        <v>619376087</v>
       </c>
       <c r="AT117" s="13">
-        <v>686641026</v>
-      </c>
-      <c r="AU117" s="13">
-        <v>619376087</v>
-      </c>
-      <c r="AV117" s="13">
         <v>532742029</v>
       </c>
-      <c r="AW117" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX117" s="13">
-        <v>0</v>
+      <c r="AU117" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV117" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW117" s="13">
+        <v>440747492</v>
+      </c>
+      <c r="AX117" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY117" s="13">
-        <v>440747492</v>
-      </c>
-      <c r="AZ117" s="13" t="s">
-        <v>58</v>
+        <v>421626113</v>
+      </c>
+      <c r="AZ117" s="13">
+        <v>393853659</v>
       </c>
       <c r="BA117" s="13">
-        <v>421626113</v>
-      </c>
-      <c r="BB117" s="13">
-        <v>393853659</v>
+        <v>407635000</v>
+      </c>
+      <c r="BB117" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
         <v>73</v>
       </c>
@@ -15940,32 +15940,32 @@
       <c r="X118" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z118" s="11" t="s">
-        <v>58</v>
+      <c r="Y118" s="11">
+        <v>24172662</v>
+      </c>
+      <c r="Z118" s="11">
+        <v>25190661</v>
       </c>
       <c r="AA118" s="11">
-        <v>24172662</v>
+        <v>28957935</v>
       </c>
       <c r="AB118" s="11">
-        <v>25190661</v>
+        <v>32120983</v>
       </c>
       <c r="AC118" s="11">
-        <v>28957935</v>
-      </c>
-      <c r="AD118" s="11">
-        <v>32120983</v>
+        <v>32098630</v>
+      </c>
+      <c r="AD118" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE118" s="11">
-        <v>32098630</v>
+        <v>33584507</v>
       </c>
       <c r="AF118" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG118" s="11">
-        <v>33584507</v>
+      <c r="AG118" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH118" s="11" t="s">
         <v>58</v>
@@ -16031,7 +16031,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
         <v>74</v>
       </c>
@@ -16090,41 +16090,41 @@
       <c r="U119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W119" s="13" t="s">
-        <v>58</v>
+      <c r="V119" s="13">
+        <v>116062500</v>
+      </c>
+      <c r="W119" s="13">
+        <v>128583333</v>
       </c>
       <c r="X119" s="13">
-        <v>116062500</v>
+        <v>137779412</v>
       </c>
       <c r="Y119" s="13">
-        <v>128583333</v>
+        <v>147024194</v>
       </c>
       <c r="Z119" s="13">
-        <v>137779412</v>
+        <v>158303459</v>
       </c>
       <c r="AA119" s="13">
-        <v>147024194</v>
+        <v>199262376</v>
       </c>
       <c r="AB119" s="13">
-        <v>158303459</v>
+        <v>213019139</v>
       </c>
       <c r="AC119" s="13">
-        <v>199262376</v>
+        <v>276842742</v>
       </c>
       <c r="AD119" s="13">
-        <v>213019139</v>
+        <v>288061224</v>
       </c>
       <c r="AE119" s="13">
-        <v>276842742</v>
-      </c>
-      <c r="AF119" s="13">
-        <v>288061224</v>
-      </c>
-      <c r="AG119" s="13">
         <v>386400000</v>
+      </c>
+      <c r="AF119" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG119" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH119" s="13" t="s">
         <v>58</v>

--- a/database/industries/urea/khorasan/product/monthly_seprated.xlsx
+++ b/database/industries/urea/khorasan/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="98">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3323,110 +3323,110 @@
       <c r="S11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="13" t="s">
-        <v>58</v>
+      <c r="T11" s="13" t="n">
+        <v>15691</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>15691</v>
+        <v>32210</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>32210</v>
+        <v>53078</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>53078</v>
+        <v>53170</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>53170</v>
+        <v>51384</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>51384</v>
+        <v>51372</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>51372</v>
+        <v>50473</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>50473</v>
+        <v>27459</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>27459</v>
+        <v>29484</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>29484</v>
+        <v>51095</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>51095</v>
+        <v>53131</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>53131</v>
+        <v>53107</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>53107</v>
+        <v>53127</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>53127</v>
+        <v>53044</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>53044</v>
+        <v>53080</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>53080</v>
+        <v>49666</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>49666</v>
+        <v>51404</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>51404</v>
+        <v>51366</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>51366</v>
+        <v>51348</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>51348</v>
+        <v>45940</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>45940</v>
+        <v>5880</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>5880</v>
+        <v>47514</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>47514</v>
+        <v>52878</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>52878</v>
+        <v>52908</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>52908</v>
+        <v>52744</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>52744</v>
+        <v>52863</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>52863</v>
+        <v>52876</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>52876</v>
+        <v>52970</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>52970</v>
+        <v>49925</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>49925</v>
+        <v>50864</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>50864</v>
+        <v>43382</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>43382</v>
+        <v>20595</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>20595</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>0</v>
+        <v>33048</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>33048</v>
+        <v>52948</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3482,56 +3482,56 @@
       <c r="S12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="16" t="s">
-        <v>58</v>
+      <c r="T12" s="16" t="n">
+        <v>8460</v>
       </c>
       <c r="U12" s="16" t="n">
-        <v>8460</v>
+        <v>19051</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>19051</v>
+        <v>31516</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>31516</v>
+        <v>31366</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>31366</v>
+        <v>29980</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>29980</v>
+        <v>30070</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>30070</v>
+        <v>29493</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>29493</v>
+        <v>14118</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>14118</v>
+        <v>12740</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>12740</v>
+        <v>28960</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>28960</v>
+        <v>31008</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>31008</v>
+        <v>31043</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>31043</v>
+        <v>30170</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>30170</v>
+        <v>31002</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>31002</v>
+        <v>30993</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>30993</v>
+        <v>30938</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>30938</v>
+        <v>30000</v>
       </c>
       <c r="AK12" s="16" t="n">
         <v>30000</v>
@@ -3540,19 +3540,19 @@
         <v>30000</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>27000</v>
+        <v>2807</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>2807</v>
+        <v>27684</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>27684</v>
+        <v>31005</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>31005</v>
+        <v>31000</v>
       </c>
       <c r="AR12" s="16" t="n">
         <v>31000</v>
@@ -3564,28 +3564,28 @@
         <v>31000</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>31000</v>
+        <v>31040</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>31040</v>
+        <v>30000</v>
       </c>
       <c r="AW12" s="16" t="n">
         <v>30000</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>30000</v>
+        <v>26796</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>26796</v>
+        <v>12846</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>12846</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>0</v>
+        <v>20768</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>20768</v>
+        <v>31270</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,8 +3641,8 @@
       <c r="S13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="13" t="s">
-        <v>58</v>
+      <c r="T13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U13" s="13" t="n">
         <v>0</v>
@@ -3674,8 +3674,8 @@
       <c r="AD13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE13" s="13" t="n">
-        <v>0</v>
+      <c r="AE13" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF13" s="13" t="s">
         <v>58</v>
@@ -3707,8 +3707,8 @@
       <c r="AO13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP13" s="13" t="s">
-        <v>58</v>
+      <c r="AP13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ13" s="13" t="n">
         <v>0</v>
@@ -3800,56 +3800,56 @@
       <c r="S14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T14" s="16" t="s">
-        <v>58</v>
+      <c r="T14" s="16" t="n">
+        <v>589</v>
       </c>
       <c r="U14" s="16" t="n">
-        <v>589</v>
+        <v>1026</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>1026</v>
+        <v>1858</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>1858</v>
+        <v>1879</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>1879</v>
+        <v>1818</v>
       </c>
       <c r="Y14" s="16" t="n">
         <v>1818</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>1818</v>
+        <v>1808</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>1808</v>
+        <v>951</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>981</v>
+        <v>1804</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>1804</v>
+        <v>1881</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="AF14" s="16" t="n">
+        <v>1878</v>
+      </c>
+      <c r="AG14" s="16" t="n">
         <v>1879</v>
-      </c>
-      <c r="AG14" s="16" t="n">
-        <v>1878</v>
       </c>
       <c r="AH14" s="16" t="n">
         <v>1879</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>1879</v>
+        <v>1803</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>1803</v>
+        <v>1818</v>
       </c>
       <c r="AK14" s="16" t="n">
         <v>1818</v>
@@ -3858,52 +3858,52 @@
         <v>1818</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>1818</v>
+        <v>1576</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>1576</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>0</v>
+        <v>1434</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>1434</v>
+        <v>1879</v>
       </c>
       <c r="AQ14" s="16" t="n">
         <v>1879</v>
       </c>
       <c r="AR14" s="16" t="n">
+        <v>1697</v>
+      </c>
+      <c r="AS14" s="16" t="n">
         <v>1879</v>
-      </c>
-      <c r="AS14" s="16" t="n">
-        <v>1697</v>
       </c>
       <c r="AT14" s="16" t="n">
         <v>1879</v>
       </c>
       <c r="AU14" s="16" t="n">
+        <v>1880</v>
+      </c>
+      <c r="AV14" s="16" t="n">
+        <v>787</v>
+      </c>
+      <c r="AW14" s="16" t="n">
+        <v>1818</v>
+      </c>
+      <c r="AX14" s="16" t="n">
+        <v>888</v>
+      </c>
+      <c r="AY14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="16" t="n">
+        <v>912</v>
+      </c>
+      <c r="BB14" s="16" t="n">
         <v>1879</v>
-      </c>
-      <c r="AV14" s="16" t="n">
-        <v>1880</v>
-      </c>
-      <c r="AW14" s="16" t="n">
-        <v>787</v>
-      </c>
-      <c r="AX14" s="16" t="n">
-        <v>1818</v>
-      </c>
-      <c r="AY14" s="16" t="n">
-        <v>888</v>
-      </c>
-      <c r="AZ14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="16" t="n">
-        <v>912</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3959,8 +3959,8 @@
       <c r="S15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T15" s="13" t="s">
-        <v>58</v>
+      <c r="T15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U15" s="13" t="n">
         <v>0</v>
@@ -3989,8 +3989,8 @@
       <c r="AC15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD15" s="13" t="n">
-        <v>0</v>
+      <c r="AD15" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE15" s="13" t="s">
         <v>58</v>
@@ -4184,8 +4184,8 @@
       <c r="AO16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP16" s="16" t="s">
-        <v>58</v>
+      <c r="AP16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ16" s="16" t="n">
         <v>0</v>
@@ -4277,110 +4277,110 @@
       <c r="S17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="13" t="s">
-        <v>58</v>
+      <c r="T17" s="13" t="n">
+        <v>7920</v>
       </c>
       <c r="U17" s="13" t="n">
-        <v>7920</v>
+        <v>16402</v>
       </c>
       <c r="V17" s="13" t="n">
-        <v>16402</v>
+        <v>27179</v>
       </c>
       <c r="W17" s="13" t="n">
-        <v>27179</v>
+        <v>27207</v>
       </c>
       <c r="X17" s="13" t="n">
-        <v>27207</v>
+        <v>26204</v>
       </c>
       <c r="Y17" s="13" t="n">
-        <v>26204</v>
+        <v>26181</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>26181</v>
+        <v>25679</v>
       </c>
       <c r="AA17" s="13" t="n">
-        <v>25679</v>
+        <v>13270</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>13270</v>
+        <v>14863</v>
       </c>
       <c r="AC17" s="13" t="n">
-        <v>14863</v>
+        <v>25947</v>
       </c>
       <c r="AD17" s="13" t="n">
-        <v>25947</v>
+        <v>27097</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>27097</v>
+        <v>27075</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>27075</v>
+        <v>27096</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>27096</v>
+        <v>27199</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>27199</v>
+        <v>27242</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>27242</v>
+        <v>25376</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>25376</v>
+        <v>26327</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>26327</v>
+        <v>26286</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>26286</v>
+        <v>26277</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>26277</v>
+        <v>23636</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>23636</v>
+        <v>3365</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>3365</v>
+        <v>24208</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>24208</v>
+        <v>27054</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>27054</v>
+        <v>27039</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>27039</v>
+        <v>27040</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>27040</v>
+        <v>26985</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>26985</v>
+        <v>27032</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>27032</v>
+        <v>27152</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>27152</v>
+        <v>27000</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>27000</v>
+        <v>26330</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>26330</v>
+        <v>23462</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>23462</v>
+        <v>11923</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>11923</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>0</v>
+        <v>16794</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>16794</v>
+        <v>27148</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,110 +4436,110 @@
       <c r="S18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="16" t="s">
-        <v>58</v>
+      <c r="T18" s="16" t="n">
+        <v>1800</v>
       </c>
       <c r="U18" s="16" t="n">
-        <v>1800</v>
+        <v>3377</v>
       </c>
       <c r="V18" s="16" t="n">
-        <v>3377</v>
+        <v>5983</v>
       </c>
       <c r="W18" s="16" t="n">
-        <v>5983</v>
+        <v>6033</v>
       </c>
       <c r="X18" s="16" t="n">
-        <v>6033</v>
+        <v>5844</v>
       </c>
       <c r="Y18" s="16" t="n">
         <v>5844</v>
       </c>
       <c r="Z18" s="16" t="n">
-        <v>5844</v>
+        <v>5739</v>
       </c>
       <c r="AA18" s="16" t="n">
-        <v>5739</v>
+        <v>2958</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>2958</v>
+        <v>3220</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>3220</v>
+        <v>5740</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>5740</v>
+        <v>6076</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>6076</v>
+        <v>6078</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>6078</v>
+        <v>6087</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>6087</v>
+        <v>5985</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>5985</v>
+        <v>5980</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>5980</v>
+        <v>5745</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>5745</v>
+        <v>5820</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>5820</v>
+        <v>5814</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>5814</v>
+        <v>5822</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>5822</v>
+        <v>5051</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>5051</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="16" t="n">
-        <v>0</v>
+        <v>4566</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>4566</v>
+        <v>6049</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>6049</v>
+        <v>6043</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>6043</v>
+        <v>5427</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>5427</v>
+        <v>6002</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>6002</v>
+        <v>6033</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>6033</v>
+        <v>6066</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>6066</v>
+        <v>2698</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>2698</v>
+        <v>5862</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>5862</v>
+        <v>2897</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>2897</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>0</v>
+        <v>2954</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>2954</v>
+        <v>6117</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4595,110 +4595,110 @@
       <c r="S19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T19" s="13" t="s">
-        <v>58</v>
+      <c r="T19" s="13" t="n">
+        <v>512</v>
       </c>
       <c r="U19" s="13" t="n">
-        <v>512</v>
+        <v>857</v>
       </c>
       <c r="V19" s="13" t="n">
-        <v>857</v>
+        <v>1360</v>
       </c>
       <c r="W19" s="13" t="n">
-        <v>1360</v>
+        <v>1395</v>
       </c>
       <c r="X19" s="13" t="n">
-        <v>1395</v>
+        <v>1356</v>
       </c>
       <c r="Y19" s="13" t="n">
-        <v>1356</v>
+        <v>1367</v>
       </c>
       <c r="Z19" s="13" t="n">
-        <v>1367</v>
+        <v>1403</v>
       </c>
       <c r="AA19" s="13" t="n">
-        <v>1403</v>
+        <v>977</v>
       </c>
       <c r="AB19" s="13" t="n">
-        <v>977</v>
+        <v>806</v>
       </c>
       <c r="AC19" s="13" t="n">
-        <v>806</v>
+        <v>1334</v>
       </c>
       <c r="AD19" s="13" t="n">
-        <v>1334</v>
+        <v>1397</v>
       </c>
       <c r="AE19" s="13" t="n">
-        <v>1397</v>
+        <v>1412</v>
       </c>
       <c r="AF19" s="13" t="n">
-        <v>1412</v>
+        <v>1420</v>
       </c>
       <c r="AG19" s="13" t="n">
-        <v>1420</v>
+        <v>1346</v>
       </c>
       <c r="AH19" s="13" t="n">
-        <v>1346</v>
+        <v>1332</v>
       </c>
       <c r="AI19" s="13" t="n">
-        <v>1332</v>
+        <v>1316</v>
       </c>
       <c r="AJ19" s="13" t="n">
-        <v>1316</v>
+        <v>1289</v>
       </c>
       <c r="AK19" s="13" t="n">
-        <v>1289</v>
+        <v>1345</v>
       </c>
       <c r="AL19" s="13" t="n">
-        <v>1345</v>
+        <v>1355</v>
       </c>
       <c r="AM19" s="13" t="n">
-        <v>1355</v>
+        <v>1272</v>
       </c>
       <c r="AN19" s="13" t="n">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="13" t="n">
-        <v>0</v>
+        <v>1205</v>
       </c>
       <c r="AP19" s="13" t="n">
-        <v>1205</v>
+        <v>1341</v>
       </c>
       <c r="AQ19" s="13" t="n">
-        <v>1341</v>
+        <v>1350</v>
       </c>
       <c r="AR19" s="13" t="n">
+        <v>1331</v>
+      </c>
+      <c r="AS19" s="13" t="n">
+        <v>1366</v>
+      </c>
+      <c r="AT19" s="13" t="n">
+        <v>1380</v>
+      </c>
+      <c r="AU19" s="13" t="n">
         <v>1350</v>
       </c>
-      <c r="AS19" s="13" t="n">
-        <v>1331</v>
-      </c>
-      <c r="AT19" s="13" t="n">
-        <v>1366</v>
-      </c>
-      <c r="AU19" s="13" t="n">
-        <v>1380</v>
-      </c>
       <c r="AV19" s="13" t="n">
-        <v>1350</v>
+        <v>762</v>
       </c>
       <c r="AW19" s="13" t="n">
-        <v>762</v>
+        <v>1260</v>
       </c>
       <c r="AX19" s="13" t="n">
-        <v>1260</v>
+        <v>757</v>
       </c>
       <c r="AY19" s="13" t="n">
-        <v>757</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="13" t="n">
         <v>0</v>
       </c>
       <c r="BA19" s="13" t="n">
-        <v>0</v>
+        <v>779</v>
       </c>
       <c r="BB19" s="13" t="n">
-        <v>779</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4754,8 +4754,8 @@
       <c r="S20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="16" t="s">
-        <v>58</v>
+      <c r="T20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U20" s="16" t="n">
         <v>0</v>
@@ -4787,8 +4787,8 @@
       <c r="AD20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE20" s="16" t="n">
-        <v>0</v>
+      <c r="AE20" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF20" s="16" t="s">
         <v>58</v>
@@ -4913,8 +4913,8 @@
       <c r="S21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="13" t="s">
-        <v>58</v>
+      <c r="T21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U21" s="13" t="n">
         <v>0</v>
@@ -4946,8 +4946,8 @@
       <c r="AD21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" s="13" t="n">
-        <v>0</v>
+      <c r="AE21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF21" s="13" t="s">
         <v>58</v>
@@ -4979,8 +4979,8 @@
       <c r="AO21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP21" s="13" t="s">
-        <v>58</v>
+      <c r="AP21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ21" s="13" t="n">
         <v>0</v>
@@ -5072,8 +5072,8 @@
       <c r="S22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T22" s="16" t="s">
-        <v>58</v>
+      <c r="T22" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U22" s="16" t="n">
         <v>0</v>
@@ -5105,8 +5105,8 @@
       <c r="AD22" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE22" s="16" t="n">
-        <v>0</v>
+      <c r="AE22" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF22" s="16" t="s">
         <v>58</v>
@@ -5230,109 +5230,109 @@
         <v>0</v>
       </c>
       <c r="T23" s="18" t="n">
-        <v>0</v>
+        <v>34972</v>
       </c>
       <c r="U23" s="18" t="n">
-        <v>34972</v>
+        <v>72923</v>
       </c>
       <c r="V23" s="18" t="n">
-        <v>72923</v>
+        <v>120974</v>
       </c>
       <c r="W23" s="18" t="n">
-        <v>120974</v>
+        <v>121050</v>
       </c>
       <c r="X23" s="18" t="n">
-        <v>121050</v>
+        <v>116586</v>
       </c>
       <c r="Y23" s="18" t="n">
-        <v>116586</v>
+        <v>116652</v>
       </c>
       <c r="Z23" s="18" t="n">
-        <v>116652</v>
+        <v>114595</v>
       </c>
       <c r="AA23" s="18" t="n">
-        <v>114595</v>
+        <v>59733</v>
       </c>
       <c r="AB23" s="18" t="n">
-        <v>59733</v>
+        <v>62094</v>
       </c>
       <c r="AC23" s="18" t="n">
-        <v>62094</v>
+        <v>114880</v>
       </c>
       <c r="AD23" s="18" t="n">
-        <v>114880</v>
+        <v>120590</v>
       </c>
       <c r="AE23" s="18" t="n">
-        <v>120590</v>
+        <v>120594</v>
       </c>
       <c r="AF23" s="18" t="n">
-        <v>120594</v>
+        <v>119778</v>
       </c>
       <c r="AG23" s="18" t="n">
-        <v>119778</v>
+        <v>120455</v>
       </c>
       <c r="AH23" s="18" t="n">
-        <v>120455</v>
+        <v>120506</v>
       </c>
       <c r="AI23" s="18" t="n">
-        <v>120506</v>
+        <v>114844</v>
       </c>
       <c r="AJ23" s="18" t="n">
-        <v>114844</v>
+        <v>116658</v>
       </c>
       <c r="AK23" s="18" t="n">
-        <v>116658</v>
+        <v>116629</v>
       </c>
       <c r="AL23" s="18" t="n">
-        <v>116629</v>
+        <v>116620</v>
       </c>
       <c r="AM23" s="18" t="n">
-        <v>116620</v>
+        <v>104475</v>
       </c>
       <c r="AN23" s="18" t="n">
-        <v>104475</v>
+        <v>12052</v>
       </c>
       <c r="AO23" s="18" t="n">
-        <v>12052</v>
+        <v>106611</v>
       </c>
       <c r="AP23" s="18" t="n">
-        <v>106611</v>
+        <v>120206</v>
       </c>
       <c r="AQ23" s="18" t="n">
-        <v>120206</v>
+        <v>120219</v>
       </c>
       <c r="AR23" s="18" t="n">
-        <v>120219</v>
+        <v>119239</v>
       </c>
       <c r="AS23" s="18" t="n">
-        <v>119239</v>
+        <v>120095</v>
       </c>
       <c r="AT23" s="18" t="n">
-        <v>120095</v>
+        <v>120200</v>
       </c>
       <c r="AU23" s="18" t="n">
-        <v>120200</v>
+        <v>120458</v>
       </c>
       <c r="AV23" s="18" t="n">
-        <v>120458</v>
+        <v>111172</v>
       </c>
       <c r="AW23" s="18" t="n">
-        <v>111172</v>
+        <v>116134</v>
       </c>
       <c r="AX23" s="18" t="n">
-        <v>116134</v>
+        <v>98182</v>
       </c>
       <c r="AY23" s="18" t="n">
-        <v>98182</v>
+        <v>45364</v>
       </c>
       <c r="AZ23" s="18" t="n">
-        <v>45364</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="18" t="n">
-        <v>0</v>
+        <v>75255</v>
       </c>
       <c r="BB23" s="18" t="n">
-        <v>75255</v>
+        <v>120664</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,11 +5475,11 @@
       <c r="AC25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE25" s="13" t="n">
-        <v>0</v>
+      <c r="AD25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF25" s="13" t="s">
         <v>58</v>
@@ -5511,8 +5511,8 @@
       <c r="AO25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP25" s="13" t="s">
-        <v>58</v>
+      <c r="AP25" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ25" s="13" t="n">
         <v>0</v>
@@ -5634,11 +5634,11 @@
       <c r="AC26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD26" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE26" s="16" t="n">
-        <v>0</v>
+      <c r="AD26" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF26" s="16" t="s">
         <v>58</v>
@@ -5670,8 +5670,8 @@
       <c r="AO26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP26" s="16" t="s">
-        <v>58</v>
+      <c r="AP26" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ26" s="16" t="n">
         <v>0</v>
@@ -5763,8 +5763,8 @@
       <c r="S27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T27" s="13" t="s">
-        <v>58</v>
+      <c r="T27" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U27" s="13" t="n">
         <v>0</v>
@@ -5793,8 +5793,8 @@
       <c r="AC27" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD27" s="13" t="n">
-        <v>0</v>
+      <c r="AD27" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE27" s="13" t="s">
         <v>58</v>
@@ -5952,11 +5952,11 @@
       <c r="AC28" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD28" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE28" s="16" t="n">
-        <v>0</v>
+      <c r="AD28" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF28" s="16" t="s">
         <v>58</v>
@@ -5988,8 +5988,8 @@
       <c r="AO28" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP28" s="16" t="s">
-        <v>58</v>
+      <c r="AP28" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ28" s="16" t="n">
         <v>0</v>
@@ -6081,8 +6081,8 @@
       <c r="S29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T29" s="13" t="s">
-        <v>58</v>
+      <c r="T29" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U29" s="13" t="n">
         <v>0</v>
@@ -6111,8 +6111,8 @@
       <c r="AC29" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD29" s="13" t="n">
-        <v>0</v>
+      <c r="AD29" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE29" s="13" t="s">
         <v>58</v>
@@ -6240,8 +6240,8 @@
       <c r="S30" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T30" s="16" t="s">
-        <v>58</v>
+      <c r="T30" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U30" s="16" t="n">
         <v>0</v>
@@ -6270,8 +6270,8 @@
       <c r="AC30" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD30" s="16" t="n">
-        <v>0</v>
+      <c r="AD30" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE30" s="16" t="s">
         <v>58</v>
@@ -6611,8 +6611,8 @@
       <c r="S33" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="T33" s="18" t="s">
-        <v>58</v>
+      <c r="T33" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="U33" s="18" t="n">
         <v>0</v>
@@ -6769,109 +6769,109 @@
         <v>0</v>
       </c>
       <c r="T34" s="22" t="n">
-        <v>0</v>
+        <v>34972</v>
       </c>
       <c r="U34" s="22" t="n">
-        <v>34972</v>
+        <v>72923</v>
       </c>
       <c r="V34" s="22" t="n">
-        <v>72923</v>
+        <v>120974</v>
       </c>
       <c r="W34" s="22" t="n">
-        <v>120974</v>
+        <v>121050</v>
       </c>
       <c r="X34" s="22" t="n">
-        <v>121050</v>
+        <v>116586</v>
       </c>
       <c r="Y34" s="22" t="n">
-        <v>116586</v>
+        <v>116652</v>
       </c>
       <c r="Z34" s="22" t="n">
-        <v>116652</v>
+        <v>114595</v>
       </c>
       <c r="AA34" s="22" t="n">
-        <v>114595</v>
+        <v>59733</v>
       </c>
       <c r="AB34" s="22" t="n">
-        <v>59733</v>
+        <v>62094</v>
       </c>
       <c r="AC34" s="22" t="n">
-        <v>62094</v>
+        <v>114880</v>
       </c>
       <c r="AD34" s="22" t="n">
-        <v>114880</v>
+        <v>120590</v>
       </c>
       <c r="AE34" s="22" t="n">
-        <v>120590</v>
+        <v>120594</v>
       </c>
       <c r="AF34" s="22" t="n">
-        <v>120594</v>
+        <v>119778</v>
       </c>
       <c r="AG34" s="22" t="n">
-        <v>119778</v>
+        <v>120455</v>
       </c>
       <c r="AH34" s="22" t="n">
-        <v>120455</v>
+        <v>120506</v>
       </c>
       <c r="AI34" s="22" t="n">
-        <v>120506</v>
+        <v>114844</v>
       </c>
       <c r="AJ34" s="22" t="n">
-        <v>114844</v>
+        <v>116658</v>
       </c>
       <c r="AK34" s="22" t="n">
-        <v>116658</v>
+        <v>116629</v>
       </c>
       <c r="AL34" s="22" t="n">
-        <v>116629</v>
+        <v>116620</v>
       </c>
       <c r="AM34" s="22" t="n">
-        <v>116620</v>
+        <v>104475</v>
       </c>
       <c r="AN34" s="22" t="n">
-        <v>104475</v>
+        <v>12052</v>
       </c>
       <c r="AO34" s="22" t="n">
-        <v>12052</v>
+        <v>106611</v>
       </c>
       <c r="AP34" s="22" t="n">
-        <v>106611</v>
+        <v>120206</v>
       </c>
       <c r="AQ34" s="22" t="n">
-        <v>120206</v>
+        <v>120219</v>
       </c>
       <c r="AR34" s="22" t="n">
-        <v>120219</v>
+        <v>119239</v>
       </c>
       <c r="AS34" s="22" t="n">
-        <v>119239</v>
+        <v>120095</v>
       </c>
       <c r="AT34" s="22" t="n">
-        <v>120095</v>
+        <v>120200</v>
       </c>
       <c r="AU34" s="22" t="n">
-        <v>120200</v>
+        <v>120458</v>
       </c>
       <c r="AV34" s="22" t="n">
-        <v>120458</v>
+        <v>111172</v>
       </c>
       <c r="AW34" s="22" t="n">
-        <v>111172</v>
+        <v>116134</v>
       </c>
       <c r="AX34" s="22" t="n">
-        <v>116134</v>
+        <v>98182</v>
       </c>
       <c r="AY34" s="22" t="n">
-        <v>98182</v>
+        <v>45364</v>
       </c>
       <c r="AZ34" s="22" t="n">
-        <v>45364</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="22" t="n">
-        <v>0</v>
+        <v>75255</v>
       </c>
       <c r="BB34" s="22" t="n">
-        <v>75255</v>
+        <v>120664</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7361,8 +7361,8 @@
       <c r="S41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T41" s="13" t="s">
-        <v>58</v>
+      <c r="T41" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U41" s="13" t="n">
         <v>0</v>
@@ -7394,8 +7394,8 @@
       <c r="AD41" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE41" s="13" t="n">
-        <v>0</v>
+      <c r="AE41" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF41" s="13" t="s">
         <v>58</v>
@@ -7427,8 +7427,8 @@
       <c r="AO41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP41" s="13" t="s">
-        <v>58</v>
+      <c r="AP41" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ41" s="13" t="n">
         <v>0</v>
@@ -7520,8 +7520,8 @@
       <c r="S42" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T42" s="16" t="s">
-        <v>58</v>
+      <c r="T42" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U42" s="16" t="n">
         <v>0</v>
@@ -7553,8 +7553,8 @@
       <c r="AD42" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE42" s="16" t="n">
-        <v>0</v>
+      <c r="AE42" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF42" s="16" t="s">
         <v>58</v>
@@ -7586,44 +7586,44 @@
       <c r="AO42" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP42" s="16" t="s">
-        <v>58</v>
+      <c r="AP42" s="16" t="n">
+        <v>1330</v>
       </c>
       <c r="AQ42" s="16" t="n">
-        <v>1330</v>
+        <v>999</v>
       </c>
       <c r="AR42" s="16" t="n">
-        <v>999</v>
+        <v>913</v>
       </c>
       <c r="AS42" s="16" t="n">
-        <v>913</v>
+        <v>712</v>
       </c>
       <c r="AT42" s="16" t="n">
-        <v>712</v>
+        <v>766</v>
       </c>
       <c r="AU42" s="16" t="n">
-        <v>766</v>
+        <v>940</v>
       </c>
       <c r="AV42" s="16" t="n">
-        <v>940</v>
+        <v>1359</v>
       </c>
       <c r="AW42" s="16" t="n">
-        <v>1359</v>
+        <v>1631</v>
       </c>
       <c r="AX42" s="16" t="n">
-        <v>1631</v>
+        <v>942</v>
       </c>
       <c r="AY42" s="16" t="n">
-        <v>942</v>
+        <v>771</v>
       </c>
       <c r="AZ42" s="16" t="n">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="16" t="n">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="BB42" s="16" t="n">
-        <v>1530</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7679,110 +7679,110 @@
       <c r="S43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T43" s="13" t="s">
-        <v>58</v>
+      <c r="T43" s="13" t="n">
+        <v>827</v>
       </c>
       <c r="U43" s="13" t="n">
-        <v>827</v>
+        <v>1291</v>
       </c>
       <c r="V43" s="13" t="n">
-        <v>1291</v>
+        <v>4250</v>
       </c>
       <c r="W43" s="13" t="n">
-        <v>4250</v>
+        <v>3394</v>
       </c>
       <c r="X43" s="13" t="n">
-        <v>3394</v>
+        <v>1609</v>
       </c>
       <c r="Y43" s="13" t="n">
-        <v>1609</v>
+        <v>3248</v>
       </c>
       <c r="Z43" s="13" t="n">
-        <v>3248</v>
+        <v>2191</v>
       </c>
       <c r="AA43" s="13" t="n">
-        <v>2191</v>
+        <v>1030</v>
       </c>
       <c r="AB43" s="13" t="n">
-        <v>1030</v>
+        <v>591</v>
       </c>
       <c r="AC43" s="13" t="n">
-        <v>591</v>
+        <v>2746</v>
       </c>
       <c r="AD43" s="13" t="n">
-        <v>2746</v>
+        <v>2603</v>
       </c>
       <c r="AE43" s="13" t="n">
-        <v>2603</v>
+        <v>1579</v>
       </c>
       <c r="AF43" s="13" t="n">
-        <v>1579</v>
+        <v>913</v>
       </c>
       <c r="AG43" s="13" t="n">
-        <v>913</v>
+        <v>230</v>
       </c>
       <c r="AH43" s="13" t="n">
-        <v>230</v>
+        <v>1589</v>
       </c>
       <c r="AI43" s="13" t="n">
-        <v>1589</v>
+        <v>1755</v>
       </c>
       <c r="AJ43" s="13" t="n">
-        <v>1755</v>
+        <v>385</v>
       </c>
       <c r="AK43" s="13" t="n">
-        <v>385</v>
+        <v>1940</v>
       </c>
       <c r="AL43" s="13" t="n">
-        <v>1940</v>
+        <v>955</v>
       </c>
       <c r="AM43" s="13" t="n">
-        <v>955</v>
+        <v>430</v>
       </c>
       <c r="AN43" s="13" t="n">
-        <v>430</v>
+        <v>265</v>
       </c>
       <c r="AO43" s="13" t="n">
-        <v>265</v>
+        <v>474</v>
       </c>
       <c r="AP43" s="13" t="n">
-        <v>474</v>
+        <v>910</v>
       </c>
       <c r="AQ43" s="13" t="n">
-        <v>910</v>
+        <v>553</v>
       </c>
       <c r="AR43" s="13" t="n">
-        <v>553</v>
+        <v>296</v>
       </c>
       <c r="AS43" s="13" t="n">
-        <v>296</v>
+        <v>2975</v>
       </c>
       <c r="AT43" s="13" t="n">
-        <v>2975</v>
+        <v>920</v>
       </c>
       <c r="AU43" s="13" t="n">
-        <v>920</v>
+        <v>110</v>
       </c>
       <c r="AV43" s="13" t="n">
-        <v>110</v>
+        <v>1066</v>
       </c>
       <c r="AW43" s="13" t="n">
-        <v>1066</v>
+        <v>594</v>
       </c>
       <c r="AX43" s="13" t="n">
-        <v>594</v>
+        <v>4242</v>
       </c>
       <c r="AY43" s="13" t="n">
-        <v>4242</v>
+        <v>1927</v>
       </c>
       <c r="AZ43" s="13" t="n">
-        <v>1927</v>
+        <v>911</v>
       </c>
       <c r="BA43" s="13" t="n">
-        <v>911</v>
+        <v>1009</v>
       </c>
       <c r="BB43" s="13" t="n">
-        <v>1009</v>
+        <v>985</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7838,8 +7838,8 @@
       <c r="S44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T44" s="16" t="s">
-        <v>58</v>
+      <c r="T44" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U44" s="16" t="n">
         <v>0</v>
@@ -7871,8 +7871,8 @@
       <c r="AD44" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE44" s="16" t="n">
-        <v>0</v>
+      <c r="AE44" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF44" s="16" t="s">
         <v>58</v>
@@ -7904,8 +7904,8 @@
       <c r="AO44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP44" s="16" t="s">
-        <v>58</v>
+      <c r="AP44" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ44" s="16" t="n">
         <v>0</v>
@@ -7997,8 +7997,8 @@
       <c r="S45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T45" s="13" t="s">
-        <v>58</v>
+      <c r="T45" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U45" s="13" t="n">
         <v>0</v>
@@ -8027,8 +8027,8 @@
       <c r="AC45" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD45" s="13" t="n">
-        <v>0</v>
+      <c r="AD45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE45" s="13" t="s">
         <v>58</v>
@@ -8222,44 +8222,44 @@
       <c r="AO46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP46" s="16" t="s">
-        <v>58</v>
+      <c r="AP46" s="16" t="n">
+        <v>703</v>
       </c>
       <c r="AQ46" s="16" t="n">
-        <v>703</v>
+        <v>1355</v>
       </c>
       <c r="AR46" s="16" t="n">
-        <v>1355</v>
+        <v>1574</v>
       </c>
       <c r="AS46" s="16" t="n">
-        <v>1574</v>
+        <v>1507</v>
       </c>
       <c r="AT46" s="16" t="n">
-        <v>1507</v>
+        <v>1682</v>
       </c>
       <c r="AU46" s="16" t="n">
-        <v>1682</v>
+        <v>1252</v>
       </c>
       <c r="AV46" s="16" t="n">
-        <v>1252</v>
+        <v>1157</v>
       </c>
       <c r="AW46" s="16" t="n">
-        <v>1157</v>
+        <v>1499</v>
       </c>
       <c r="AX46" s="16" t="n">
-        <v>1499</v>
+        <v>1406</v>
       </c>
       <c r="AY46" s="16" t="n">
-        <v>1406</v>
+        <v>240</v>
       </c>
       <c r="AZ46" s="16" t="n">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="BA46" s="16" t="n">
-        <v>24</v>
+        <v>541</v>
       </c>
       <c r="BB46" s="16" t="n">
-        <v>541</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8315,8 +8315,8 @@
       <c r="S47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T47" s="13" t="s">
-        <v>58</v>
+      <c r="T47" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U47" s="13" t="n">
         <v>0</v>
@@ -8348,8 +8348,8 @@
       <c r="AD47" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE47" s="13" t="n">
-        <v>0</v>
+      <c r="AE47" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF47" s="13" t="s">
         <v>58</v>
@@ -8381,8 +8381,8 @@
       <c r="AO47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP47" s="13" t="s">
-        <v>58</v>
+      <c r="AP47" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ47" s="13" t="n">
         <v>0</v>
@@ -8474,8 +8474,8 @@
       <c r="S48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T48" s="16" t="s">
-        <v>58</v>
+      <c r="T48" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U48" s="16" t="n">
         <v>0</v>
@@ -8507,8 +8507,8 @@
       <c r="AD48" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE48" s="16" t="n">
-        <v>0</v>
+      <c r="AE48" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF48" s="16" t="s">
         <v>58</v>
@@ -8540,8 +8540,8 @@
       <c r="AO48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP48" s="16" t="s">
-        <v>58</v>
+      <c r="AP48" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ48" s="16" t="n">
         <v>0</v>
@@ -8633,8 +8633,8 @@
       <c r="S49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T49" s="13" t="s">
-        <v>58</v>
+      <c r="T49" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U49" s="13" t="n">
         <v>0</v>
@@ -8666,8 +8666,8 @@
       <c r="AD49" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE49" s="13" t="n">
-        <v>0</v>
+      <c r="AE49" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF49" s="13" t="s">
         <v>58</v>
@@ -8699,8 +8699,8 @@
       <c r="AO49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP49" s="13" t="s">
-        <v>58</v>
+      <c r="AP49" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ49" s="13" t="n">
         <v>0</v>
@@ -8792,74 +8792,74 @@
       <c r="S50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T50" s="16" t="s">
-        <v>58</v>
+      <c r="T50" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U50" s="16" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="V50" s="16" t="n">
-        <v>88</v>
+        <v>571</v>
       </c>
       <c r="W50" s="16" t="n">
-        <v>571</v>
+        <v>1516</v>
       </c>
       <c r="X50" s="16" t="n">
-        <v>1516</v>
+        <v>1949</v>
       </c>
       <c r="Y50" s="16" t="n">
-        <v>1949</v>
+        <v>1826</v>
       </c>
       <c r="Z50" s="16" t="n">
-        <v>1826</v>
+        <v>1687</v>
       </c>
       <c r="AA50" s="16" t="n">
-        <v>1687</v>
+        <v>824</v>
       </c>
       <c r="AB50" s="16" t="n">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="16" t="n">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="AD50" s="16" t="n">
-        <v>732</v>
+        <v>1942</v>
       </c>
       <c r="AE50" s="16" t="n">
-        <v>1942</v>
+        <v>1921</v>
       </c>
       <c r="AF50" s="16" t="n">
-        <v>1921</v>
+        <v>1491</v>
       </c>
       <c r="AG50" s="16" t="n">
-        <v>1491</v>
+        <v>1444</v>
       </c>
       <c r="AH50" s="16" t="n">
-        <v>1444</v>
+        <v>1321</v>
       </c>
       <c r="AI50" s="16" t="n">
-        <v>1321</v>
+        <v>1181</v>
       </c>
       <c r="AJ50" s="16" t="n">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="AK50" s="16" t="n">
-        <v>1172</v>
+        <v>1918</v>
       </c>
       <c r="AL50" s="16" t="n">
-        <v>1918</v>
+        <v>2464</v>
       </c>
       <c r="AM50" s="16" t="n">
-        <v>2464</v>
+        <v>2664</v>
       </c>
       <c r="AN50" s="16" t="n">
-        <v>2664</v>
+        <v>2048</v>
       </c>
       <c r="AO50" s="16" t="n">
-        <v>2048</v>
-      </c>
-      <c r="AP50" s="16" t="n">
         <v>1549</v>
+      </c>
+      <c r="AP50" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ50" s="16" t="s">
         <v>58</v>
@@ -8951,110 +8951,110 @@
       <c r="S51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T51" s="13" t="s">
-        <v>58</v>
+      <c r="T51" s="13" t="n">
+        <v>6713</v>
       </c>
       <c r="U51" s="13" t="n">
-        <v>6713</v>
+        <v>9897</v>
       </c>
       <c r="V51" s="13" t="n">
-        <v>9897</v>
+        <v>16176</v>
       </c>
       <c r="W51" s="13" t="n">
-        <v>16176</v>
+        <v>8603</v>
       </c>
       <c r="X51" s="13" t="n">
-        <v>8603</v>
+        <v>16034</v>
       </c>
       <c r="Y51" s="13" t="n">
-        <v>16034</v>
+        <v>14940</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>14940</v>
+        <v>16641</v>
       </c>
       <c r="AA51" s="13" t="n">
-        <v>16641</v>
+        <v>8217</v>
       </c>
       <c r="AB51" s="13" t="n">
-        <v>8217</v>
+        <v>7790</v>
       </c>
       <c r="AC51" s="13" t="n">
-        <v>7790</v>
+        <v>20719</v>
       </c>
       <c r="AD51" s="13" t="n">
-        <v>20719</v>
+        <v>26222</v>
       </c>
       <c r="AE51" s="13" t="n">
-        <v>26222</v>
+        <v>23595</v>
       </c>
       <c r="AF51" s="13" t="n">
-        <v>23595</v>
+        <v>11048</v>
       </c>
       <c r="AG51" s="13" t="n">
-        <v>11048</v>
+        <v>16038</v>
       </c>
       <c r="AH51" s="13" t="n">
-        <v>16038</v>
+        <v>11798</v>
       </c>
       <c r="AI51" s="13" t="n">
-        <v>11798</v>
+        <v>11582</v>
       </c>
       <c r="AJ51" s="13" t="n">
-        <v>11582</v>
+        <v>15692</v>
       </c>
       <c r="AK51" s="13" t="n">
-        <v>15692</v>
+        <v>16688</v>
       </c>
       <c r="AL51" s="13" t="n">
-        <v>16688</v>
+        <v>19395</v>
       </c>
       <c r="AM51" s="13" t="n">
-        <v>19395</v>
+        <v>14541</v>
       </c>
       <c r="AN51" s="13" t="n">
-        <v>14541</v>
+        <v>10672</v>
       </c>
       <c r="AO51" s="13" t="n">
-        <v>10672</v>
+        <v>9504</v>
       </c>
       <c r="AP51" s="13" t="n">
-        <v>9504</v>
+        <v>15303</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>15303</v>
+        <v>15558</v>
       </c>
       <c r="AR51" s="13" t="n">
-        <v>15558</v>
+        <v>17980</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>17980</v>
+        <v>10974</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>10974</v>
+        <v>1813</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>1813</v>
+        <v>14934</v>
       </c>
       <c r="AV51" s="13" t="n">
-        <v>14934</v>
+        <v>10860</v>
       </c>
       <c r="AW51" s="13" t="n">
-        <v>10860</v>
+        <v>14654</v>
       </c>
       <c r="AX51" s="13" t="n">
-        <v>14654</v>
+        <v>9411</v>
       </c>
       <c r="AY51" s="13" t="n">
-        <v>9411</v>
+        <v>0</v>
       </c>
       <c r="AZ51" s="13" t="n">
-        <v>0</v>
+        <v>4648</v>
       </c>
       <c r="BA51" s="13" t="n">
-        <v>4648</v>
+        <v>7077</v>
       </c>
       <c r="BB51" s="13" t="n">
-        <v>7077</v>
+        <v>19286</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9110,74 +9110,74 @@
       <c r="S52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T52" s="16" t="s">
-        <v>58</v>
+      <c r="T52" s="16" t="n">
+        <v>1077</v>
       </c>
       <c r="U52" s="16" t="n">
-        <v>1077</v>
+        <v>1032</v>
       </c>
       <c r="V52" s="16" t="n">
-        <v>1032</v>
+        <v>1405</v>
       </c>
       <c r="W52" s="16" t="n">
-        <v>1405</v>
+        <v>1280</v>
       </c>
       <c r="X52" s="16" t="n">
-        <v>1280</v>
+        <v>1189</v>
       </c>
       <c r="Y52" s="16" t="n">
-        <v>1189</v>
+        <v>1203</v>
       </c>
       <c r="Z52" s="16" t="n">
-        <v>1203</v>
+        <v>1061</v>
       </c>
       <c r="AA52" s="16" t="n">
-        <v>1061</v>
+        <v>760</v>
       </c>
       <c r="AB52" s="16" t="n">
-        <v>760</v>
+        <v>543</v>
       </c>
       <c r="AC52" s="16" t="n">
-        <v>543</v>
+        <v>1552</v>
       </c>
       <c r="AD52" s="16" t="n">
-        <v>1552</v>
+        <v>782</v>
       </c>
       <c r="AE52" s="16" t="n">
-        <v>782</v>
+        <v>1245</v>
       </c>
       <c r="AF52" s="16" t="n">
-        <v>1245</v>
+        <v>1074</v>
       </c>
       <c r="AG52" s="16" t="n">
-        <v>1074</v>
+        <v>1133</v>
       </c>
       <c r="AH52" s="16" t="n">
-        <v>1133</v>
+        <v>687</v>
       </c>
       <c r="AI52" s="16" t="n">
-        <v>687</v>
+        <v>1316</v>
       </c>
       <c r="AJ52" s="16" t="n">
-        <v>1316</v>
+        <v>1163</v>
       </c>
       <c r="AK52" s="16" t="n">
-        <v>1163</v>
+        <v>1194</v>
       </c>
       <c r="AL52" s="16" t="n">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AM52" s="16" t="n">
-        <v>1192</v>
+        <v>1371</v>
       </c>
       <c r="AN52" s="16" t="n">
-        <v>1371</v>
+        <v>748</v>
       </c>
       <c r="AO52" s="16" t="n">
-        <v>748</v>
-      </c>
-      <c r="AP52" s="16" t="n">
         <v>788</v>
+      </c>
+      <c r="AP52" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ52" s="16" t="s">
         <v>58</v>
@@ -9268,109 +9268,109 @@
         <v>0</v>
       </c>
       <c r="T53" s="18" t="n">
-        <v>0</v>
+        <v>8617</v>
       </c>
       <c r="U53" s="18" t="n">
-        <v>8617</v>
+        <v>12308</v>
       </c>
       <c r="V53" s="18" t="n">
-        <v>12308</v>
+        <v>22402</v>
       </c>
       <c r="W53" s="18" t="n">
-        <v>22402</v>
+        <v>14793</v>
       </c>
       <c r="X53" s="18" t="n">
-        <v>14793</v>
+        <v>20781</v>
       </c>
       <c r="Y53" s="18" t="n">
-        <v>20781</v>
+        <v>21217</v>
       </c>
       <c r="Z53" s="18" t="n">
-        <v>21217</v>
+        <v>21580</v>
       </c>
       <c r="AA53" s="18" t="n">
-        <v>21580</v>
+        <v>10831</v>
       </c>
       <c r="AB53" s="18" t="n">
-        <v>10831</v>
+        <v>8924</v>
       </c>
       <c r="AC53" s="18" t="n">
-        <v>8924</v>
+        <v>25749</v>
       </c>
       <c r="AD53" s="18" t="n">
-        <v>25749</v>
+        <v>31549</v>
       </c>
       <c r="AE53" s="18" t="n">
-        <v>31549</v>
+        <v>28340</v>
       </c>
       <c r="AF53" s="18" t="n">
-        <v>28340</v>
+        <v>14526</v>
       </c>
       <c r="AG53" s="18" t="n">
-        <v>14526</v>
+        <v>18845</v>
       </c>
       <c r="AH53" s="18" t="n">
-        <v>18845</v>
+        <v>15395</v>
       </c>
       <c r="AI53" s="18" t="n">
-        <v>15395</v>
+        <v>15834</v>
       </c>
       <c r="AJ53" s="18" t="n">
-        <v>15834</v>
+        <v>18412</v>
       </c>
       <c r="AK53" s="18" t="n">
-        <v>18412</v>
+        <v>21740</v>
       </c>
       <c r="AL53" s="18" t="n">
-        <v>21740</v>
+        <v>24006</v>
       </c>
       <c r="AM53" s="18" t="n">
-        <v>24006</v>
+        <v>19006</v>
       </c>
       <c r="AN53" s="18" t="n">
-        <v>19006</v>
+        <v>13733</v>
       </c>
       <c r="AO53" s="18" t="n">
-        <v>13733</v>
+        <v>12315</v>
       </c>
       <c r="AP53" s="18" t="n">
-        <v>12315</v>
+        <v>18246</v>
       </c>
       <c r="AQ53" s="18" t="n">
-        <v>18246</v>
+        <v>18465</v>
       </c>
       <c r="AR53" s="18" t="n">
-        <v>18465</v>
+        <v>20763</v>
       </c>
       <c r="AS53" s="18" t="n">
-        <v>20763</v>
+        <v>16168</v>
       </c>
       <c r="AT53" s="18" t="n">
-        <v>16168</v>
+        <v>5181</v>
       </c>
       <c r="AU53" s="18" t="n">
-        <v>5181</v>
+        <v>17236</v>
       </c>
       <c r="AV53" s="18" t="n">
-        <v>17236</v>
+        <v>14442</v>
       </c>
       <c r="AW53" s="18" t="n">
-        <v>14442</v>
+        <v>18378</v>
       </c>
       <c r="AX53" s="18" t="n">
-        <v>18378</v>
+        <v>16001</v>
       </c>
       <c r="AY53" s="18" t="n">
-        <v>16001</v>
+        <v>2938</v>
       </c>
       <c r="AZ53" s="18" t="n">
-        <v>2938</v>
+        <v>5583</v>
       </c>
       <c r="BA53" s="18" t="n">
-        <v>5583</v>
+        <v>10157</v>
       </c>
       <c r="BB53" s="18" t="n">
-        <v>10157</v>
+        <v>23350</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9513,80 +9513,80 @@
       <c r="AC55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD55" s="13" t="s">
-        <v>58</v>
+      <c r="AD55" s="13" t="n">
+        <v>10772</v>
       </c>
       <c r="AE55" s="13" t="n">
-        <v>10772</v>
+        <v>11744</v>
       </c>
       <c r="AF55" s="13" t="n">
-        <v>11744</v>
+        <v>28965</v>
       </c>
       <c r="AG55" s="13" t="n">
-        <v>28965</v>
+        <v>31368</v>
       </c>
       <c r="AH55" s="13" t="n">
-        <v>31368</v>
+        <v>16854</v>
       </c>
       <c r="AI55" s="13" t="n">
-        <v>16854</v>
+        <v>43079</v>
       </c>
       <c r="AJ55" s="13" t="n">
-        <v>43079</v>
+        <v>31384</v>
       </c>
       <c r="AK55" s="13" t="n">
-        <v>31384</v>
+        <v>13733</v>
       </c>
       <c r="AL55" s="13" t="n">
-        <v>13733</v>
+        <v>33445</v>
       </c>
       <c r="AM55" s="13" t="n">
-        <v>33445</v>
+        <v>3346</v>
       </c>
       <c r="AN55" s="13" t="n">
-        <v>3346</v>
+        <v>6378</v>
       </c>
       <c r="AO55" s="13" t="n">
-        <v>6378</v>
+        <v>25855</v>
       </c>
       <c r="AP55" s="13" t="n">
-        <v>25855</v>
+        <v>11734</v>
       </c>
       <c r="AQ55" s="13" t="n">
-        <v>11734</v>
+        <v>11847</v>
       </c>
       <c r="AR55" s="13" t="n">
-        <v>11847</v>
+        <v>40787</v>
       </c>
       <c r="AS55" s="13" t="n">
-        <v>40787</v>
+        <v>38770</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>38770</v>
+        <v>77842</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>77842</v>
+        <v>26739</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>26739</v>
+        <v>30565</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>30565</v>
+        <v>22900</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>22900</v>
+        <v>19039</v>
       </c>
       <c r="AY55" s="13" t="n">
-        <v>19039</v>
+        <v>28919</v>
       </c>
       <c r="AZ55" s="13" t="n">
-        <v>28919</v>
+        <v>20688</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>20688</v>
+        <v>42038</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>42038</v>
+        <v>19834</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9672,80 +9672,80 @@
       <c r="AC56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD56" s="16" t="s">
-        <v>58</v>
+      <c r="AD56" s="16" t="n">
+        <v>263</v>
       </c>
       <c r="AE56" s="16" t="n">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="AF56" s="16" t="n">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="AG56" s="16" t="n">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="AH56" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="16" t="n">
+        <v>39</v>
+      </c>
+      <c r="AJ56" s="16" t="n">
+        <v>197</v>
+      </c>
+      <c r="AK56" s="16" t="n">
+        <v>858</v>
+      </c>
+      <c r="AL56" s="16" t="n">
+        <v>1265</v>
+      </c>
+      <c r="AM56" s="16" t="n">
+        <v>1315</v>
+      </c>
+      <c r="AN56" s="16" t="n">
+        <v>278</v>
+      </c>
+      <c r="AO56" s="16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AP56" s="16" t="n">
         <v>119</v>
       </c>
-      <c r="AI56" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="16" t="n">
-        <v>39</v>
-      </c>
-      <c r="AK56" s="16" t="n">
-        <v>197</v>
-      </c>
-      <c r="AL56" s="16" t="n">
-        <v>858</v>
-      </c>
-      <c r="AM56" s="16" t="n">
-        <v>1265</v>
-      </c>
-      <c r="AN56" s="16" t="n">
-        <v>1315</v>
-      </c>
-      <c r="AO56" s="16" t="n">
-        <v>278</v>
-      </c>
-      <c r="AP56" s="16" t="n">
-        <v>80</v>
-      </c>
       <c r="AQ56" s="16" t="n">
-        <v>119</v>
+        <v>1215</v>
       </c>
       <c r="AR56" s="16" t="n">
-        <v>1215</v>
+        <v>1656</v>
       </c>
       <c r="AS56" s="16" t="n">
-        <v>1656</v>
+        <v>1582</v>
       </c>
       <c r="AT56" s="16" t="n">
-        <v>1582</v>
+        <v>2331</v>
       </c>
       <c r="AU56" s="16" t="n">
-        <v>2331</v>
+        <v>2811</v>
       </c>
       <c r="AV56" s="16" t="n">
-        <v>2811</v>
+        <v>2800</v>
       </c>
       <c r="AW56" s="16" t="n">
-        <v>2800</v>
+        <v>2127</v>
       </c>
       <c r="AX56" s="16" t="n">
-        <v>2127</v>
+        <v>955</v>
       </c>
       <c r="AY56" s="16" t="n">
-        <v>955</v>
+        <v>523</v>
       </c>
       <c r="AZ56" s="16" t="n">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="BA56" s="16" t="n">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="BB56" s="16" t="n">
-        <v>619</v>
+        <v>866</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9801,38 +9801,38 @@
       <c r="S57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T57" s="13" t="s">
-        <v>58</v>
+      <c r="T57" s="13" t="n">
+        <v>7613</v>
       </c>
       <c r="U57" s="13" t="n">
-        <v>7613</v>
+        <v>7621</v>
       </c>
       <c r="V57" s="13" t="n">
-        <v>7621</v>
+        <v>17148</v>
       </c>
       <c r="W57" s="13" t="n">
-        <v>17148</v>
+        <v>23002</v>
       </c>
       <c r="X57" s="13" t="n">
-        <v>23002</v>
+        <v>22386</v>
       </c>
       <c r="Y57" s="13" t="n">
-        <v>22386</v>
+        <v>26850</v>
       </c>
       <c r="Z57" s="13" t="n">
-        <v>26850</v>
+        <v>40056</v>
       </c>
       <c r="AA57" s="13" t="n">
-        <v>40056</v>
+        <v>35203</v>
       </c>
       <c r="AB57" s="13" t="n">
-        <v>35203</v>
+        <v>13981</v>
       </c>
       <c r="AC57" s="13" t="n">
-        <v>13981</v>
-      </c>
-      <c r="AD57" s="13" t="n">
         <v>21137</v>
+      </c>
+      <c r="AD57" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE57" s="13" t="s">
         <v>58</v>
@@ -9990,74 +9990,74 @@
       <c r="AC58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD58" s="16" t="s">
-        <v>58</v>
+      <c r="AD58" s="16" t="n">
+        <v>100</v>
       </c>
       <c r="AE58" s="16" t="n">
-        <v>100</v>
+        <v>392</v>
       </c>
       <c r="AF58" s="16" t="n">
-        <v>392</v>
+        <v>1214</v>
       </c>
       <c r="AG58" s="16" t="n">
-        <v>1214</v>
+        <v>507</v>
       </c>
       <c r="AH58" s="16" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AI58" s="16" t="n">
-        <v>508</v>
+        <v>1733</v>
       </c>
       <c r="AJ58" s="16" t="n">
-        <v>1733</v>
+        <v>534</v>
       </c>
       <c r="AK58" s="16" t="n">
-        <v>534</v>
+        <v>476</v>
       </c>
       <c r="AL58" s="16" t="n">
-        <v>476</v>
+        <v>407</v>
       </c>
       <c r="AM58" s="16" t="n">
-        <v>407</v>
+        <v>200</v>
       </c>
       <c r="AN58" s="16" t="n">
         <v>200</v>
       </c>
       <c r="AO58" s="16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AP58" s="16" t="n">
+        <v>507</v>
+      </c>
+      <c r="AQ58" s="16" t="n">
+        <v>460</v>
+      </c>
+      <c r="AR58" s="16" t="n">
+        <v>345</v>
+      </c>
+      <c r="AS58" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="16" t="n">
+        <v>598</v>
+      </c>
+      <c r="AV58" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="16" t="n">
+        <v>674</v>
+      </c>
+      <c r="AX58" s="16" t="n">
+        <v>410</v>
+      </c>
+      <c r="AY58" s="16" t="n">
         <v>200</v>
       </c>
-      <c r="AP58" s="16" t="n">
-        <v>300</v>
-      </c>
-      <c r="AQ58" s="16" t="n">
-        <v>507</v>
-      </c>
-      <c r="AR58" s="16" t="n">
-        <v>460</v>
-      </c>
-      <c r="AS58" s="16" t="n">
-        <v>345</v>
-      </c>
-      <c r="AT58" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU58" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV58" s="16" t="n">
-        <v>598</v>
-      </c>
-      <c r="AW58" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX58" s="16" t="n">
-        <v>674</v>
-      </c>
-      <c r="AY58" s="16" t="n">
-        <v>410</v>
-      </c>
       <c r="AZ58" s="16" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="16" t="n">
         <v>0</v>
@@ -10119,8 +10119,8 @@
       <c r="S59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T59" s="13" t="s">
-        <v>58</v>
+      <c r="T59" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U59" s="13" t="n">
         <v>0</v>
@@ -10129,28 +10129,28 @@
         <v>0</v>
       </c>
       <c r="W59" s="13" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="X59" s="13" t="n">
-        <v>139</v>
+        <v>771</v>
       </c>
       <c r="Y59" s="13" t="n">
-        <v>771</v>
+        <v>523</v>
       </c>
       <c r="Z59" s="13" t="n">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="AA59" s="13" t="n">
-        <v>529</v>
+        <v>365</v>
       </c>
       <c r="AB59" s="13" t="n">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="13" t="n">
         <v>142</v>
+      </c>
+      <c r="AD59" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE59" s="13" t="s">
         <v>58</v>
@@ -10278,38 +10278,38 @@
       <c r="S60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T60" s="16" t="s">
-        <v>58</v>
+      <c r="T60" s="16" t="n">
+        <v>96</v>
       </c>
       <c r="U60" s="16" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="V60" s="16" t="n">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="W60" s="16" t="n">
-        <v>204</v>
+        <v>496</v>
       </c>
       <c r="X60" s="16" t="n">
+        <v>636</v>
+      </c>
+      <c r="Y60" s="16" t="n">
+        <v>808</v>
+      </c>
+      <c r="Z60" s="16" t="n">
+        <v>836</v>
+      </c>
+      <c r="AA60" s="16" t="n">
         <v>496</v>
       </c>
-      <c r="Y60" s="16" t="n">
-        <v>636</v>
-      </c>
-      <c r="Z60" s="16" t="n">
-        <v>808</v>
-      </c>
-      <c r="AA60" s="16" t="n">
-        <v>836</v>
-      </c>
       <c r="AB60" s="16" t="n">
-        <v>496</v>
+        <v>196</v>
       </c>
       <c r="AC60" s="16" t="n">
-        <v>196</v>
-      </c>
-      <c r="AD60" s="16" t="n">
         <v>100</v>
+      </c>
+      <c r="AD60" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE60" s="16" t="s">
         <v>58</v>
@@ -10436,109 +10436,109 @@
         <v>0</v>
       </c>
       <c r="T61" s="18" t="n">
-        <v>0</v>
+        <v>7709</v>
       </c>
       <c r="U61" s="18" t="n">
-        <v>7709</v>
+        <v>7693</v>
       </c>
       <c r="V61" s="18" t="n">
-        <v>7693</v>
+        <v>17352</v>
       </c>
       <c r="W61" s="18" t="n">
-        <v>17352</v>
+        <v>23637</v>
       </c>
       <c r="X61" s="18" t="n">
-        <v>23637</v>
+        <v>23793</v>
       </c>
       <c r="Y61" s="18" t="n">
-        <v>23793</v>
+        <v>28181</v>
       </c>
       <c r="Z61" s="18" t="n">
-        <v>28181</v>
+        <v>41421</v>
       </c>
       <c r="AA61" s="18" t="n">
-        <v>41421</v>
+        <v>36064</v>
       </c>
       <c r="AB61" s="18" t="n">
-        <v>36064</v>
+        <v>14177</v>
       </c>
       <c r="AC61" s="18" t="n">
-        <v>14177</v>
+        <v>21379</v>
       </c>
       <c r="AD61" s="18" t="n">
-        <v>21379</v>
+        <v>11135</v>
       </c>
       <c r="AE61" s="18" t="n">
-        <v>11135</v>
+        <v>12316</v>
       </c>
       <c r="AF61" s="18" t="n">
-        <v>12316</v>
+        <v>30397</v>
       </c>
       <c r="AG61" s="18" t="n">
-        <v>30397</v>
+        <v>31994</v>
       </c>
       <c r="AH61" s="18" t="n">
-        <v>31994</v>
+        <v>17362</v>
       </c>
       <c r="AI61" s="18" t="n">
-        <v>17362</v>
+        <v>44851</v>
       </c>
       <c r="AJ61" s="18" t="n">
-        <v>44851</v>
+        <v>32115</v>
       </c>
       <c r="AK61" s="18" t="n">
-        <v>32115</v>
+        <v>15067</v>
       </c>
       <c r="AL61" s="18" t="n">
-        <v>15067</v>
+        <v>35117</v>
       </c>
       <c r="AM61" s="18" t="n">
-        <v>35117</v>
+        <v>4861</v>
       </c>
       <c r="AN61" s="18" t="n">
-        <v>4861</v>
+        <v>6856</v>
       </c>
       <c r="AO61" s="18" t="n">
-        <v>6856</v>
+        <v>26235</v>
       </c>
       <c r="AP61" s="18" t="n">
-        <v>26235</v>
+        <v>12360</v>
       </c>
       <c r="AQ61" s="18" t="n">
-        <v>12360</v>
+        <v>13522</v>
       </c>
       <c r="AR61" s="18" t="n">
-        <v>13522</v>
+        <v>42788</v>
       </c>
       <c r="AS61" s="18" t="n">
-        <v>42788</v>
+        <v>40352</v>
       </c>
       <c r="AT61" s="18" t="n">
-        <v>40352</v>
+        <v>80173</v>
       </c>
       <c r="AU61" s="18" t="n">
-        <v>80173</v>
+        <v>30147</v>
       </c>
       <c r="AV61" s="18" t="n">
-        <v>30147</v>
+        <v>33365</v>
       </c>
       <c r="AW61" s="18" t="n">
-        <v>33365</v>
+        <v>25701</v>
       </c>
       <c r="AX61" s="18" t="n">
-        <v>25701</v>
+        <v>20404</v>
       </c>
       <c r="AY61" s="18" t="n">
-        <v>20404</v>
+        <v>29642</v>
       </c>
       <c r="AZ61" s="18" t="n">
-        <v>29642</v>
+        <v>20688</v>
       </c>
       <c r="BA61" s="18" t="n">
-        <v>20688</v>
+        <v>42657</v>
       </c>
       <c r="BB61" s="18" t="n">
-        <v>42657</v>
+        <v>20700</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10649,8 +10649,8 @@
       <c r="S63" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="T63" s="18" t="s">
-        <v>58</v>
+      <c r="T63" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="U63" s="18" t="n">
         <v>0</v>
@@ -10863,8 +10863,8 @@
       <c r="S65" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="T65" s="18" t="s">
-        <v>58</v>
+      <c r="T65" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="U65" s="18" t="n">
         <v>0</v>
@@ -11021,109 +11021,109 @@
         <v>0</v>
       </c>
       <c r="T66" s="22" t="n">
-        <v>0</v>
+        <v>16326</v>
       </c>
       <c r="U66" s="22" t="n">
-        <v>16326</v>
+        <v>20001</v>
       </c>
       <c r="V66" s="22" t="n">
-        <v>20001</v>
+        <v>39754</v>
       </c>
       <c r="W66" s="22" t="n">
-        <v>39754</v>
+        <v>38430</v>
       </c>
       <c r="X66" s="22" t="n">
-        <v>38430</v>
+        <v>44574</v>
       </c>
       <c r="Y66" s="22" t="n">
-        <v>44574</v>
+        <v>49398</v>
       </c>
       <c r="Z66" s="22" t="n">
-        <v>49398</v>
+        <v>63001</v>
       </c>
       <c r="AA66" s="22" t="n">
-        <v>63001</v>
+        <v>46895</v>
       </c>
       <c r="AB66" s="22" t="n">
-        <v>46895</v>
+        <v>23101</v>
       </c>
       <c r="AC66" s="22" t="n">
-        <v>23101</v>
+        <v>47128</v>
       </c>
       <c r="AD66" s="22" t="n">
-        <v>47128</v>
+        <v>42684</v>
       </c>
       <c r="AE66" s="22" t="n">
-        <v>42684</v>
+        <v>40656</v>
       </c>
       <c r="AF66" s="22" t="n">
-        <v>40656</v>
+        <v>44923</v>
       </c>
       <c r="AG66" s="22" t="n">
-        <v>44923</v>
+        <v>50839</v>
       </c>
       <c r="AH66" s="22" t="n">
-        <v>50839</v>
+        <v>32757</v>
       </c>
       <c r="AI66" s="22" t="n">
-        <v>32757</v>
+        <v>60685</v>
       </c>
       <c r="AJ66" s="22" t="n">
-        <v>60685</v>
+        <v>50527</v>
       </c>
       <c r="AK66" s="22" t="n">
-        <v>50527</v>
+        <v>36807</v>
       </c>
       <c r="AL66" s="22" t="n">
-        <v>36807</v>
+        <v>59123</v>
       </c>
       <c r="AM66" s="22" t="n">
-        <v>59123</v>
+        <v>23867</v>
       </c>
       <c r="AN66" s="22" t="n">
-        <v>23867</v>
+        <v>20589</v>
       </c>
       <c r="AO66" s="22" t="n">
-        <v>20589</v>
+        <v>38550</v>
       </c>
       <c r="AP66" s="22" t="n">
-        <v>38550</v>
+        <v>30606</v>
       </c>
       <c r="AQ66" s="22" t="n">
-        <v>30606</v>
+        <v>31987</v>
       </c>
       <c r="AR66" s="22" t="n">
-        <v>31987</v>
+        <v>63551</v>
       </c>
       <c r="AS66" s="22" t="n">
-        <v>63551</v>
+        <v>56520</v>
       </c>
       <c r="AT66" s="22" t="n">
-        <v>56520</v>
+        <v>85354</v>
       </c>
       <c r="AU66" s="22" t="n">
-        <v>85354</v>
+        <v>47383</v>
       </c>
       <c r="AV66" s="22" t="n">
-        <v>47383</v>
+        <v>47807</v>
       </c>
       <c r="AW66" s="22" t="n">
-        <v>47807</v>
+        <v>44079</v>
       </c>
       <c r="AX66" s="22" t="n">
-        <v>44079</v>
+        <v>36405</v>
       </c>
       <c r="AY66" s="22" t="n">
-        <v>36405</v>
+        <v>32580</v>
       </c>
       <c r="AZ66" s="22" t="n">
-        <v>32580</v>
+        <v>26271</v>
       </c>
       <c r="BA66" s="22" t="n">
-        <v>26271</v>
+        <v>52814</v>
       </c>
       <c r="BB66" s="22" t="n">
-        <v>52814</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11613,8 +11613,8 @@
       <c r="S73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T73" s="13" t="s">
-        <v>58</v>
+      <c r="T73" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U73" s="13" t="n">
         <v>0</v>
@@ -11772,8 +11772,8 @@
       <c r="S74" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T74" s="16" t="s">
-        <v>58</v>
+      <c r="T74" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U74" s="16" t="n">
         <v>0</v>
@@ -11839,43 +11839,43 @@
         <v>0</v>
       </c>
       <c r="AP74" s="16" t="n">
-        <v>0</v>
+        <v>177453</v>
       </c>
       <c r="AQ74" s="16" t="n">
-        <v>177453</v>
+        <v>158019</v>
       </c>
       <c r="AR74" s="16" t="n">
-        <v>158019</v>
+        <v>175261</v>
       </c>
       <c r="AS74" s="16" t="n">
-        <v>175261</v>
+        <v>141590</v>
       </c>
       <c r="AT74" s="16" t="n">
-        <v>141590</v>
+        <v>150426</v>
       </c>
       <c r="AU74" s="16" t="n">
-        <v>150426</v>
+        <v>194964</v>
       </c>
       <c r="AV74" s="16" t="n">
-        <v>194964</v>
+        <v>287183</v>
       </c>
       <c r="AW74" s="16" t="n">
-        <v>287183</v>
+        <v>340141</v>
       </c>
       <c r="AX74" s="16" t="n">
-        <v>340141</v>
+        <v>185365</v>
       </c>
       <c r="AY74" s="16" t="n">
-        <v>185365</v>
+        <v>149898</v>
       </c>
       <c r="AZ74" s="16" t="n">
-        <v>149898</v>
+        <v>0</v>
       </c>
       <c r="BA74" s="16" t="n">
-        <v>0</v>
+        <v>266274</v>
       </c>
       <c r="BB74" s="16" t="n">
-        <v>266274</v>
+        <v>261731</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11931,110 +11931,110 @@
       <c r="S75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T75" s="13" t="s">
-        <v>58</v>
+      <c r="T75" s="13" t="n">
+        <v>21855</v>
       </c>
       <c r="U75" s="13" t="n">
-        <v>21855</v>
+        <v>35174</v>
       </c>
       <c r="V75" s="13" t="n">
-        <v>35174</v>
+        <v>139497</v>
       </c>
       <c r="W75" s="13" t="n">
-        <v>139497</v>
+        <v>121118</v>
       </c>
       <c r="X75" s="13" t="n">
-        <v>121118</v>
+        <v>70375</v>
       </c>
       <c r="Y75" s="13" t="n">
-        <v>70375</v>
+        <v>159820</v>
       </c>
       <c r="Z75" s="13" t="n">
-        <v>159820</v>
+        <v>108828</v>
       </c>
       <c r="AA75" s="13" t="n">
-        <v>108828</v>
+        <v>49481</v>
       </c>
       <c r="AB75" s="13" t="n">
-        <v>49481</v>
+        <v>29382</v>
       </c>
       <c r="AC75" s="13" t="n">
-        <v>29382</v>
+        <v>147671</v>
       </c>
       <c r="AD75" s="13" t="n">
-        <v>147671</v>
+        <v>127661</v>
       </c>
       <c r="AE75" s="13" t="n">
-        <v>127661</v>
+        <v>92683</v>
       </c>
       <c r="AF75" s="13" t="n">
-        <v>92683</v>
+        <v>53417</v>
       </c>
       <c r="AG75" s="13" t="n">
-        <v>53417</v>
+        <v>17454</v>
       </c>
       <c r="AH75" s="13" t="n">
-        <v>17454</v>
+        <v>131018</v>
       </c>
       <c r="AI75" s="13" t="n">
-        <v>131018</v>
+        <v>152099</v>
       </c>
       <c r="AJ75" s="13" t="n">
-        <v>152099</v>
+        <v>37169</v>
       </c>
       <c r="AK75" s="13" t="n">
-        <v>37169</v>
+        <v>289916</v>
       </c>
       <c r="AL75" s="13" t="n">
-        <v>289916</v>
+        <v>159180</v>
       </c>
       <c r="AM75" s="13" t="n">
-        <v>159180</v>
+        <v>87158</v>
       </c>
       <c r="AN75" s="13" t="n">
-        <v>87158</v>
+        <v>41028</v>
       </c>
       <c r="AO75" s="13" t="n">
-        <v>41028</v>
+        <v>56138</v>
       </c>
       <c r="AP75" s="13" t="n">
-        <v>56138</v>
+        <v>117674</v>
       </c>
       <c r="AQ75" s="13" t="n">
-        <v>117674</v>
+        <v>107031</v>
       </c>
       <c r="AR75" s="13" t="n">
-        <v>107031</v>
+        <v>41738</v>
       </c>
       <c r="AS75" s="13" t="n">
-        <v>41738</v>
+        <v>367207</v>
       </c>
       <c r="AT75" s="13" t="n">
-        <v>367207</v>
+        <v>110629</v>
       </c>
       <c r="AU75" s="13" t="n">
-        <v>110629</v>
+        <v>15100</v>
       </c>
       <c r="AV75" s="13" t="n">
-        <v>15100</v>
+        <v>145601</v>
       </c>
       <c r="AW75" s="13" t="n">
-        <v>145601</v>
+        <v>74871</v>
       </c>
       <c r="AX75" s="13" t="n">
-        <v>74871</v>
+        <v>545754</v>
       </c>
       <c r="AY75" s="13" t="n">
-        <v>545754</v>
+        <v>245163</v>
       </c>
       <c r="AZ75" s="13" t="n">
-        <v>245163</v>
+        <v>105478</v>
       </c>
       <c r="BA75" s="13" t="n">
-        <v>105478</v>
+        <v>114743</v>
       </c>
       <c r="BB75" s="13" t="n">
-        <v>114743</v>
+        <v>96277</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12090,8 +12090,8 @@
       <c r="S76" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T76" s="16" t="s">
-        <v>58</v>
+      <c r="T76" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U76" s="16" t="n">
         <v>0</v>
@@ -12249,8 +12249,8 @@
       <c r="S77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T77" s="13" t="s">
-        <v>58</v>
+      <c r="T77" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U77" s="13" t="n">
         <v>0</v>
@@ -12279,8 +12279,8 @@
       <c r="AC77" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD77" s="13" t="n">
-        <v>0</v>
+      <c r="AD77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE77" s="13" t="s">
         <v>58</v>
@@ -12474,44 +12474,44 @@
       <c r="AO78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP78" s="16" t="s">
-        <v>58</v>
+      <c r="AP78" s="16" t="n">
+        <v>414455</v>
       </c>
       <c r="AQ78" s="16" t="n">
-        <v>414455</v>
+        <v>758883</v>
       </c>
       <c r="AR78" s="16" t="n">
-        <v>758883</v>
+        <v>888542</v>
       </c>
       <c r="AS78" s="16" t="n">
-        <v>888542</v>
+        <v>746878</v>
       </c>
       <c r="AT78" s="16" t="n">
-        <v>746878</v>
+        <v>759812</v>
       </c>
       <c r="AU78" s="16" t="n">
-        <v>759812</v>
+        <v>546846</v>
       </c>
       <c r="AV78" s="16" t="n">
-        <v>546846</v>
+        <v>489317</v>
       </c>
       <c r="AW78" s="16" t="n">
-        <v>489317</v>
+        <v>611076</v>
       </c>
       <c r="AX78" s="16" t="n">
-        <v>611076</v>
+        <v>567439</v>
       </c>
       <c r="AY78" s="16" t="n">
-        <v>567439</v>
+        <v>99191</v>
       </c>
       <c r="AZ78" s="16" t="n">
-        <v>99191</v>
+        <v>9838</v>
       </c>
       <c r="BA78" s="16" t="n">
-        <v>9838</v>
+        <v>298968</v>
       </c>
       <c r="BB78" s="16" t="n">
-        <v>298968</v>
+        <v>630110</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12567,8 +12567,8 @@
       <c r="S79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T79" s="13" t="s">
-        <v>58</v>
+      <c r="T79" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U79" s="13" t="n">
         <v>0</v>
@@ -12726,8 +12726,8 @@
       <c r="S80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T80" s="16" t="s">
-        <v>58</v>
+      <c r="T80" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U80" s="16" t="n">
         <v>0</v>
@@ -12885,8 +12885,8 @@
       <c r="S81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T81" s="13" t="s">
-        <v>58</v>
+      <c r="T81" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U81" s="13" t="n">
         <v>0</v>
@@ -13044,74 +13044,74 @@
       <c r="S82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T82" s="16" t="s">
-        <v>58</v>
+      <c r="T82" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U82" s="16" t="n">
-        <v>0</v>
+        <v>1694</v>
       </c>
       <c r="V82" s="16" t="n">
-        <v>1694</v>
+        <v>13306</v>
       </c>
       <c r="W82" s="16" t="n">
-        <v>13306</v>
+        <v>36306</v>
       </c>
       <c r="X82" s="16" t="n">
-        <v>36306</v>
+        <v>53495</v>
       </c>
       <c r="Y82" s="16" t="n">
-        <v>53495</v>
+        <v>50134</v>
       </c>
       <c r="Z82" s="16" t="n">
-        <v>50134</v>
+        <v>48541</v>
       </c>
       <c r="AA82" s="16" t="n">
-        <v>48541</v>
+        <v>23780</v>
       </c>
       <c r="AB82" s="16" t="n">
-        <v>23780</v>
+        <v>0</v>
       </c>
       <c r="AC82" s="16" t="n">
-        <v>0</v>
+        <v>24849</v>
       </c>
       <c r="AD82" s="16" t="n">
-        <v>24849</v>
+        <v>72841</v>
       </c>
       <c r="AE82" s="16" t="n">
-        <v>72841</v>
+        <v>89374</v>
       </c>
       <c r="AF82" s="16" t="n">
-        <v>89374</v>
+        <v>80898</v>
       </c>
       <c r="AG82" s="16" t="n">
-        <v>80898</v>
+        <v>94970</v>
       </c>
       <c r="AH82" s="16" t="n">
-        <v>94970</v>
+        <v>93552</v>
       </c>
       <c r="AI82" s="16" t="n">
-        <v>93552</v>
+        <v>92792</v>
       </c>
       <c r="AJ82" s="16" t="n">
-        <v>92792</v>
+        <v>95731</v>
       </c>
       <c r="AK82" s="16" t="n">
-        <v>95731</v>
+        <v>180191</v>
       </c>
       <c r="AL82" s="16" t="n">
-        <v>180191</v>
+        <v>298146</v>
       </c>
       <c r="AM82" s="16" t="n">
-        <v>298146</v>
+        <v>386754</v>
       </c>
       <c r="AN82" s="16" t="n">
-        <v>386754</v>
+        <v>304996</v>
       </c>
       <c r="AO82" s="16" t="n">
-        <v>304996</v>
-      </c>
-      <c r="AP82" s="16" t="n">
         <v>192037</v>
+      </c>
+      <c r="AP82" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ82" s="16" t="s">
         <v>58</v>
@@ -13203,110 +13203,110 @@
       <c r="S83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T83" s="13" t="s">
-        <v>58</v>
+      <c r="T83" s="13" t="n">
+        <v>149241</v>
       </c>
       <c r="U83" s="13" t="n">
-        <v>149241</v>
+        <v>220011</v>
       </c>
       <c r="V83" s="13" t="n">
-        <v>220011</v>
+        <v>359581</v>
       </c>
       <c r="W83" s="13" t="n">
-        <v>359581</v>
+        <v>191234</v>
       </c>
       <c r="X83" s="13" t="n">
-        <v>191234</v>
+        <v>577183</v>
       </c>
       <c r="Y83" s="13" t="n">
-        <v>577183</v>
+        <v>537840</v>
       </c>
       <c r="Z83" s="13" t="n">
-        <v>537840</v>
+        <v>599058</v>
       </c>
       <c r="AA83" s="13" t="n">
-        <v>599058</v>
+        <v>295794</v>
       </c>
       <c r="AB83" s="13" t="n">
-        <v>295794</v>
+        <v>280422</v>
       </c>
       <c r="AC83" s="13" t="n">
-        <v>280422</v>
+        <v>795715</v>
       </c>
       <c r="AD83" s="13" t="n">
-        <v>795715</v>
+        <v>1143076</v>
       </c>
       <c r="AE83" s="13" t="n">
-        <v>1143076</v>
+        <v>1076147</v>
       </c>
       <c r="AF83" s="13" t="n">
-        <v>1076147</v>
+        <v>467487</v>
       </c>
       <c r="AG83" s="13" t="n">
-        <v>467487</v>
+        <v>737725</v>
       </c>
       <c r="AH83" s="13" t="n">
-        <v>737725</v>
+        <v>542708</v>
       </c>
       <c r="AI83" s="13" t="n">
-        <v>542708</v>
+        <v>558439</v>
       </c>
       <c r="AJ83" s="13" t="n">
-        <v>558439</v>
+        <v>1071763</v>
       </c>
       <c r="AK83" s="13" t="n">
-        <v>1071763</v>
+        <v>1138590</v>
       </c>
       <c r="AL83" s="13" t="n">
-        <v>1138590</v>
+        <v>1750037</v>
       </c>
       <c r="AM83" s="13" t="n">
-        <v>1750037</v>
+        <v>1312020</v>
       </c>
       <c r="AN83" s="13" t="n">
-        <v>1312020</v>
+        <v>962968</v>
       </c>
       <c r="AO83" s="13" t="n">
-        <v>962968</v>
+        <v>857536</v>
       </c>
       <c r="AP83" s="13" t="n">
-        <v>857536</v>
+        <v>2220649</v>
       </c>
       <c r="AQ83" s="13" t="n">
-        <v>2220649</v>
+        <v>2257652</v>
       </c>
       <c r="AR83" s="13" t="n">
-        <v>2257652</v>
+        <v>2097349</v>
       </c>
       <c r="AS83" s="13" t="n">
-        <v>2097349</v>
+        <v>1280048</v>
       </c>
       <c r="AT83" s="13" t="n">
-        <v>1280048</v>
+        <v>211485</v>
       </c>
       <c r="AU83" s="13" t="n">
-        <v>211485</v>
+        <v>1621823</v>
       </c>
       <c r="AV83" s="13" t="n">
-        <v>1621823</v>
+        <v>1179429</v>
       </c>
       <c r="AW83" s="13" t="n">
-        <v>1179429</v>
+        <v>1591522</v>
       </c>
       <c r="AX83" s="13" t="n">
-        <v>1591522</v>
+        <v>1022009</v>
       </c>
       <c r="AY83" s="13" t="n">
-        <v>1022009</v>
+        <v>0</v>
       </c>
       <c r="AZ83" s="13" t="n">
-        <v>0</v>
+        <v>504787</v>
       </c>
       <c r="BA83" s="13" t="n">
-        <v>504787</v>
+        <v>574725</v>
       </c>
       <c r="BB83" s="13" t="n">
-        <v>574725</v>
+        <v>1325261</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13362,74 +13362,74 @@
       <c r="S84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T84" s="16" t="s">
-        <v>58</v>
+      <c r="T84" s="16" t="n">
+        <v>195730</v>
       </c>
       <c r="U84" s="16" t="n">
-        <v>195730</v>
+        <v>187355</v>
       </c>
       <c r="V84" s="16" t="n">
-        <v>187355</v>
+        <v>270995</v>
       </c>
       <c r="W84" s="16" t="n">
-        <v>270995</v>
+        <v>218159</v>
       </c>
       <c r="X84" s="16" t="n">
-        <v>218159</v>
+        <v>263785</v>
       </c>
       <c r="Y84" s="16" t="n">
-        <v>263785</v>
+        <v>293343</v>
       </c>
       <c r="Z84" s="16" t="n">
-        <v>293343</v>
+        <v>284632</v>
       </c>
       <c r="AA84" s="16" t="n">
-        <v>284632</v>
+        <v>218598</v>
       </c>
       <c r="AB84" s="16" t="n">
-        <v>218598</v>
+        <v>188558</v>
       </c>
       <c r="AC84" s="16" t="n">
-        <v>188558</v>
+        <v>505989</v>
       </c>
       <c r="AD84" s="16" t="n">
-        <v>505989</v>
+        <v>253843</v>
       </c>
       <c r="AE84" s="16" t="n">
-        <v>253843</v>
+        <v>454310</v>
       </c>
       <c r="AF84" s="16" t="n">
-        <v>454310</v>
+        <v>400182</v>
       </c>
       <c r="AG84" s="16" t="n">
-        <v>400182</v>
+        <v>421902</v>
       </c>
       <c r="AH84" s="16" t="n">
-        <v>421902</v>
+        <v>310702</v>
       </c>
       <c r="AI84" s="16" t="n">
-        <v>310702</v>
+        <v>655112</v>
       </c>
       <c r="AJ84" s="16" t="n">
-        <v>655112</v>
+        <v>723808</v>
       </c>
       <c r="AK84" s="16" t="n">
-        <v>723808</v>
+        <v>1053712</v>
       </c>
       <c r="AL84" s="16" t="n">
-        <v>1053712</v>
+        <v>1111035</v>
       </c>
       <c r="AM84" s="16" t="n">
-        <v>1111035</v>
+        <v>974868</v>
       </c>
       <c r="AN84" s="16" t="n">
-        <v>974868</v>
+        <v>478426</v>
       </c>
       <c r="AO84" s="16" t="n">
-        <v>478426</v>
-      </c>
-      <c r="AP84" s="16" t="n">
         <v>524251</v>
+      </c>
+      <c r="AP84" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ84" s="16" t="s">
         <v>58</v>
@@ -13520,109 +13520,109 @@
         <v>0</v>
       </c>
       <c r="T85" s="18" t="n">
-        <v>0</v>
+        <v>366826</v>
       </c>
       <c r="U85" s="18" t="n">
-        <v>366826</v>
+        <v>444234</v>
       </c>
       <c r="V85" s="18" t="n">
-        <v>444234</v>
+        <v>783379</v>
       </c>
       <c r="W85" s="18" t="n">
-        <v>783379</v>
+        <v>566817</v>
       </c>
       <c r="X85" s="18" t="n">
-        <v>566817</v>
+        <v>964838</v>
       </c>
       <c r="Y85" s="18" t="n">
-        <v>964838</v>
+        <v>1041137</v>
       </c>
       <c r="Z85" s="18" t="n">
-        <v>1041137</v>
+        <v>1041059</v>
       </c>
       <c r="AA85" s="18" t="n">
-        <v>1041059</v>
+        <v>587653</v>
       </c>
       <c r="AB85" s="18" t="n">
-        <v>587653</v>
+        <v>498362</v>
       </c>
       <c r="AC85" s="18" t="n">
-        <v>498362</v>
+        <v>1474224</v>
       </c>
       <c r="AD85" s="18" t="n">
-        <v>1474224</v>
+        <v>1597421</v>
       </c>
       <c r="AE85" s="18" t="n">
-        <v>1597421</v>
+        <v>1712514</v>
       </c>
       <c r="AF85" s="18" t="n">
-        <v>1712514</v>
+        <v>1001984</v>
       </c>
       <c r="AG85" s="18" t="n">
-        <v>1001984</v>
+        <v>1272051</v>
       </c>
       <c r="AH85" s="18" t="n">
-        <v>1272051</v>
+        <v>1077980</v>
       </c>
       <c r="AI85" s="18" t="n">
-        <v>1077980</v>
+        <v>1458442</v>
       </c>
       <c r="AJ85" s="18" t="n">
-        <v>1458442</v>
+        <v>1928471</v>
       </c>
       <c r="AK85" s="18" t="n">
-        <v>1928471</v>
+        <v>2662409</v>
       </c>
       <c r="AL85" s="18" t="n">
-        <v>2662409</v>
+        <v>3318398</v>
       </c>
       <c r="AM85" s="18" t="n">
-        <v>3318398</v>
+        <v>2760800</v>
       </c>
       <c r="AN85" s="18" t="n">
-        <v>2760800</v>
+        <v>1787418</v>
       </c>
       <c r="AO85" s="18" t="n">
-        <v>1787418</v>
+        <v>1629962</v>
       </c>
       <c r="AP85" s="18" t="n">
-        <v>1629962</v>
+        <v>2930231</v>
       </c>
       <c r="AQ85" s="18" t="n">
-        <v>2930231</v>
+        <v>3281585</v>
       </c>
       <c r="AR85" s="18" t="n">
-        <v>3281585</v>
+        <v>3202890</v>
       </c>
       <c r="AS85" s="18" t="n">
-        <v>3202890</v>
+        <v>2535723</v>
       </c>
       <c r="AT85" s="18" t="n">
-        <v>2535723</v>
+        <v>1232352</v>
       </c>
       <c r="AU85" s="18" t="n">
-        <v>1232352</v>
+        <v>2378733</v>
       </c>
       <c r="AV85" s="18" t="n">
-        <v>2378733</v>
+        <v>2101530</v>
       </c>
       <c r="AW85" s="18" t="n">
-        <v>2101530</v>
+        <v>2617610</v>
       </c>
       <c r="AX85" s="18" t="n">
-        <v>2617610</v>
+        <v>2320567</v>
       </c>
       <c r="AY85" s="18" t="n">
-        <v>2320567</v>
+        <v>494252</v>
       </c>
       <c r="AZ85" s="18" t="n">
-        <v>494252</v>
+        <v>620103</v>
       </c>
       <c r="BA85" s="18" t="n">
-        <v>620103</v>
+        <v>1254710</v>
       </c>
       <c r="BB85" s="18" t="n">
-        <v>1254710</v>
+        <v>2313379</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13765,80 +13765,80 @@
       <c r="AC87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD87" s="13" t="s">
-        <v>58</v>
+      <c r="AD87" s="13" t="n">
+        <v>710423</v>
       </c>
       <c r="AE87" s="13" t="n">
-        <v>710423</v>
+        <v>838020</v>
       </c>
       <c r="AF87" s="13" t="n">
-        <v>838020</v>
+        <v>1749803</v>
       </c>
       <c r="AG87" s="13" t="n">
-        <v>1749803</v>
+        <v>1949841</v>
       </c>
       <c r="AH87" s="13" t="n">
-        <v>1949841</v>
+        <v>1286243</v>
       </c>
       <c r="AI87" s="13" t="n">
-        <v>1286243</v>
+        <v>3693907</v>
       </c>
       <c r="AJ87" s="13" t="n">
-        <v>3693907</v>
+        <v>2971758</v>
       </c>
       <c r="AK87" s="13" t="n">
-        <v>2971758</v>
+        <v>1390588</v>
       </c>
       <c r="AL87" s="13" t="n">
-        <v>1390588</v>
+        <v>5771432</v>
       </c>
       <c r="AM87" s="13" t="n">
-        <v>5771432</v>
+        <v>649202</v>
       </c>
       <c r="AN87" s="13" t="n">
-        <v>649202</v>
+        <v>928419</v>
       </c>
       <c r="AO87" s="13" t="n">
-        <v>928419</v>
+        <v>3286459</v>
       </c>
       <c r="AP87" s="13" t="n">
-        <v>3286459</v>
+        <v>1569222</v>
       </c>
       <c r="AQ87" s="13" t="n">
-        <v>1569222</v>
+        <v>2058045</v>
       </c>
       <c r="AR87" s="13" t="n">
-        <v>2058045</v>
+        <v>6024641</v>
       </c>
       <c r="AS87" s="13" t="n">
-        <v>6024641</v>
+        <v>5393480</v>
       </c>
       <c r="AT87" s="13" t="n">
-        <v>5393480</v>
+        <v>10255317</v>
       </c>
       <c r="AU87" s="13" t="n">
-        <v>10255317</v>
+        <v>3831900</v>
       </c>
       <c r="AV87" s="13" t="n">
-        <v>3831900</v>
+        <v>4814331</v>
       </c>
       <c r="AW87" s="13" t="n">
-        <v>4814331</v>
+        <v>3680527</v>
       </c>
       <c r="AX87" s="13" t="n">
-        <v>3680527</v>
+        <v>2692036</v>
       </c>
       <c r="AY87" s="13" t="n">
-        <v>2692036</v>
+        <v>3880465</v>
       </c>
       <c r="AZ87" s="13" t="n">
-        <v>3880465</v>
+        <v>2599304</v>
       </c>
       <c r="BA87" s="13" t="n">
-        <v>2599304</v>
+        <v>5242764</v>
       </c>
       <c r="BB87" s="13" t="n">
-        <v>5242764</v>
+        <v>2593755</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13924,80 +13924,80 @@
       <c r="AC88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD88" s="16" t="s">
-        <v>58</v>
+      <c r="AD88" s="16" t="n">
+        <v>7922</v>
       </c>
       <c r="AE88" s="16" t="n">
-        <v>7922</v>
+        <v>10147</v>
       </c>
       <c r="AF88" s="16" t="n">
-        <v>10147</v>
+        <v>11514</v>
       </c>
       <c r="AG88" s="16" t="n">
-        <v>11514</v>
+        <v>6199</v>
       </c>
       <c r="AH88" s="16" t="n">
-        <v>6199</v>
+        <v>0</v>
       </c>
       <c r="AI88" s="16" t="n">
-        <v>0</v>
+        <v>2668</v>
       </c>
       <c r="AJ88" s="16" t="n">
-        <v>2668</v>
+        <v>13570</v>
       </c>
       <c r="AK88" s="16" t="n">
-        <v>13570</v>
+        <v>70217</v>
       </c>
       <c r="AL88" s="16" t="n">
-        <v>70217</v>
+        <v>132653</v>
       </c>
       <c r="AM88" s="16" t="n">
-        <v>132653</v>
+        <v>190495</v>
       </c>
       <c r="AN88" s="16" t="n">
-        <v>190495</v>
+        <v>43340</v>
       </c>
       <c r="AO88" s="16" t="n">
-        <v>43340</v>
+        <v>12866</v>
       </c>
       <c r="AP88" s="16" t="n">
-        <v>12866</v>
+        <v>22210</v>
       </c>
       <c r="AQ88" s="16" t="n">
-        <v>22210</v>
+        <v>215092</v>
       </c>
       <c r="AR88" s="16" t="n">
-        <v>215092</v>
+        <v>290969</v>
       </c>
       <c r="AS88" s="16" t="n">
-        <v>290969</v>
+        <v>290013</v>
       </c>
       <c r="AT88" s="16" t="n">
-        <v>290013</v>
+        <v>441309</v>
       </c>
       <c r="AU88" s="16" t="n">
-        <v>441309</v>
+        <v>536282</v>
       </c>
       <c r="AV88" s="16" t="n">
-        <v>536282</v>
+        <v>560294</v>
       </c>
       <c r="AW88" s="16" t="n">
-        <v>560294</v>
+        <v>429635</v>
       </c>
       <c r="AX88" s="16" t="n">
-        <v>429635</v>
+        <v>192623</v>
       </c>
       <c r="AY88" s="16" t="n">
-        <v>192623</v>
+        <v>105122</v>
       </c>
       <c r="AZ88" s="16" t="n">
-        <v>105122</v>
+        <v>0</v>
       </c>
       <c r="BA88" s="16" t="n">
-        <v>0</v>
+        <v>118950</v>
       </c>
       <c r="BB88" s="16" t="n">
-        <v>118950</v>
+        <v>164231</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14053,38 +14053,38 @@
       <c r="S89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T89" s="13" t="s">
-        <v>58</v>
+      <c r="T89" s="13" t="n">
+        <v>214518</v>
       </c>
       <c r="U89" s="13" t="n">
-        <v>214518</v>
+        <v>225348</v>
       </c>
       <c r="V89" s="13" t="n">
-        <v>225348</v>
+        <v>576343</v>
       </c>
       <c r="W89" s="13" t="n">
-        <v>576343</v>
+        <v>923602</v>
       </c>
       <c r="X89" s="13" t="n">
-        <v>923602</v>
+        <v>1030510</v>
       </c>
       <c r="Y89" s="13" t="n">
-        <v>1030510</v>
+        <v>1393693</v>
       </c>
       <c r="Z89" s="13" t="n">
-        <v>1393693</v>
+        <v>2180643</v>
       </c>
       <c r="AA89" s="13" t="n">
-        <v>2180643</v>
+        <v>1968007</v>
       </c>
       <c r="AB89" s="13" t="n">
-        <v>1968007</v>
+        <v>709926</v>
       </c>
       <c r="AC89" s="13" t="n">
-        <v>709926</v>
-      </c>
-      <c r="AD89" s="13" t="n">
         <v>1169321</v>
+      </c>
+      <c r="AD89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE89" s="13" t="s">
         <v>58</v>
@@ -14242,74 +14242,74 @@
       <c r="AC90" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD90" s="16" t="s">
-        <v>58</v>
+      <c r="AD90" s="16" t="n">
+        <v>42300</v>
       </c>
       <c r="AE90" s="16" t="n">
-        <v>42300</v>
+        <v>170859</v>
       </c>
       <c r="AF90" s="16" t="n">
-        <v>170859</v>
+        <v>533976</v>
       </c>
       <c r="AG90" s="16" t="n">
-        <v>533976</v>
+        <v>237112</v>
       </c>
       <c r="AH90" s="16" t="n">
-        <v>237112</v>
+        <v>282486</v>
       </c>
       <c r="AI90" s="16" t="n">
-        <v>282486</v>
+        <v>1014750</v>
       </c>
       <c r="AJ90" s="16" t="n">
-        <v>1014750</v>
+        <v>430547</v>
       </c>
       <c r="AK90" s="16" t="n">
-        <v>430547</v>
+        <v>447606</v>
       </c>
       <c r="AL90" s="16" t="n">
-        <v>447606</v>
+        <v>397644</v>
       </c>
       <c r="AM90" s="16" t="n">
-        <v>397644</v>
+        <v>176773</v>
       </c>
       <c r="AN90" s="16" t="n">
-        <v>176773</v>
+        <v>154174</v>
       </c>
       <c r="AO90" s="16" t="n">
-        <v>154174</v>
+        <v>202630</v>
       </c>
       <c r="AP90" s="16" t="n">
-        <v>202630</v>
+        <v>348127</v>
       </c>
       <c r="AQ90" s="16" t="n">
-        <v>348127</v>
+        <v>284913</v>
       </c>
       <c r="AR90" s="16" t="n">
-        <v>284913</v>
+        <v>183796</v>
       </c>
       <c r="AS90" s="16" t="n">
-        <v>183796</v>
+        <v>0</v>
       </c>
       <c r="AT90" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AU90" s="16" t="n">
-        <v>0</v>
+        <v>263567</v>
       </c>
       <c r="AV90" s="16" t="n">
-        <v>263567</v>
+        <v>0</v>
       </c>
       <c r="AW90" s="16" t="n">
-        <v>0</v>
+        <v>284176</v>
       </c>
       <c r="AX90" s="16" t="n">
-        <v>284176</v>
+        <v>161480</v>
       </c>
       <c r="AY90" s="16" t="n">
-        <v>161480</v>
+        <v>81527</v>
       </c>
       <c r="AZ90" s="16" t="n">
-        <v>81527</v>
+        <v>0</v>
       </c>
       <c r="BA90" s="16" t="n">
         <v>0</v>
@@ -14371,8 +14371,8 @@
       <c r="S91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T91" s="13" t="s">
-        <v>58</v>
+      <c r="T91" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U91" s="13" t="n">
         <v>0</v>
@@ -14381,28 +14381,28 @@
         <v>0</v>
       </c>
       <c r="W91" s="13" t="n">
-        <v>0</v>
+        <v>3360</v>
       </c>
       <c r="X91" s="13" t="n">
-        <v>3360</v>
+        <v>19422</v>
       </c>
       <c r="Y91" s="13" t="n">
-        <v>19422</v>
+        <v>15145</v>
       </c>
       <c r="Z91" s="13" t="n">
-        <v>15145</v>
+        <v>16992</v>
       </c>
       <c r="AA91" s="13" t="n">
-        <v>16992</v>
+        <v>11716</v>
       </c>
       <c r="AB91" s="13" t="n">
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="AC91" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD91" s="13" t="n">
         <v>4769</v>
+      </c>
+      <c r="AD91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE91" s="13" t="s">
         <v>58</v>
@@ -14530,38 +14530,38 @@
       <c r="S92" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T92" s="16" t="s">
-        <v>58</v>
+      <c r="T92" s="16" t="n">
+        <v>11142</v>
       </c>
       <c r="U92" s="16" t="n">
-        <v>11142</v>
+        <v>9258</v>
       </c>
       <c r="V92" s="16" t="n">
-        <v>9258</v>
+        <v>28107</v>
       </c>
       <c r="W92" s="16" t="n">
-        <v>28107</v>
+        <v>72924</v>
       </c>
       <c r="X92" s="16" t="n">
-        <v>72924</v>
+        <v>100681</v>
       </c>
       <c r="Y92" s="16" t="n">
-        <v>100681</v>
+        <v>161004</v>
       </c>
       <c r="Z92" s="16" t="n">
-        <v>161004</v>
+        <v>178084</v>
       </c>
       <c r="AA92" s="16" t="n">
-        <v>178084</v>
+        <v>137314</v>
       </c>
       <c r="AB92" s="16" t="n">
-        <v>137314</v>
+        <v>56460</v>
       </c>
       <c r="AC92" s="16" t="n">
-        <v>56460</v>
-      </c>
-      <c r="AD92" s="16" t="n">
         <v>38640</v>
+      </c>
+      <c r="AD92" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE92" s="16" t="s">
         <v>58</v>
@@ -14688,109 +14688,109 @@
         <v>0</v>
       </c>
       <c r="T93" s="18" t="n">
-        <v>0</v>
+        <v>225660</v>
       </c>
       <c r="U93" s="18" t="n">
-        <v>225660</v>
+        <v>234606</v>
       </c>
       <c r="V93" s="18" t="n">
-        <v>234606</v>
+        <v>604450</v>
       </c>
       <c r="W93" s="18" t="n">
-        <v>604450</v>
+        <v>999886</v>
       </c>
       <c r="X93" s="18" t="n">
-        <v>999886</v>
+        <v>1150613</v>
       </c>
       <c r="Y93" s="18" t="n">
-        <v>1150613</v>
+        <v>1569842</v>
       </c>
       <c r="Z93" s="18" t="n">
-        <v>1569842</v>
+        <v>2375719</v>
       </c>
       <c r="AA93" s="18" t="n">
-        <v>2375719</v>
+        <v>2117037</v>
       </c>
       <c r="AB93" s="18" t="n">
-        <v>2117037</v>
+        <v>766386</v>
       </c>
       <c r="AC93" s="18" t="n">
-        <v>766386</v>
+        <v>1212730</v>
       </c>
       <c r="AD93" s="18" t="n">
-        <v>1212730</v>
+        <v>760645</v>
       </c>
       <c r="AE93" s="18" t="n">
-        <v>760645</v>
+        <v>1019026</v>
       </c>
       <c r="AF93" s="18" t="n">
-        <v>1019026</v>
+        <v>2295293</v>
       </c>
       <c r="AG93" s="18" t="n">
-        <v>2295293</v>
+        <v>2193152</v>
       </c>
       <c r="AH93" s="18" t="n">
-        <v>2193152</v>
+        <v>1568729</v>
       </c>
       <c r="AI93" s="18" t="n">
-        <v>1568729</v>
+        <v>4711325</v>
       </c>
       <c r="AJ93" s="18" t="n">
-        <v>4711325</v>
+        <v>3415875</v>
       </c>
       <c r="AK93" s="18" t="n">
-        <v>3415875</v>
+        <v>1908411</v>
       </c>
       <c r="AL93" s="18" t="n">
-        <v>1908411</v>
+        <v>6301729</v>
       </c>
       <c r="AM93" s="18" t="n">
-        <v>6301729</v>
+        <v>1016470</v>
       </c>
       <c r="AN93" s="18" t="n">
-        <v>1016470</v>
+        <v>1125933</v>
       </c>
       <c r="AO93" s="18" t="n">
-        <v>1125933</v>
+        <v>3501955</v>
       </c>
       <c r="AP93" s="18" t="n">
-        <v>3501955</v>
+        <v>1939559</v>
       </c>
       <c r="AQ93" s="18" t="n">
-        <v>1939559</v>
+        <v>2558050</v>
       </c>
       <c r="AR93" s="18" t="n">
-        <v>2558050</v>
+        <v>6499406</v>
       </c>
       <c r="AS93" s="18" t="n">
-        <v>6499406</v>
+        <v>5683493</v>
       </c>
       <c r="AT93" s="18" t="n">
-        <v>5683493</v>
+        <v>10696626</v>
       </c>
       <c r="AU93" s="18" t="n">
-        <v>10696626</v>
+        <v>4631749</v>
       </c>
       <c r="AV93" s="18" t="n">
-        <v>4631749</v>
+        <v>5374625</v>
       </c>
       <c r="AW93" s="18" t="n">
-        <v>5374625</v>
+        <v>4394338</v>
       </c>
       <c r="AX93" s="18" t="n">
-        <v>4394338</v>
+        <v>3046139</v>
       </c>
       <c r="AY93" s="18" t="n">
-        <v>3046139</v>
+        <v>4067114</v>
       </c>
       <c r="AZ93" s="18" t="n">
-        <v>4067114</v>
+        <v>2599304</v>
       </c>
       <c r="BA93" s="18" t="n">
-        <v>2599304</v>
+        <v>5361714</v>
       </c>
       <c r="BB93" s="18" t="n">
-        <v>5361714</v>
+        <v>2757986</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14903,8 +14903,8 @@
       <c r="S95" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="T95" s="18" t="s">
-        <v>58</v>
+      <c r="T95" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="U95" s="23" t="n">
         <v>0</v>
@@ -15119,8 +15119,8 @@
       <c r="S97" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="T97" s="18" t="s">
-        <v>58</v>
+      <c r="T97" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="U97" s="23" t="n">
         <v>0</v>
@@ -15335,14 +15335,14 @@
       <c r="S99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T99" s="13" t="s">
-        <v>58</v>
+      <c r="T99" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U99" s="13" t="n">
-        <v>0</v>
+        <v>-238</v>
       </c>
       <c r="V99" s="13" t="n">
-        <v>-238</v>
+        <v>0</v>
       </c>
       <c r="W99" s="13" t="n">
         <v>0</v>
@@ -15375,34 +15375,34 @@
         <v>0</v>
       </c>
       <c r="AG99" s="13" t="n">
-        <v>0</v>
+        <v>-4469</v>
       </c>
       <c r="AH99" s="13" t="n">
-        <v>-4469</v>
+        <v>-4759</v>
       </c>
       <c r="AI99" s="13" t="n">
-        <v>-4759</v>
+        <v>-3795</v>
       </c>
       <c r="AJ99" s="13" t="n">
-        <v>-3795</v>
+        <v>-1713</v>
       </c>
       <c r="AK99" s="13" t="n">
-        <v>-1713</v>
+        <v>-5940</v>
       </c>
       <c r="AL99" s="13" t="n">
-        <v>-5940</v>
+        <v>-7451</v>
       </c>
       <c r="AM99" s="13" t="n">
-        <v>-7451</v>
+        <v>-8693</v>
       </c>
       <c r="AN99" s="13" t="n">
-        <v>-8693</v>
+        <v>-7060</v>
       </c>
       <c r="AO99" s="13" t="n">
-        <v>-7060</v>
+        <v>-19</v>
       </c>
       <c r="AP99" s="13" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="AQ99" s="13" t="n">
         <v>0</v>
@@ -15423,22 +15423,22 @@
         <v>0</v>
       </c>
       <c r="AW99" s="13" t="n">
-        <v>0</v>
+        <v>-486</v>
       </c>
       <c r="AX99" s="13" t="n">
-        <v>-486</v>
+        <v>-830</v>
       </c>
       <c r="AY99" s="13" t="n">
-        <v>-830</v>
+        <v>-551</v>
       </c>
       <c r="AZ99" s="13" t="n">
-        <v>-551</v>
+        <v>0</v>
       </c>
       <c r="BA99" s="13" t="n">
-        <v>0</v>
+        <v>-318</v>
       </c>
       <c r="BB99" s="13" t="n">
-        <v>-318</v>
+        <v>-451</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15493,109 +15493,109 @@
         <v>0</v>
       </c>
       <c r="T100" s="22" t="n">
-        <v>0</v>
+        <v>592486</v>
       </c>
       <c r="U100" s="22" t="n">
-        <v>592486</v>
+        <v>678602</v>
       </c>
       <c r="V100" s="22" t="n">
-        <v>678602</v>
+        <v>1387829</v>
       </c>
       <c r="W100" s="22" t="n">
-        <v>1387829</v>
+        <v>1566703</v>
       </c>
       <c r="X100" s="22" t="n">
-        <v>1566703</v>
+        <v>2115451</v>
       </c>
       <c r="Y100" s="22" t="n">
-        <v>2115451</v>
+        <v>2610979</v>
       </c>
       <c r="Z100" s="22" t="n">
-        <v>2610979</v>
+        <v>3416778</v>
       </c>
       <c r="AA100" s="22" t="n">
-        <v>3416778</v>
+        <v>2704690</v>
       </c>
       <c r="AB100" s="22" t="n">
-        <v>2704690</v>
+        <v>1264748</v>
       </c>
       <c r="AC100" s="22" t="n">
-        <v>1264748</v>
+        <v>2686954</v>
       </c>
       <c r="AD100" s="22" t="n">
-        <v>2686954</v>
+        <v>2358066</v>
       </c>
       <c r="AE100" s="22" t="n">
-        <v>2358066</v>
+        <v>2731540</v>
       </c>
       <c r="AF100" s="22" t="n">
-        <v>2731540</v>
+        <v>3297277</v>
       </c>
       <c r="AG100" s="22" t="n">
-        <v>3297277</v>
+        <v>3460734</v>
       </c>
       <c r="AH100" s="22" t="n">
-        <v>3460734</v>
+        <v>2641950</v>
       </c>
       <c r="AI100" s="22" t="n">
-        <v>2641950</v>
+        <v>6165972</v>
       </c>
       <c r="AJ100" s="22" t="n">
-        <v>6165972</v>
+        <v>5342633</v>
       </c>
       <c r="AK100" s="22" t="n">
-        <v>5342633</v>
+        <v>4564880</v>
       </c>
       <c r="AL100" s="22" t="n">
-        <v>4564880</v>
+        <v>9612676</v>
       </c>
       <c r="AM100" s="22" t="n">
-        <v>9612676</v>
+        <v>3768577</v>
       </c>
       <c r="AN100" s="22" t="n">
-        <v>3768577</v>
+        <v>2906291</v>
       </c>
       <c r="AO100" s="22" t="n">
-        <v>2906291</v>
+        <v>5131898</v>
       </c>
       <c r="AP100" s="22" t="n">
-        <v>5131898</v>
+        <v>4869790</v>
       </c>
       <c r="AQ100" s="22" t="n">
-        <v>4869790</v>
+        <v>5839635</v>
       </c>
       <c r="AR100" s="22" t="n">
-        <v>5839635</v>
+        <v>9702296</v>
       </c>
       <c r="AS100" s="22" t="n">
-        <v>9702296</v>
+        <v>8219216</v>
       </c>
       <c r="AT100" s="22" t="n">
-        <v>8219216</v>
+        <v>11928978</v>
       </c>
       <c r="AU100" s="22" t="n">
-        <v>11928978</v>
+        <v>7010482</v>
       </c>
       <c r="AV100" s="22" t="n">
-        <v>7010482</v>
+        <v>7476155</v>
       </c>
       <c r="AW100" s="22" t="n">
-        <v>7476155</v>
+        <v>7011462</v>
       </c>
       <c r="AX100" s="22" t="n">
-        <v>7011462</v>
+        <v>5365876</v>
       </c>
       <c r="AY100" s="22" t="n">
-        <v>5365876</v>
+        <v>4560815</v>
       </c>
       <c r="AZ100" s="22" t="n">
-        <v>4560815</v>
+        <v>3219407</v>
       </c>
       <c r="BA100" s="22" t="n">
-        <v>3219407</v>
+        <v>6616106</v>
       </c>
       <c r="BB100" s="22" t="n">
-        <v>6616106</v>
+        <v>5070914</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16151,44 +16151,44 @@
       <c r="AO107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP107" s="13" t="s">
-        <v>58</v>
+      <c r="AP107" s="13" t="n">
+        <v>133423308</v>
       </c>
       <c r="AQ107" s="13" t="n">
-        <v>133423308</v>
+        <v>158177177</v>
       </c>
       <c r="AR107" s="13" t="n">
-        <v>158177177</v>
+        <v>191961665</v>
       </c>
       <c r="AS107" s="13" t="n">
-        <v>191961665</v>
+        <v>198862360</v>
       </c>
       <c r="AT107" s="13" t="n">
-        <v>198862360</v>
+        <v>196378590</v>
       </c>
       <c r="AU107" s="13" t="n">
-        <v>196378590</v>
+        <v>207307063</v>
       </c>
       <c r="AV107" s="13" t="n">
-        <v>207307063</v>
+        <v>211319352</v>
       </c>
       <c r="AW107" s="13" t="n">
-        <v>211319352</v>
+        <v>208547517</v>
       </c>
       <c r="AX107" s="13" t="n">
-        <v>208547517</v>
+        <v>196778132</v>
       </c>
       <c r="AY107" s="13" t="n">
-        <v>196778132</v>
-      </c>
-      <c r="AZ107" s="13" t="n">
         <v>194420233</v>
       </c>
-      <c r="BA107" s="13" t="s">
-        <v>58</v>
+      <c r="AZ107" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA107" s="13" t="n">
+        <v>174035294</v>
       </c>
       <c r="BB107" s="13" t="n">
-        <v>174035294</v>
+        <v>133740930</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16244,110 +16244,110 @@
       <c r="S108" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T108" s="16" t="s">
-        <v>58</v>
+      <c r="T108" s="16" t="n">
+        <v>26426844</v>
       </c>
       <c r="U108" s="16" t="n">
-        <v>26426844</v>
+        <v>27245546</v>
       </c>
       <c r="V108" s="16" t="n">
-        <v>27245546</v>
+        <v>32822824</v>
       </c>
       <c r="W108" s="16" t="n">
-        <v>32822824</v>
+        <v>35685916</v>
       </c>
       <c r="X108" s="16" t="n">
-        <v>35685916</v>
+        <v>43738347</v>
       </c>
       <c r="Y108" s="16" t="n">
-        <v>43738347</v>
+        <v>49205665</v>
       </c>
       <c r="Z108" s="16" t="n">
-        <v>49205665</v>
+        <v>49670470</v>
       </c>
       <c r="AA108" s="16" t="n">
-        <v>49670470</v>
+        <v>48039806</v>
       </c>
       <c r="AB108" s="16" t="n">
-        <v>48039806</v>
+        <v>49715736</v>
       </c>
       <c r="AC108" s="16" t="n">
-        <v>49715736</v>
+        <v>53776766</v>
       </c>
       <c r="AD108" s="16" t="n">
-        <v>53776766</v>
+        <v>49043796</v>
       </c>
       <c r="AE108" s="16" t="n">
-        <v>49043796</v>
+        <v>58697277</v>
       </c>
       <c r="AF108" s="16" t="n">
-        <v>58697277</v>
+        <v>58507119</v>
       </c>
       <c r="AG108" s="16" t="n">
-        <v>58507119</v>
+        <v>75886957</v>
       </c>
       <c r="AH108" s="16" t="n">
-        <v>75886957</v>
+        <v>82453115</v>
       </c>
       <c r="AI108" s="16" t="n">
-        <v>82453115</v>
+        <v>86666097</v>
       </c>
       <c r="AJ108" s="16" t="n">
-        <v>86666097</v>
+        <v>96542857</v>
       </c>
       <c r="AK108" s="16" t="n">
-        <v>96542857</v>
+        <v>149441237</v>
       </c>
       <c r="AL108" s="16" t="n">
-        <v>149441237</v>
+        <v>166680628</v>
       </c>
       <c r="AM108" s="16" t="n">
-        <v>166680628</v>
+        <v>202693023</v>
       </c>
       <c r="AN108" s="16" t="n">
-        <v>202693023</v>
+        <v>154822642</v>
       </c>
       <c r="AO108" s="16" t="n">
-        <v>154822642</v>
+        <v>118434599</v>
       </c>
       <c r="AP108" s="16" t="n">
-        <v>118434599</v>
+        <v>129312088</v>
       </c>
       <c r="AQ108" s="16" t="n">
-        <v>129312088</v>
+        <v>193546112</v>
       </c>
       <c r="AR108" s="16" t="n">
-        <v>193546112</v>
+        <v>141006757</v>
       </c>
       <c r="AS108" s="16" t="n">
-        <v>141006757</v>
+        <v>123430924</v>
       </c>
       <c r="AT108" s="16" t="n">
-        <v>123430924</v>
+        <v>120248913</v>
       </c>
       <c r="AU108" s="16" t="n">
-        <v>120248913</v>
+        <v>137210359</v>
       </c>
       <c r="AV108" s="16" t="n">
-        <v>137210359</v>
+        <v>136586304</v>
       </c>
       <c r="AW108" s="16" t="n">
-        <v>136586304</v>
+        <v>126045455</v>
       </c>
       <c r="AX108" s="16" t="n">
-        <v>126045455</v>
+        <v>128654880</v>
       </c>
       <c r="AY108" s="16" t="n">
-        <v>128654880</v>
+        <v>127225221</v>
       </c>
       <c r="AZ108" s="16" t="n">
-        <v>127225221</v>
+        <v>115782656</v>
       </c>
       <c r="BA108" s="16" t="n">
-        <v>115782656</v>
+        <v>113719524</v>
       </c>
       <c r="BB108" s="16" t="n">
-        <v>113719524</v>
+        <v>97743147</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16469,44 +16469,44 @@
       <c r="AO109" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP109" s="13" t="s">
-        <v>58</v>
+      <c r="AP109" s="13" t="n">
+        <v>589551920</v>
       </c>
       <c r="AQ109" s="13" t="n">
-        <v>589551920</v>
+        <v>560061255</v>
       </c>
       <c r="AR109" s="13" t="n">
-        <v>560061255</v>
+        <v>564512071</v>
       </c>
       <c r="AS109" s="13" t="n">
-        <v>564512071</v>
+        <v>495605839</v>
       </c>
       <c r="AT109" s="13" t="n">
-        <v>495605839</v>
+        <v>451731272</v>
       </c>
       <c r="AU109" s="13" t="n">
-        <v>451731272</v>
+        <v>436777955</v>
       </c>
       <c r="AV109" s="13" t="n">
-        <v>436777955</v>
+        <v>422918755</v>
       </c>
       <c r="AW109" s="13" t="n">
-        <v>422918755</v>
+        <v>407655771</v>
       </c>
       <c r="AX109" s="13" t="n">
-        <v>407655771</v>
+        <v>403583926</v>
       </c>
       <c r="AY109" s="13" t="n">
-        <v>403583926</v>
+        <v>413295833</v>
       </c>
       <c r="AZ109" s="13" t="n">
-        <v>413295833</v>
+        <v>409916667</v>
       </c>
       <c r="BA109" s="13" t="n">
-        <v>409916667</v>
+        <v>552621072</v>
       </c>
       <c r="BB109" s="13" t="n">
-        <v>552621072</v>
+        <v>561595365</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16565,71 +16565,71 @@
       <c r="T110" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U110" s="16" t="s">
-        <v>58</v>
+      <c r="U110" s="16" t="n">
+        <v>19250000</v>
       </c>
       <c r="V110" s="16" t="n">
-        <v>19250000</v>
+        <v>23302977</v>
       </c>
       <c r="W110" s="16" t="n">
-        <v>23302977</v>
+        <v>23948549</v>
       </c>
       <c r="X110" s="16" t="n">
-        <v>23948549</v>
+        <v>27447409</v>
       </c>
       <c r="Y110" s="16" t="n">
-        <v>27447409</v>
+        <v>27455641</v>
       </c>
       <c r="Z110" s="16" t="n">
-        <v>27455641</v>
+        <v>28773563</v>
       </c>
       <c r="AA110" s="16" t="n">
-        <v>28773563</v>
-      </c>
-      <c r="AB110" s="16" t="n">
         <v>28859223</v>
       </c>
-      <c r="AC110" s="16" t="s">
-        <v>58</v>
+      <c r="AB110" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC110" s="16" t="n">
+        <v>33946721</v>
       </c>
       <c r="AD110" s="16" t="n">
-        <v>33946721</v>
+        <v>37508239</v>
       </c>
       <c r="AE110" s="16" t="n">
-        <v>37508239</v>
+        <v>46524727</v>
       </c>
       <c r="AF110" s="16" t="n">
-        <v>46524727</v>
+        <v>54257545</v>
       </c>
       <c r="AG110" s="16" t="n">
-        <v>54257545</v>
+        <v>65768698</v>
       </c>
       <c r="AH110" s="16" t="n">
-        <v>65768698</v>
+        <v>70819076</v>
       </c>
       <c r="AI110" s="16" t="n">
-        <v>70819076</v>
+        <v>78570703</v>
       </c>
       <c r="AJ110" s="16" t="n">
-        <v>78570703</v>
+        <v>81681741</v>
       </c>
       <c r="AK110" s="16" t="n">
-        <v>81681741</v>
+        <v>93947341</v>
       </c>
       <c r="AL110" s="16" t="n">
-        <v>93947341</v>
+        <v>121000812</v>
       </c>
       <c r="AM110" s="16" t="n">
-        <v>121000812</v>
+        <v>145177928</v>
       </c>
       <c r="AN110" s="16" t="n">
-        <v>145177928</v>
+        <v>148923828</v>
       </c>
       <c r="AO110" s="16" t="n">
-        <v>148923828</v>
-      </c>
-      <c r="AP110" s="16" t="n">
         <v>123974822</v>
+      </c>
+      <c r="AP110" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ110" s="16" t="s">
         <v>58</v>
@@ -16721,110 +16721,110 @@
       <c r="S111" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T111" s="13" t="s">
-        <v>58</v>
+      <c r="T111" s="13" t="n">
+        <v>22231640</v>
       </c>
       <c r="U111" s="13" t="n">
-        <v>22231640</v>
+        <v>22230070</v>
       </c>
       <c r="V111" s="13" t="n">
-        <v>22230070</v>
+        <v>22229290</v>
       </c>
       <c r="W111" s="13" t="n">
-        <v>22229290</v>
+        <v>22228757</v>
       </c>
       <c r="X111" s="13" t="n">
-        <v>22228757</v>
+        <v>35997443</v>
       </c>
       <c r="Y111" s="13" t="n">
-        <v>35997443</v>
+        <v>36000000</v>
       </c>
       <c r="Z111" s="13" t="n">
-        <v>36000000</v>
+        <v>35998918</v>
       </c>
       <c r="AA111" s="13" t="n">
-        <v>35998918</v>
+        <v>35997809</v>
       </c>
       <c r="AB111" s="13" t="n">
-        <v>35997809</v>
+        <v>35997689</v>
       </c>
       <c r="AC111" s="13" t="n">
-        <v>35997689</v>
+        <v>38405087</v>
       </c>
       <c r="AD111" s="13" t="n">
-        <v>38405087</v>
+        <v>43592251</v>
       </c>
       <c r="AE111" s="13" t="n">
-        <v>43592251</v>
+        <v>45609112</v>
       </c>
       <c r="AF111" s="13" t="n">
-        <v>45609112</v>
+        <v>42314175</v>
       </c>
       <c r="AG111" s="13" t="n">
-        <v>42314175</v>
+        <v>45998566</v>
       </c>
       <c r="AH111" s="13" t="n">
-        <v>45998566</v>
+        <v>46000000</v>
       </c>
       <c r="AI111" s="13" t="n">
-        <v>46000000</v>
+        <v>48216111</v>
       </c>
       <c r="AJ111" s="13" t="n">
-        <v>48216111</v>
+        <v>68299962</v>
       </c>
       <c r="AK111" s="13" t="n">
-        <v>68299962</v>
+        <v>68228068</v>
       </c>
       <c r="AL111" s="13" t="n">
-        <v>68228068</v>
+        <v>90231348</v>
       </c>
       <c r="AM111" s="13" t="n">
-        <v>90231348</v>
+        <v>90229008</v>
       </c>
       <c r="AN111" s="13" t="n">
-        <v>90229008</v>
+        <v>90233133</v>
       </c>
       <c r="AO111" s="13" t="n">
-        <v>90233133</v>
+        <v>90228956</v>
       </c>
       <c r="AP111" s="13" t="n">
-        <v>90228956</v>
+        <v>145112004</v>
       </c>
       <c r="AQ111" s="13" t="n">
-        <v>145112004</v>
+        <v>145111968</v>
       </c>
       <c r="AR111" s="13" t="n">
-        <v>145111968</v>
+        <v>116648999</v>
       </c>
       <c r="AS111" s="13" t="n">
-        <v>116648999</v>
+        <v>116643703</v>
       </c>
       <c r="AT111" s="13" t="n">
-        <v>116643703</v>
+        <v>116649200</v>
       </c>
       <c r="AU111" s="13" t="n">
-        <v>116649200</v>
+        <v>108603007</v>
       </c>
       <c r="AV111" s="13" t="n">
-        <v>108603007</v>
+        <v>108603039</v>
       </c>
       <c r="AW111" s="13" t="n">
-        <v>108603039</v>
+        <v>108606660</v>
       </c>
       <c r="AX111" s="13" t="n">
-        <v>108606660</v>
-      </c>
-      <c r="AY111" s="13" t="n">
         <v>108597280</v>
       </c>
-      <c r="AZ111" s="13" t="s">
-        <v>58</v>
+      <c r="AY111" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ111" s="13" t="n">
+        <v>108603055</v>
       </c>
       <c r="BA111" s="13" t="n">
-        <v>108603055</v>
+        <v>81215997</v>
       </c>
       <c r="BB111" s="13" t="n">
-        <v>81215997</v>
+        <v>68716219</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16880,74 +16880,74 @@
       <c r="S112" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T112" s="16" t="s">
-        <v>58</v>
+      <c r="T112" s="16" t="n">
+        <v>181736305</v>
       </c>
       <c r="U112" s="16" t="n">
-        <v>181736305</v>
+        <v>181545543</v>
       </c>
       <c r="V112" s="16" t="n">
-        <v>181545543</v>
+        <v>192879004</v>
       </c>
       <c r="W112" s="16" t="n">
-        <v>192879004</v>
+        <v>170436719</v>
       </c>
       <c r="X112" s="16" t="n">
-        <v>170436719</v>
+        <v>221854500</v>
       </c>
       <c r="Y112" s="16" t="n">
-        <v>221854500</v>
+        <v>243842893</v>
       </c>
       <c r="Z112" s="16" t="n">
-        <v>243842893</v>
+        <v>268267672</v>
       </c>
       <c r="AA112" s="16" t="n">
-        <v>268267672</v>
+        <v>287628947</v>
       </c>
       <c r="AB112" s="16" t="n">
-        <v>287628947</v>
+        <v>347252302</v>
       </c>
       <c r="AC112" s="16" t="n">
-        <v>347252302</v>
+        <v>326023840</v>
       </c>
       <c r="AD112" s="16" t="n">
-        <v>326023840</v>
+        <v>324607417</v>
       </c>
       <c r="AE112" s="16" t="n">
-        <v>324607417</v>
+        <v>364907631</v>
       </c>
       <c r="AF112" s="16" t="n">
-        <v>364907631</v>
+        <v>372608939</v>
       </c>
       <c r="AG112" s="16" t="n">
-        <v>372608939</v>
+        <v>372375993</v>
       </c>
       <c r="AH112" s="16" t="n">
-        <v>372375993</v>
+        <v>452259098</v>
       </c>
       <c r="AI112" s="16" t="n">
-        <v>452259098</v>
+        <v>497805471</v>
       </c>
       <c r="AJ112" s="16" t="n">
-        <v>497805471</v>
+        <v>622362855</v>
       </c>
       <c r="AK112" s="16" t="n">
-        <v>622362855</v>
+        <v>882505863</v>
       </c>
       <c r="AL112" s="16" t="n">
-        <v>882505863</v>
+        <v>932076342</v>
       </c>
       <c r="AM112" s="16" t="n">
-        <v>932076342</v>
+        <v>711063457</v>
       </c>
       <c r="AN112" s="16" t="n">
-        <v>711063457</v>
+        <v>639606952</v>
       </c>
       <c r="AO112" s="16" t="n">
-        <v>639606952</v>
-      </c>
-      <c r="AP112" s="16" t="n">
         <v>665293147</v>
+      </c>
+      <c r="AP112" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ112" s="16" t="s">
         <v>58</v>
@@ -17126,80 +17126,80 @@
       <c r="AC114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD114" s="13" t="s">
-        <v>58</v>
+      <c r="AD114" s="13" t="n">
+        <v>65950891</v>
       </c>
       <c r="AE114" s="13" t="n">
-        <v>65950891</v>
+        <v>71357289</v>
       </c>
       <c r="AF114" s="13" t="n">
-        <v>71357289</v>
+        <v>60410944</v>
       </c>
       <c r="AG114" s="13" t="n">
-        <v>60410944</v>
+        <v>62160195</v>
       </c>
       <c r="AH114" s="13" t="n">
-        <v>62160195</v>
+        <v>76316779</v>
       </c>
       <c r="AI114" s="13" t="n">
-        <v>76316779</v>
+        <v>85747278</v>
       </c>
       <c r="AJ114" s="13" t="n">
-        <v>85747278</v>
+        <v>94690224</v>
       </c>
       <c r="AK114" s="13" t="n">
-        <v>94690224</v>
+        <v>101258866</v>
       </c>
       <c r="AL114" s="13" t="n">
-        <v>101258866</v>
+        <v>172564868</v>
       </c>
       <c r="AM114" s="13" t="n">
-        <v>172564868</v>
+        <v>194023311</v>
       </c>
       <c r="AN114" s="13" t="n">
-        <v>194023311</v>
+        <v>145565851</v>
       </c>
       <c r="AO114" s="13" t="n">
-        <v>145565851</v>
+        <v>127111158</v>
       </c>
       <c r="AP114" s="13" t="n">
-        <v>127111158</v>
+        <v>133732913</v>
       </c>
       <c r="AQ114" s="13" t="n">
-        <v>133732913</v>
+        <v>173718663</v>
       </c>
       <c r="AR114" s="13" t="n">
-        <v>173718663</v>
+        <v>147709834</v>
       </c>
       <c r="AS114" s="13" t="n">
-        <v>147709834</v>
+        <v>139114779</v>
       </c>
       <c r="AT114" s="13" t="n">
-        <v>139114779</v>
+        <v>131745292</v>
       </c>
       <c r="AU114" s="13" t="n">
-        <v>131745292</v>
+        <v>143308868</v>
       </c>
       <c r="AV114" s="13" t="n">
-        <v>143308868</v>
+        <v>157511238</v>
       </c>
       <c r="AW114" s="13" t="n">
-        <v>157511238</v>
+        <v>160721703</v>
       </c>
       <c r="AX114" s="13" t="n">
-        <v>160721703</v>
+        <v>141395872</v>
       </c>
       <c r="AY114" s="13" t="n">
-        <v>141395872</v>
+        <v>134183928</v>
       </c>
       <c r="AZ114" s="13" t="n">
-        <v>134183928</v>
+        <v>125643078</v>
       </c>
       <c r="BA114" s="13" t="n">
-        <v>125643078</v>
+        <v>124714877</v>
       </c>
       <c r="BB114" s="13" t="n">
-        <v>124714877</v>
+        <v>130773167</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17285,80 +17285,80 @@
       <c r="AC115" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD115" s="16" t="s">
-        <v>58</v>
+      <c r="AD115" s="16" t="n">
+        <v>30121673</v>
       </c>
       <c r="AE115" s="16" t="n">
-        <v>30121673</v>
+        <v>56372222</v>
       </c>
       <c r="AF115" s="16" t="n">
-        <v>56372222</v>
+        <v>52816514</v>
       </c>
       <c r="AG115" s="16" t="n">
-        <v>52816514</v>
-      </c>
-      <c r="AH115" s="16" t="n">
         <v>52092437</v>
       </c>
-      <c r="AI115" s="16" t="s">
-        <v>58</v>
+      <c r="AH115" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI115" s="16" t="n">
+        <v>68410256</v>
       </c>
       <c r="AJ115" s="16" t="n">
-        <v>68410256</v>
+        <v>68883249</v>
       </c>
       <c r="AK115" s="16" t="n">
-        <v>68883249</v>
+        <v>81837995</v>
       </c>
       <c r="AL115" s="16" t="n">
-        <v>81837995</v>
+        <v>104864032</v>
       </c>
       <c r="AM115" s="16" t="n">
-        <v>104864032</v>
+        <v>144863118</v>
       </c>
       <c r="AN115" s="16" t="n">
-        <v>144863118</v>
+        <v>155899281</v>
       </c>
       <c r="AO115" s="16" t="n">
-        <v>155899281</v>
+        <v>160825000</v>
       </c>
       <c r="AP115" s="16" t="n">
-        <v>160825000</v>
+        <v>186638655</v>
       </c>
       <c r="AQ115" s="16" t="n">
-        <v>186638655</v>
+        <v>177030453</v>
       </c>
       <c r="AR115" s="16" t="n">
-        <v>177030453</v>
+        <v>175705918</v>
       </c>
       <c r="AS115" s="16" t="n">
-        <v>175705918</v>
+        <v>183320480</v>
       </c>
       <c r="AT115" s="16" t="n">
-        <v>183320480</v>
+        <v>189321750</v>
       </c>
       <c r="AU115" s="16" t="n">
-        <v>189321750</v>
+        <v>190808982</v>
       </c>
       <c r="AV115" s="16" t="n">
-        <v>190808982</v>
+        <v>200105000</v>
       </c>
       <c r="AW115" s="16" t="n">
-        <v>200105000</v>
+        <v>201991067</v>
       </c>
       <c r="AX115" s="16" t="n">
-        <v>201991067</v>
+        <v>201699476</v>
       </c>
       <c r="AY115" s="16" t="n">
-        <v>201699476</v>
-      </c>
-      <c r="AZ115" s="16" t="n">
         <v>200998088</v>
       </c>
-      <c r="BA115" s="16" t="s">
-        <v>58</v>
+      <c r="AZ115" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA115" s="16" t="n">
+        <v>192164782</v>
       </c>
       <c r="BB115" s="16" t="n">
-        <v>192164782</v>
+        <v>189643187</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17414,38 +17414,38 @@
       <c r="S116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T116" s="13" t="s">
-        <v>58</v>
+      <c r="T116" s="13" t="n">
+        <v>28177854</v>
       </c>
       <c r="U116" s="13" t="n">
-        <v>28177854</v>
+        <v>29569348</v>
       </c>
       <c r="V116" s="13" t="n">
-        <v>29569348</v>
+        <v>33609925</v>
       </c>
       <c r="W116" s="13" t="n">
-        <v>33609925</v>
+        <v>40153117</v>
       </c>
       <c r="X116" s="13" t="n">
-        <v>40153117</v>
+        <v>46033682</v>
       </c>
       <c r="Y116" s="13" t="n">
-        <v>46033682</v>
+        <v>51906629</v>
       </c>
       <c r="Z116" s="13" t="n">
-        <v>51906629</v>
+        <v>54439859</v>
       </c>
       <c r="AA116" s="13" t="n">
-        <v>54439859</v>
+        <v>55904525</v>
       </c>
       <c r="AB116" s="13" t="n">
-        <v>55904525</v>
+        <v>50777913</v>
       </c>
       <c r="AC116" s="13" t="n">
-        <v>50777913</v>
-      </c>
-      <c r="AD116" s="13" t="n">
         <v>55321048</v>
+      </c>
+      <c r="AD116" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE116" s="13" t="s">
         <v>58</v>
@@ -17603,74 +17603,74 @@
       <c r="AC117" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD117" s="16" t="s">
-        <v>58</v>
+      <c r="AD117" s="16" t="n">
+        <v>423000000</v>
       </c>
       <c r="AE117" s="16" t="n">
-        <v>423000000</v>
+        <v>435864796</v>
       </c>
       <c r="AF117" s="16" t="n">
-        <v>435864796</v>
+        <v>439848435</v>
       </c>
       <c r="AG117" s="16" t="n">
-        <v>439848435</v>
+        <v>467676529</v>
       </c>
       <c r="AH117" s="16" t="n">
-        <v>467676529</v>
+        <v>556074803</v>
       </c>
       <c r="AI117" s="16" t="n">
-        <v>556074803</v>
+        <v>585545297</v>
       </c>
       <c r="AJ117" s="16" t="n">
-        <v>585545297</v>
+        <v>806267790</v>
       </c>
       <c r="AK117" s="16" t="n">
-        <v>806267790</v>
+        <v>940348740</v>
       </c>
       <c r="AL117" s="16" t="n">
-        <v>940348740</v>
+        <v>977012285</v>
       </c>
       <c r="AM117" s="16" t="n">
-        <v>977012285</v>
+        <v>883865000</v>
       </c>
       <c r="AN117" s="16" t="n">
-        <v>883865000</v>
+        <v>770870000</v>
       </c>
       <c r="AO117" s="16" t="n">
-        <v>770870000</v>
+        <v>675433333</v>
       </c>
       <c r="AP117" s="16" t="n">
-        <v>675433333</v>
+        <v>686641026</v>
       </c>
       <c r="AQ117" s="16" t="n">
-        <v>686641026</v>
+        <v>619376087</v>
       </c>
       <c r="AR117" s="16" t="n">
-        <v>619376087</v>
-      </c>
-      <c r="AS117" s="16" t="n">
         <v>532742029</v>
       </c>
+      <c r="AS117" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AT117" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU117" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV117" s="16" t="n">
+      <c r="AU117" s="16" t="n">
         <v>440747492</v>
       </c>
-      <c r="AW117" s="16" t="s">
-        <v>58</v>
+      <c r="AV117" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW117" s="16" t="n">
+        <v>421626113</v>
       </c>
       <c r="AX117" s="16" t="n">
-        <v>421626113</v>
+        <v>393853659</v>
       </c>
       <c r="AY117" s="16" t="n">
-        <v>393853659</v>
-      </c>
-      <c r="AZ117" s="16" t="n">
         <v>407635000</v>
+      </c>
+      <c r="AZ117" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BA117" s="16" t="s">
         <v>58</v>
@@ -17741,29 +17741,29 @@
       <c r="V118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W118" s="13" t="s">
-        <v>58</v>
+      <c r="W118" s="13" t="n">
+        <v>24172662</v>
       </c>
       <c r="X118" s="13" t="n">
-        <v>24172662</v>
+        <v>25190661</v>
       </c>
       <c r="Y118" s="13" t="n">
-        <v>25190661</v>
+        <v>28957935</v>
       </c>
       <c r="Z118" s="13" t="n">
-        <v>28957935</v>
+        <v>32120983</v>
       </c>
       <c r="AA118" s="13" t="n">
-        <v>32120983</v>
-      </c>
-      <c r="AB118" s="13" t="n">
         <v>32098630</v>
       </c>
-      <c r="AC118" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD118" s="13" t="n">
+      <c r="AB118" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC118" s="13" t="n">
         <v>33584507</v>
+      </c>
+      <c r="AD118" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE118" s="13" t="s">
         <v>58</v>
@@ -17891,38 +17891,38 @@
       <c r="S119" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T119" s="16" t="s">
-        <v>58</v>
+      <c r="T119" s="16" t="n">
+        <v>116062500</v>
       </c>
       <c r="U119" s="16" t="n">
-        <v>116062500</v>
+        <v>128583333</v>
       </c>
       <c r="V119" s="16" t="n">
-        <v>128583333</v>
+        <v>137779412</v>
       </c>
       <c r="W119" s="16" t="n">
-        <v>137779412</v>
+        <v>147024194</v>
       </c>
       <c r="X119" s="16" t="n">
-        <v>147024194</v>
+        <v>158303459</v>
       </c>
       <c r="Y119" s="16" t="n">
-        <v>158303459</v>
+        <v>199262376</v>
       </c>
       <c r="Z119" s="16" t="n">
-        <v>199262376</v>
+        <v>213019139</v>
       </c>
       <c r="AA119" s="16" t="n">
-        <v>213019139</v>
+        <v>276842742</v>
       </c>
       <c r="AB119" s="16" t="n">
-        <v>276842742</v>
+        <v>288061224</v>
       </c>
       <c r="AC119" s="16" t="n">
-        <v>288061224</v>
-      </c>
-      <c r="AD119" s="16" t="n">
         <v>386400000</v>
+      </c>
+      <c r="AD119" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE119" s="16" t="s">
         <v>58</v>
